--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G2" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H2" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I2" t="n">
         <v>5.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
         <v>4.2</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -805,16 +805,16 @@
         <v>2.76</v>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
         <v>2.68</v>
       </c>
       <c r="I3" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
         <v>3.6</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U3" t="n">
         <v>2.2</v>
@@ -901,7 +901,7 @@
         <v>44</v>
       </c>
       <c r="AM3" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN3" t="n">
         <v>28</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G4" t="n">
         <v>1.86</v>
@@ -991,13 +991,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y4" t="n">
         <v>23</v>
       </c>
       <c r="Z4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1009,7 +1009,7 @@
         <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H5" t="n">
         <v>1.79</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1135,34 +1135,34 @@
         <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG5" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="G6" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H6" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I6" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J6" t="n">
         <v>3.45</v>
@@ -1261,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
         <v>8.199999999999999</v>
@@ -1297,22 +1297,22 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
         <v>48</v>
       </c>
-      <c r="AK6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM6" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO6" t="n">
         <v>29</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -1354,7 +1354,7 @@
         <v>2.76</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
         <v>3.55</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>1.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U7" t="n">
         <v>2.1</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
         <v>19</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8</v>
@@ -1417,7 +1417,7 @@
         <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF7" t="n">
         <v>21</v>
@@ -1429,16 +1429,16 @@
         <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>120</v>
@@ -1447,7 +1447,7 @@
         <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1510,13 +1510,13 @@
         <v>2.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R8" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S8" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T8" t="n">
         <v>1.64</v>
@@ -1564,7 +1564,7 @@
         <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
@@ -1573,7 +1573,7 @@
         <v>22</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>13.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="I9" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="J9" t="n">
         <v>4.1</v>
@@ -1654,10 +1654,10 @@
         <v>3.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>18.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z9" t="n">
         <v>10.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
         <v>25</v>
@@ -1690,31 +1690,31 @@
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AH9" t="n">
         <v>28</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK9" t="n">
-        <v>990</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="n">
-        <v>990</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>9.800000000000001</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
         <v>2.44</v>
@@ -1762,7 +1762,7 @@
         <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>1.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>17.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
         <v>12</v>
@@ -1837,7 +1837,7 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="n">
         <v>34</v>
@@ -1846,7 +1846,7 @@
         <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
         <v>40</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H11" t="n">
         <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J11" t="n">
         <v>4.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1936,16 +1936,16 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
         <v>24</v>
       </c>
       <c r="Z11" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="AA11" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
         <v>10.5</v>
@@ -1957,7 +1957,7 @@
         <v>32</v>
       </c>
       <c r="AE11" t="n">
-        <v>100</v>
+        <v>990</v>
       </c>
       <c r="AF11" t="n">
         <v>11</v>
@@ -1978,16 +1978,16 @@
         <v>16</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
         <v>7.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="12">
@@ -2023,7 +2023,7 @@
         <v>2.44</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I12" t="n">
         <v>3.75</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="G13" t="n">
         <v>1.24</v>
       </c>
       <c r="H13" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="I13" t="n">
         <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>1.09</v>
+        <v>6.4</v>
       </c>
       <c r="K13" t="n">
-        <v>950</v>
+        <v>10.5</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G14" t="n">
         <v>3.85</v>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,46 +2341,46 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AB14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD14" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
         <v>18.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AK14" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2389,10 +2389,10 @@
         <v>85</v>
       </c>
       <c r="AN14" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15">
@@ -2431,7 +2431,7 @@
         <v>20</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J15" t="n">
         <v>7.6</v>
@@ -2455,7 +2455,7 @@
         <v>2.64</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q16" t="n">
         <v>1.71</v>
@@ -2695,19 +2695,19 @@
         <v>1.19</v>
       </c>
       <c r="G17" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="H17" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="I17" t="n">
         <v>21</v>
       </c>
       <c r="J17" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>4.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K18" t="n">
         <v>3.9</v>
@@ -2860,7 +2860,7 @@
         <v>1.94</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>2.54</v>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="H19" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I19" t="n">
         <v>2.98</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G20" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
         <v>4.3</v>
@@ -3130,16 +3130,16 @@
         <v>2.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R20" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S20" t="n">
         <v>2.98</v>
       </c>
       <c r="T20" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U20" t="n">
         <v>2.28</v>
@@ -3160,7 +3160,7 @@
         <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB20" t="n">
         <v>11</v>
@@ -3187,10 +3187,10 @@
         <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL20" t="n">
         <v>34</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G21" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
         <v>5.1</v>
       </c>
       <c r="I21" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J21" t="n">
         <v>3.95</v>
@@ -3265,7 +3265,7 @@
         <v>1.96</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U21" t="n">
         <v>2</v>
@@ -3298,7 +3298,7 @@
         <v>170</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC21" t="n">
         <v>9.199999999999999</v>
@@ -3334,7 +3334,7 @@
         <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3379,10 +3379,10 @@
         <v>2.46</v>
       </c>
       <c r="J22" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3409,10 +3409,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U22" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="n">
         <v>13</v>
@@ -3442,10 +3442,10 @@
         <v>12</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG22" t="n">
         <v>14</v>
@@ -3460,7 +3460,7 @@
         <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
         <v>1000</v>
@@ -3469,10 +3469,10 @@
         <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO22" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3562,52 +3562,52 @@
         <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA23" t="n">
         <v>150</v>
       </c>
       <c r="AB23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AD23" t="n">
         <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
         <v>19.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM23" t="n">
         <v>120</v>
       </c>
       <c r="AN23" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G24" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H24" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I24" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
@@ -3658,10 +3658,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O24" t="n">
         <v>1.32</v>
@@ -3679,7 +3679,7 @@
         <v>3.45</v>
       </c>
       <c r="T24" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="U24" t="n">
         <v>2.04</v>
@@ -3700,7 +3700,7 @@
         <v>11.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AB24" t="n">
         <v>17.5</v>
@@ -3715,7 +3715,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG24" t="n">
         <v>20</v>
@@ -3724,25 +3724,25 @@
         <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AJ24" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AM24" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AO24" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="25">
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="H25" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I25" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K25" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,22 +3802,22 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U25" t="n">
         <v>2.24</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.2</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3859,13 +3859,13 @@
         <v>18.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="n">
         <v>32</v>
@@ -3874,7 +3874,7 @@
         <v>85</v>
       </c>
       <c r="AN25" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
         <v>55</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G26" t="n">
         <v>1.89</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.9</v>
       </c>
       <c r="H26" t="n">
         <v>4.2</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U26" t="n">
         <v>2.36</v>
@@ -3967,10 +3967,10 @@
         <v>26</v>
       </c>
       <c r="Z26" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AA26" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB26" t="n">
         <v>11.5</v>
@@ -3979,13 +3979,13 @@
         <v>9.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG26" t="n">
         <v>10.5</v>
@@ -3997,7 +3997,7 @@
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AK26" t="n">
         <v>18.5</v>
@@ -4012,7 +4012,7 @@
         <v>10</v>
       </c>
       <c r="AO26" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G27" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="I27" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="K27" t="n">
         <v>7.8</v>
@@ -4066,13 +4066,13 @@
         <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O27" t="n">
         <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="Q27" t="n">
         <v>1.56</v>
@@ -4081,13 +4081,13 @@
         <v>1.66</v>
       </c>
       <c r="S27" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="T27" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U27" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4096,13 +4096,13 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Y27" t="n">
         <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
@@ -4117,19 +4117,19 @@
         <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AF27" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
         <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
         <v>9.6</v>
@@ -4141,10 +4141,10 @@
         <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4183,7 +4183,7 @@
         <v>1.42</v>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I28" t="n">
         <v>10</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U28" t="n">
         <v>1.9</v>
@@ -4249,7 +4249,7 @@
         <v>12</v>
       </c>
       <c r="AD28" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
@@ -4276,7 +4276,7 @@
         <v>75</v>
       </c>
       <c r="AM28" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
         <v>5.7</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.25</v>
+        <v>2.24</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4450,19 +4450,19 @@
         <v>1.95</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H30" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G31" t="n">
         <v>1.53</v>
@@ -4615,7 +4615,7 @@
         <v>2.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>1.43</v>
       </c>
       <c r="G32" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H32" t="n">
         <v>7.2</v>
@@ -4759,10 +4759,10 @@
         <v>2.44</v>
       </c>
       <c r="T32" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U32" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>110</v>
       </c>
       <c r="AJ32" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK32" t="n">
         <v>15.5</v>
@@ -4819,7 +4819,7 @@
         <v>130</v>
       </c>
       <c r="AN32" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4885,7 +4885,7 @@
         <v>1.92</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4999,7 +4999,7 @@
         <v>6.2</v>
       </c>
       <c r="J34" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K34" t="n">
         <v>4.5</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.25</v>
+        <v>1.98</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5131,13 +5131,13 @@
         <v>6.2</v>
       </c>
       <c r="I35" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G36" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="H36" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="I36" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="J36" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K36" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G38" t="n">
         <v>2.04</v>
@@ -5536,10 +5536,10 @@
         <v>4.6</v>
       </c>
       <c r="I38" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J38" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K38" t="n">
         <v>3.7</v>
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5806,7 +5806,7 @@
         <v>3.1</v>
       </c>
       <c r="I40" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J40" t="n">
         <v>3.05</v>
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q40" t="n">
         <v>2.42</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G2" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="H2" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -805,13 +805,13 @@
         <v>2.76</v>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H3" t="n">
         <v>2.68</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J3" t="n">
         <v>3.45</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -844,10 +844,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>1.83</v>
       </c>
       <c r="G4" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
         <v>4.4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="n">
         <v>23</v>
@@ -1075,13 +1075,13 @@
         <v>4.6</v>
       </c>
       <c r="G5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AC5" t="n">
         <v>10.5</v>
@@ -1147,19 +1147,19 @@
         <v>12</v>
       </c>
       <c r="AE5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
         <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>22</v>
       </c>
       <c r="AH5" t="n">
         <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="n">
         <v>130</v>
@@ -1174,10 +1174,10 @@
         <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G6" t="n">
         <v>2.92</v>
@@ -1240,7 +1240,7 @@
         <v>1.96</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
@@ -1351,10 +1351,10 @@
         <v>2.64</v>
       </c>
       <c r="I7" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
         <v>3.55</v>
@@ -1375,7 +1375,7 @@
         <v>1.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1417,7 +1417,7 @@
         <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
         <v>21</v>
@@ -1444,7 +1444,7 @@
         <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>29</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="G8" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H8" t="n">
         <v>3.45</v>
@@ -1501,7 +1501,7 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1513,16 +1513,16 @@
         <v>1.76</v>
       </c>
       <c r="R8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="T8" t="n">
         <v>1.64</v>
       </c>
       <c r="U8" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>12.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE8" t="n">
         <v>44</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
         <v>5.4</v>
@@ -1621,7 +1621,7 @@
         <v>1.74</v>
       </c>
       <c r="I9" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="J9" t="n">
         <v>4.1</v>
@@ -1699,7 +1699,7 @@
         <v>28</v>
       </c>
       <c r="AI9" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
         <v>150</v>
@@ -1756,13 +1756,13 @@
         <v>2.44</v>
       </c>
       <c r="I10" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.64</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.65</v>
       </c>
       <c r="H11" t="n">
         <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1942,10 +1942,10 @@
         <v>24</v>
       </c>
       <c r="Z11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB11" t="n">
         <v>10.5</v>
@@ -1957,7 +1957,7 @@
         <v>32</v>
       </c>
       <c r="AE11" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
         <v>11</v>
@@ -1975,19 +1975,19 @@
         <v>15.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL11" t="n">
         <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="n">
         <v>7.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G12" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H12" t="n">
         <v>3.45</v>
@@ -2029,10 +2029,10 @@
         <v>3.75</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q12" t="n">
         <v>2.14</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G13" t="n">
         <v>1.24</v>
@@ -2167,7 +2167,7 @@
         <v>6.4</v>
       </c>
       <c r="K13" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="G14" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
         <v>2.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.24</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="Q14" t="n">
         <v>1.66</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="U14" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2344,7 +2344,7 @@
         <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
         <v>980</v>
@@ -2365,7 +2365,7 @@
         <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
         <v>18.5</v>
@@ -2377,7 +2377,7 @@
         <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="n">
         <v>980</v>
@@ -2389,7 +2389,7 @@
         <v>85</v>
       </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AO14" t="n">
         <v>980</v>
@@ -2425,19 +2425,19 @@
         <v>1.17</v>
       </c>
       <c r="G15" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="H15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J15" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="K15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K16" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>1.99</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G17" t="n">
         <v>1.22</v>
@@ -2704,7 +2704,7 @@
         <v>21</v>
       </c>
       <c r="J17" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>9.800000000000001</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H18" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="J18" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.79</v>
+        <v>2.04</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G19" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H19" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I19" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="J19" t="n">
         <v>3.7</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q19" t="n">
         <v>1.67</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="G20" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
         <v>4.3</v>
@@ -3136,7 +3136,7 @@
         <v>1.48</v>
       </c>
       <c r="S20" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T20" t="n">
         <v>1.73</v>
@@ -3154,13 +3154,13 @@
         <v>19.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z20" t="n">
         <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB20" t="n">
         <v>11</v>
@@ -3187,16 +3187,16 @@
         <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK20" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
         <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN20" t="n">
         <v>11</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="G21" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H21" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I21" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
         <v>4.2</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>15.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Z21" t="n">
         <v>55</v>
@@ -3301,7 +3301,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD21" t="n">
         <v>26</v>
@@ -3316,16 +3316,16 @@
         <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>44</v>
@@ -3334,7 +3334,7 @@
         <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3373,7 +3373,7 @@
         <v>3.25</v>
       </c>
       <c r="H22" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I22" t="n">
         <v>2.46</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3409,10 +3409,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="U22" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3421,31 +3421,31 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB22" t="n">
         <v>14</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
         <v>12</v>
       </c>
       <c r="AE22" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF22" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
         <v>14</v>
@@ -3454,7 +3454,7 @@
         <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ22" t="n">
         <v>1000</v>
@@ -3466,13 +3466,13 @@
         <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN22" t="n">
         <v>34</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
         <v>150</v>
@@ -3577,7 +3577,7 @@
         <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
         <v>12</v>
@@ -3589,7 +3589,7 @@
         <v>19.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
         <v>22</v>
@@ -3598,13 +3598,13 @@
         <v>22</v>
       </c>
       <c r="AL23" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
         <v>120</v>
       </c>
       <c r="AN23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO23" t="n">
         <v>80</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G24" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H24" t="n">
         <v>1.79</v>
       </c>
       <c r="I24" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
@@ -3670,16 +3670,16 @@
         <v>1.98</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R24" t="n">
         <v>1.38</v>
       </c>
       <c r="S24" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="T24" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="U24" t="n">
         <v>2.04</v>
@@ -3694,28 +3694,28 @@
         <v>16</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z24" t="n">
         <v>11.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AB24" t="n">
         <v>17.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
         <v>10.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AF24" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
         <v>20</v>
@@ -3724,25 +3724,25 @@
         <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK24" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN24" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="G25" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="H25" t="n">
         <v>4.7</v>
       </c>
       <c r="I25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q25" t="n">
         <v>1.67</v>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U25" t="n">
         <v>2.24</v>
@@ -3874,7 +3874,7 @@
         <v>85</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO25" t="n">
         <v>55</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G26" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
         <v>4.2</v>
@@ -3940,7 +3940,7 @@
         <v>2.34</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U26" t="n">
         <v>2.36</v>
@@ -3967,7 +3967,7 @@
         <v>26</v>
       </c>
       <c r="Z26" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AA26" t="n">
         <v>85</v>
@@ -4012,7 +4012,7 @@
         <v>10</v>
       </c>
       <c r="AO26" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4072,13 +4072,13 @@
         <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R27" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S27" t="n">
         <v>2.38</v>
@@ -4087,7 +4087,7 @@
         <v>2.12</v>
       </c>
       <c r="U27" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y27" t="n">
         <v>1000</v>
@@ -4120,7 +4120,7 @@
         <v>300</v>
       </c>
       <c r="AF27" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG27" t="n">
         <v>12</v>
@@ -4132,7 +4132,7 @@
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK27" t="n">
         <v>15</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G28" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="H28" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I28" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J28" t="n">
         <v>5.2</v>
       </c>
       <c r="K28" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q28" t="n">
         <v>1.67</v>
@@ -4231,10 +4231,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y28" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
@@ -4246,13 +4246,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF28" t="n">
         <v>8.800000000000001</v>
@@ -4261,7 +4261,7 @@
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
@@ -4273,10 +4273,10 @@
         <v>15</v>
       </c>
       <c r="AL28" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN28" t="n">
         <v>5.7</v>
@@ -4315,13 +4315,13 @@
         <v>3.2</v>
       </c>
       <c r="G29" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H29" t="n">
         <v>2.2</v>
       </c>
       <c r="I29" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J29" t="n">
         <v>3.7</v>
@@ -4450,10 +4450,10 @@
         <v>1.95</v>
       </c>
       <c r="G30" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
         <v>5</v>
@@ -4462,7 +4462,7 @@
         <v>3.55</v>
       </c>
       <c r="K30" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G31" t="n">
         <v>1.53</v>
@@ -4591,13 +4591,13 @@
         <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K31" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4720,13 +4720,13 @@
         <v>1.43</v>
       </c>
       <c r="G32" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>7.2</v>
       </c>
       <c r="I32" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J32" t="n">
         <v>4.8</v>
@@ -4759,10 +4759,10 @@
         <v>2.44</v>
       </c>
       <c r="T32" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U32" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AB32" t="n">
         <v>11</v>
@@ -4792,7 +4792,7 @@
         <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF32" t="n">
         <v>10.5</v>
@@ -4804,7 +4804,7 @@
         <v>24</v>
       </c>
       <c r="AI32" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AJ32" t="n">
         <v>13.5</v>
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="G33" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H33" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="I33" t="n">
         <v>2.04</v>
       </c>
       <c r="J33" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="K33" t="n">
         <v>3.9</v>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="Q33" t="n">
         <v>1.75</v>
@@ -4993,10 +4993,10 @@
         <v>1.75</v>
       </c>
       <c r="H34" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I34" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J34" t="n">
         <v>3.9</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q34" t="n">
         <v>1.71</v>
@@ -5125,19 +5125,19 @@
         <v>1.61</v>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="H35" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="I35" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J35" t="n">
         <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="G36" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="H36" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="I36" t="n">
         <v>1.51</v>
       </c>
       <c r="J36" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K36" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G37" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="H37" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J37" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K37" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q37" t="n">
         <v>1.52</v>
@@ -5542,7 +5542,7 @@
         <v>3.45</v>
       </c>
       <c r="K38" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5800,19 +5800,19 @@
         <v>2.5</v>
       </c>
       <c r="G40" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H40" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I40" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J40" t="n">
         <v>3.05</v>
       </c>
       <c r="K40" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO40"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,33 +653,33 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>11:55:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.76</v>
+        <v>3.25</v>
       </c>
       <c r="G2" t="n">
-        <v>1.89</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>4.9</v>
+        <v>2.12</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>2.34</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,42 +788,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.76</v>
+        <v>1.45</v>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.68</v>
+        <v>5.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.82</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.96</v>
+        <v>2.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.96</v>
+        <v>1.54</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -844,10 +844,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -856,64 +856,64 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,42 +923,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.83</v>
+        <v>2.16</v>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.48</v>
+        <v>1.72</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.61</v>
+        <v>1.97</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,58 +991,58 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1063,37 +1063,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>1.77</v>
       </c>
       <c r="G5" t="n">
-        <v>4.8</v>
+        <v>1.79</v>
       </c>
       <c r="H5" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,58 +1126,58 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.800000000000001</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
         <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK5" t="n">
         <v>20</v>
       </c>
-      <c r="AF5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>70</v>
+        <v>7.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1198,37 +1198,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="G6" t="n">
-        <v>2.92</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.62</v>
+        <v>1.77</v>
       </c>
       <c r="I6" t="n">
-        <v>2.76</v>
+        <v>1.83</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,58 +1261,58 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z6" t="n">
         <v>12</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH6" t="n">
         <v>19</v>
       </c>
-      <c r="AA6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -1333,37 +1333,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.86</v>
+        <v>1.63</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="H7" t="n">
-        <v>2.64</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.72</v>
+        <v>6.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.04</v>
+        <v>1.74</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
         <v>2.12</v>
@@ -1396,58 +1396,58 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Y7" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>180</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
         <v>11</v>
       </c>
-      <c r="Z7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AG7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH7" t="n">
         <v>21</v>
       </c>
-      <c r="AG7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>18</v>
-      </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>40</v>
+        <v>16.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
         <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,62 +1468,62 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.16</v>
+        <v>2.66</v>
       </c>
       <c r="G8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U8" t="n">
         <v>2.22</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.34</v>
-      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -1531,58 +1531,58 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF8" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>16</v>
-      </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>13.5</v>
+        <v>30</v>
       </c>
       <c r="AO8" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1603,62 +1603,62 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>2.78</v>
       </c>
       <c r="G9" t="n">
-        <v>5.4</v>
+        <v>2.88</v>
       </c>
       <c r="H9" t="n">
-        <v>1.74</v>
+        <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.77</v>
+        <v>2.78</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.12</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -1666,49 +1666,49 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH9" t="n">
         <v>18</v>
       </c>
-      <c r="AF9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>28</v>
-      </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AJ9" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>120</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.800000000000001</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.2</v>
+        <v>2.16</v>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>2.24</v>
       </c>
       <c r="H10" t="n">
-        <v>2.44</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.46</v>
+        <v>3.75</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1771,28 +1771,28 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="T10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U10" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,58 +1801,58 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD10" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>12</v>
-      </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AF10" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO10" t="n">
         <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>16.5</v>
       </c>
     </row>
     <row r="11">
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.61</v>
+        <v>3.2</v>
       </c>
       <c r="G11" t="n">
-        <v>1.64</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>2.42</v>
       </c>
       <c r="I11" t="n">
-        <v>6.6</v>
+        <v>2.46</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,64 +1936,64 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>65</v>
+        <v>17.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE11" t="n">
         <v>32</v>
       </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15.5</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO11" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,61 +2008,61 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>4.8</v>
       </c>
       <c r="G12" t="n">
-        <v>2.46</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>1.77</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>1.79</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>1.74</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,37 +2143,37 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.2</v>
+        <v>2.68</v>
       </c>
       <c r="G13" t="n">
-        <v>1.24</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
-        <v>1.09</v>
+        <v>2.76</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>2.9</v>
       </c>
       <c r="J13" t="n">
-        <v>6.4</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>9.4</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.7</v>
+        <v>1.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.41</v>
+        <v>1.96</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,58 +2206,58 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -2278,37 +2278,37 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3</v>
+        <v>2.46</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>3.45</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.06</v>
+        <v>1.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.66</v>
+        <v>2.14</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,58 +2341,58 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="G15" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="H15" t="n">
-        <v>21</v>
+        <v>1.09</v>
       </c>
       <c r="I15" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="K15" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>2.68</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2548,37 +2548,37 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="G16" t="n">
-        <v>1.47</v>
+        <v>4.3</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>1.98</v>
       </c>
       <c r="I16" t="n">
-        <v>9.800000000000001</v>
+        <v>2.12</v>
       </c>
       <c r="J16" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,58 +2611,58 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17">
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="G17" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="H17" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I17" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J17" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>3.35</v>
+        <v>2.64</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2818,31 +2818,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.88</v>
+        <v>1.18</v>
       </c>
       <c r="G18" t="n">
-        <v>1.98</v>
+        <v>1.22</v>
       </c>
       <c r="H18" t="n">
-        <v>4.3</v>
+        <v>17</v>
       </c>
       <c r="I18" t="n">
-        <v>4.9</v>
+        <v>22</v>
       </c>
       <c r="J18" t="n">
-        <v>3.75</v>
+        <v>8.4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>10.5</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.83</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.04</v>
+        <v>1.33</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2953,31 +2953,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.52</v>
+        <v>1.41</v>
       </c>
       <c r="G19" t="n">
-        <v>2.62</v>
+        <v>1.46</v>
       </c>
       <c r="H19" t="n">
-        <v>2.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>3.05</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>5.6</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.2</v>
+        <v>1.99</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,66 +3083,66 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G20" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.2</v>
+        <v>1.82</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.77</v>
+        <v>2.06</v>
       </c>
       <c r="R20" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,64 +3151,64 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,42 +3218,42 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="G21" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="H21" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="I21" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,64 +3286,64 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,42 +3353,42 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.1</v>
+        <v>2.46</v>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="H22" t="n">
-        <v>2.4</v>
+        <v>2.96</v>
       </c>
       <c r="I22" t="n">
-        <v>2.46</v>
+        <v>3.15</v>
       </c>
       <c r="J22" t="n">
         <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3409,10 +3409,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3421,58 +3421,58 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3493,31 +3493,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="G23" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="I23" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="J23" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3526,28 +3526,28 @@
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P23" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q23" t="n">
         <v>1.78</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="T23" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="U23" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3556,58 +3556,58 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA23" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG23" t="n">
         <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
         <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AN23" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AO23" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -3628,25 +3628,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.8</v>
+        <v>1.74</v>
       </c>
       <c r="G24" t="n">
-        <v>5.2</v>
+        <v>1.78</v>
       </c>
       <c r="H24" t="n">
-        <v>1.79</v>
+        <v>5.1</v>
       </c>
       <c r="I24" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
@@ -3658,31 +3658,31 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>1.98</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R24" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U24" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3691,58 +3691,58 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="Z24" t="n">
-        <v>11.5</v>
+        <v>55</v>
       </c>
       <c r="AA24" t="n">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="AB24" t="n">
-        <v>17.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG24" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>20</v>
-      </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3763,61 +3763,61 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>1.73</v>
       </c>
-      <c r="G25" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.69</v>
-      </c>
       <c r="U25" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3826,58 +3826,58 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Y25" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="AB25" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AC25" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ25" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.800000000000001</v>
+        <v>34</v>
       </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -3898,31 +3898,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="I26" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="U26" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3961,58 +3961,58 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD26" t="n">
         <v>21</v>
       </c>
-      <c r="Y26" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
         <v>10.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AL26" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -4033,61 +4033,61 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.24</v>
+        <v>4.9</v>
       </c>
       <c r="G27" t="n">
-        <v>1.26</v>
+        <v>5.2</v>
       </c>
       <c r="H27" t="n">
-        <v>14</v>
+        <v>1.78</v>
       </c>
       <c r="I27" t="n">
-        <v>16.5</v>
+        <v>1.79</v>
       </c>
       <c r="J27" t="n">
-        <v>7.4</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="P27" t="n">
-        <v>2.68</v>
+        <v>1.98</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.55</v>
+        <v>1.94</v>
       </c>
       <c r="R27" t="n">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="S27" t="n">
-        <v>2.38</v>
+        <v>3.35</v>
       </c>
       <c r="T27" t="n">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="U27" t="n">
-        <v>1.79</v>
+        <v>2.04</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4096,58 +4096,58 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>48</v>
+        <v>15.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AB27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD27" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE27" t="n">
-        <v>300</v>
+        <v>19</v>
       </c>
       <c r="AF27" t="n">
-        <v>8.4</v>
+        <v>80</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>990</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AM27" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>4</v>
+        <v>990</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="28">
@@ -4168,31 +4168,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.39</v>
+        <v>1.71</v>
       </c>
       <c r="G28" t="n">
-        <v>1.41</v>
+        <v>1.76</v>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>4.7</v>
       </c>
       <c r="I28" t="n">
-        <v>10.5</v>
+        <v>5.1</v>
       </c>
       <c r="J28" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="K28" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4219,10 +4219,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="U28" t="n">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4231,55 +4231,55 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>390</v>
+        <v>130</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AC28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF28" t="n">
+      <c r="AG28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN28" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>5.7</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,49 +4303,49 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.2</v>
+        <v>1.88</v>
       </c>
       <c r="G29" t="n">
-        <v>3.55</v>
+        <v>1.9</v>
       </c>
       <c r="H29" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="I29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>2.34</v>
       </c>
-      <c r="J29" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.24</v>
-      </c>
       <c r="Q29" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4354,10 +4354,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -4366,64 +4366,64 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,61 +4438,61 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.95</v>
+        <v>1.24</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1.26</v>
       </c>
       <c r="H30" t="n">
-        <v>4.4</v>
+        <v>14</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>16.5</v>
       </c>
       <c r="J30" t="n">
-        <v>3.55</v>
+        <v>7.4</v>
       </c>
       <c r="K30" t="n">
-        <v>3.85</v>
+        <v>7.8</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P30" t="n">
-        <v>1.88</v>
+        <v>2.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.08</v>
+        <v>1.55</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4501,64 +4501,64 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="G31" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I31" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="J31" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="K31" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>390</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN31" t="n">
         <v>5.5</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>0</v>
-      </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="H32" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="I32" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J32" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="K32" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4741,28 +4741,28 @@
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="R32" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S32" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T32" t="n">
         <v>1.79</v>
       </c>
       <c r="U32" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y32" t="n">
         <v>1000</v>
@@ -4780,13 +4780,13 @@
         <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AB32" t="n">
         <v>11</v>
       </c>
       <c r="AC32" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD32" t="n">
         <v>1000</v>
@@ -4801,13 +4801,13 @@
         <v>11</v>
       </c>
       <c r="AH32" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ32" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK32" t="n">
         <v>15.5</v>
@@ -4816,10 +4816,10 @@
         <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4843,31 +4843,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="G33" t="n">
-        <v>4.5</v>
+        <v>1.99</v>
       </c>
       <c r="H33" t="n">
-        <v>1.97</v>
+        <v>4.4</v>
       </c>
       <c r="I33" t="n">
-        <v>2.04</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K33" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.75</v>
+        <v>2.12</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4978,32 +4978,32 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="G34" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="H34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K34" t="n">
         <v>5.5</v>
       </c>
-      <c r="I34" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.99</v>
+        <v>2.34</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5113,31 +5113,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.61</v>
+        <v>3.75</v>
       </c>
       <c r="G35" t="n">
-        <v>1.74</v>
+        <v>4.5</v>
       </c>
       <c r="H35" t="n">
-        <v>5.8</v>
+        <v>1.97</v>
       </c>
       <c r="I35" t="n">
-        <v>7.8</v>
+        <v>2.04</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K35" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5155,7 +5155,7 @@
         <v>1.85</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5248,31 +5248,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6.8</v>
+        <v>1.66</v>
       </c>
       <c r="G36" t="n">
-        <v>10.5</v>
+        <v>1.72</v>
       </c>
       <c r="H36" t="n">
-        <v>1.46</v>
+        <v>5.5</v>
       </c>
       <c r="I36" t="n">
-        <v>1.51</v>
+        <v>6.4</v>
       </c>
       <c r="J36" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="K36" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5383,31 +5383,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.24</v>
+        <v>1.61</v>
       </c>
       <c r="G37" t="n">
-        <v>2.42</v>
+        <v>1.73</v>
       </c>
       <c r="H37" t="n">
-        <v>3.1</v>
+        <v>5.9</v>
       </c>
       <c r="I37" t="n">
-        <v>3.55</v>
+        <v>7.8</v>
       </c>
       <c r="J37" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.36</v>
+        <v>1.85</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.52</v>
+        <v>1.96</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5503,7 +5503,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,36 +5513,36 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.91</v>
+        <v>3.2</v>
       </c>
       <c r="G38" t="n">
-        <v>2.04</v>
+        <v>3.55</v>
       </c>
       <c r="H38" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="I38" t="n">
-        <v>5.1</v>
+        <v>2.34</v>
       </c>
       <c r="J38" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="K38" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.71</v>
+        <v>2.26</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.2</v>
+        <v>1.66</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,36 +5648,36 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.04</v>
+        <v>6.8</v>
       </c>
       <c r="G39" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="H39" t="n">
-        <v>1.04</v>
+        <v>1.45</v>
       </c>
       <c r="I39" t="n">
-        <v>1000</v>
+        <v>1.51</v>
       </c>
       <c r="J39" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="K39" t="n">
-        <v>950</v>
+        <v>5.2</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.24</v>
+        <v>2.02</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,125 +5783,530 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.5</v>
+        <v>2.16</v>
       </c>
       <c r="G40" t="n">
-        <v>2.72</v>
+        <v>2.38</v>
       </c>
       <c r="H40" t="n">
         <v>3.15</v>
       </c>
       <c r="I40" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J41" t="n">
         <v>3.45</v>
       </c>
-      <c r="J40" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO40" t="n">
+      <c r="K41" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Bolivar</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K42" t="n">
+        <v>950</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Ceara SC Fortaleza</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Fortaleza EC</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
@@ -670,10 +670,10 @@
         <v>3.25</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I2" t="n">
         <v>2.34</v>
@@ -685,16 +685,16 @@
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
         <v>2.06</v>
@@ -703,76 +703,76 @@
         <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H3" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -937,34 +937,34 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P4" t="n">
         <v>1.72</v>
@@ -973,76 +973,76 @@
         <v>1.97</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G5" t="n">
         <v>1.79</v>
@@ -1081,103 +1081,103 @@
         <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
         <v>4.5</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
         <v>2.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T5" t="n">
         <v>1.62</v>
       </c>
       <c r="U5" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="X5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Z5" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB5" t="n">
         <v>13</v>
       </c>
       <c r="AC5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG5" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AH5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>19.5</v>
       </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>26</v>
-      </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN5" t="n">
         <v>7.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H6" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="I6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -1225,16 +1225,16 @@
         <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P6" t="n">
         <v>2.1</v>
@@ -1243,22 +1243,22 @@
         <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X6" t="n">
         <v>20</v>
@@ -1276,7 +1276,7 @@
         <v>24</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>12</v>
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.63</v>
+        <v>2.72</v>
       </c>
       <c r="G7" t="n">
-        <v>1.65</v>
+        <v>2.82</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>2.76</v>
       </c>
       <c r="I7" t="n">
-        <v>6.6</v>
+        <v>2.88</v>
       </c>
       <c r="J7" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.74</v>
+        <v>1.97</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X7" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15.5</v>
+        <v>42</v>
       </c>
       <c r="AK7" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.6</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.66</v>
+        <v>1.62</v>
       </c>
       <c r="G8" t="n">
-        <v>2.88</v>
+        <v>1.64</v>
       </c>
       <c r="H8" t="n">
-        <v>2.68</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.92</v>
+        <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>1.95</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="U8" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="X8" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AK8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL8" t="n">
         <v>32</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>48</v>
       </c>
       <c r="AM8" t="n">
         <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>30</v>
+        <v>7.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G9" t="n">
         <v>2.88</v>
@@ -1621,25 +1621,25 @@
         <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
         <v>3.55</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
         <v>1.86</v>
@@ -1648,76 +1648,76 @@
         <v>2.04</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB9" t="n">
         <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
         <v>18</v>
       </c>
       <c r="AI9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>50</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G10" t="n">
         <v>2.16</v>
       </c>
-      <c r="G10" t="n">
-        <v>2.24</v>
-      </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X10" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y10" t="n">
         <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB10" t="n">
         <v>12.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AF10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH10" t="n">
         <v>16</v>
       </c>
-      <c r="AG10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
       <c r="AI10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>5.3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.42</v>
+        <v>1.73</v>
       </c>
       <c r="I11" t="n">
-        <v>2.46</v>
+        <v>1.75</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X11" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA11" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA11" t="n">
-        <v>34</v>
-      </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI11" t="n">
         <v>32</v>
       </c>
-      <c r="AF11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>38</v>
-      </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AO11" t="n">
-        <v>16.5</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>1.77</v>
+        <v>2.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.79</v>
+        <v>2.42</v>
       </c>
       <c r="J12" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q12" t="n">
         <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="U12" t="n">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AA12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF12" t="n">
         <v>23</v>
       </c>
-      <c r="AB12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>42</v>
-      </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AJ12" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM12" t="n">
         <v>75</v>
       </c>
-      <c r="AL12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>120</v>
-      </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.800000000000001</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -2152,34 +2152,34 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H13" t="n">
         <v>2.76</v>
       </c>
       <c r="I13" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
         <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
         <v>1.96</v>
@@ -2188,10 +2188,10 @@
         <v>1.96</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="T13" t="n">
         <v>1.75</v>
@@ -2200,10 +2200,10 @@
         <v>2.24</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X13" t="n">
         <v>14.5</v>
@@ -2215,7 +2215,7 @@
         <v>19.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB13" t="n">
         <v>12</v>
@@ -2227,7 +2227,7 @@
         <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="n">
         <v>19.5</v>
@@ -2257,7 +2257,7 @@
         <v>26</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -2287,34 +2287,34 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G14" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P14" t="n">
         <v>1.74</v>
@@ -2323,76 +2323,76 @@
         <v>2.14</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -2428,28 +2428,28 @@
         <v>1.25</v>
       </c>
       <c r="H15" t="n">
-        <v>1.09</v>
+        <v>14</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="J15" t="n">
         <v>6.4</v>
       </c>
       <c r="K15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P15" t="n">
         <v>2.68</v>
@@ -2458,76 +2458,76 @@
         <v>1.52</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2560,61 +2560,61 @@
         <v>3.7</v>
       </c>
       <c r="G16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H16" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="I16" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
         <v>3.9</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="T16" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U16" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Z16" t="n">
         <v>16</v>
@@ -2623,46 +2623,46 @@
         <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AE16" t="n">
         <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI16" t="n">
         <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AL16" t="n">
         <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AN16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO16" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="17">
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="G17" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="H17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I17" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J17" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="K17" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P17" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="Q17" t="n">
         <v>1.48</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2830,7 +2830,7 @@
         <v>1.18</v>
       </c>
       <c r="G18" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="H18" t="n">
         <v>17</v>
@@ -2845,16 +2845,16 @@
         <v>10.5</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P18" t="n">
         <v>3.5</v>
@@ -2863,76 +2863,76 @@
         <v>1.33</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19">
@@ -2965,7 +2965,7 @@
         <v>1.41</v>
       </c>
       <c r="G19" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H19" t="n">
         <v>8.199999999999999</v>
@@ -2977,97 +2977,97 @@
         <v>4.8</v>
       </c>
       <c r="K19" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G20" t="n">
         <v>1.98</v>
@@ -3106,7 +3106,7 @@
         <v>4.3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J20" t="n">
         <v>3.75</v>
@@ -3115,16 +3115,16 @@
         <v>3.95</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
         <v>1.82</v>
@@ -3133,76 +3133,76 @@
         <v>2.06</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="G21" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
         <v>5.6</v>
@@ -3247,19 +3247,19 @@
         <v>3.55</v>
       </c>
       <c r="K21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
         <v>1.85</v>
@@ -3268,76 +3268,76 @@
         <v>1.83</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
@@ -3370,31 +3370,31 @@
         <v>2.46</v>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="H22" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="I22" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
         <v>3.85</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P22" t="n">
         <v>2.18</v>
@@ -3403,76 +3403,76 @@
         <v>1.71</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.92</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.94</v>
       </c>
       <c r="H23" t="n">
         <v>4.1</v>
       </c>
       <c r="I23" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
@@ -3571,7 +3571,7 @@
         <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD23" t="n">
         <v>17</v>
@@ -3592,7 +3592,7 @@
         <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
         <v>19</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G24" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="H24" t="n">
         <v>5.1</v>
       </c>
       <c r="I24" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -3691,10 +3691,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
         <v>55</v>
@@ -3721,16 +3721,16 @@
         <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
         <v>44</v>
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G25" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H25" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="I25" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="J25" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K25" t="n">
         <v>3.7</v>
@@ -3805,7 +3805,7 @@
         <v>2.02</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U25" t="n">
         <v>2.26</v>
@@ -3829,13 +3829,13 @@
         <v>16</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
         <v>16.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AB25" t="n">
         <v>14</v>
@@ -3850,7 +3850,7 @@
         <v>28</v>
       </c>
       <c r="AF25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG25" t="n">
         <v>14</v>
@@ -3862,13 +3862,13 @@
         <v>44</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK25" t="n">
         <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM25" t="n">
         <v>100</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G26" t="n">
         <v>1.75</v>
@@ -3940,7 +3940,7 @@
         <v>2.14</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3964,10 +3964,10 @@
         <v>19</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA26" t="n">
         <v>150</v>
@@ -3979,22 +3979,22 @@
         <v>11</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG26" t="n">
         <v>10.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ26" t="n">
         <v>21</v>
@@ -4003,7 +4003,7 @@
         <v>22</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="n">
         <v>120</v>
@@ -4045,7 +4045,7 @@
         <v>4.9</v>
       </c>
       <c r="G27" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H27" t="n">
         <v>1.78</v>
@@ -4078,7 +4078,7 @@
         <v>1.94</v>
       </c>
       <c r="R27" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S27" t="n">
         <v>3.35</v>
@@ -4114,7 +4114,7 @@
         <v>9</v>
       </c>
       <c r="AD27" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>19</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="G28" t="n">
         <v>1.76</v>
       </c>
       <c r="H28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J28" t="n">
         <v>4.4</v>
       </c>
       <c r="K28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q28" t="n">
         <v>1.65</v>
@@ -4222,7 +4222,7 @@
         <v>1.7</v>
       </c>
       <c r="U28" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4231,13 +4231,13 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y28" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA28" t="n">
         <v>130</v>
@@ -4249,40 +4249,40 @@
         <v>11.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF28" t="n">
         <v>12.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
         <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM28" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G29" t="n">
         <v>1.9</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4357,7 +4357,7 @@
         <v>1.68</v>
       </c>
       <c r="U29" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -4453,10 +4453,10 @@
         <v>1.26</v>
       </c>
       <c r="H30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="J30" t="n">
         <v>7.4</v>
@@ -4477,7 +4477,7 @@
         <v>1.18</v>
       </c>
       <c r="P30" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="Q30" t="n">
         <v>1.55</v>
@@ -4492,7 +4492,7 @@
         <v>2.16</v>
       </c>
       <c r="U30" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Y30" t="n">
         <v>1000</v>
@@ -4519,10 +4519,10 @@
         <v>17</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AE30" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="AF30" t="n">
         <v>8.4</v>
@@ -4540,7 +4540,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK30" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
         <v>1000</v>
@@ -4585,19 +4585,19 @@
         <v>1.38</v>
       </c>
       <c r="G31" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I31" t="n">
         <v>10.5</v>
       </c>
       <c r="J31" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K31" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4624,10 +4624,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U31" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -4636,28 +4636,28 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y31" t="n">
         <v>34</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1000</v>
       </c>
       <c r="Z31" t="n">
         <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AB31" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD31" t="n">
         <v>36</v>
       </c>
       <c r="AE31" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AF31" t="n">
         <v>8.800000000000001</v>
@@ -4666,7 +4666,7 @@
         <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
@@ -4681,7 +4681,7 @@
         <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AN31" t="n">
         <v>5.5</v>
@@ -4723,7 +4723,7 @@
         <v>1.56</v>
       </c>
       <c r="H32" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I32" t="n">
         <v>8.4</v>
@@ -4741,25 +4741,25 @@
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O32" t="n">
         <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
         <v>1.55</v>
       </c>
       <c r="S32" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U32" t="n">
         <v>2.08</v>
@@ -4771,16 +4771,16 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z32" t="n">
         <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AB32" t="n">
         <v>11</v>
@@ -4789,37 +4789,37 @@
         <v>11.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE32" t="n">
         <v>120</v>
       </c>
       <c r="AF32" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG32" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
         <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AJ32" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM32" t="n">
         <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G34" t="n">
         <v>1.53</v>
       </c>
       <c r="H34" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J34" t="n">
         <v>4.7</v>
@@ -5020,7 +5020,7 @@
         <v>2.34</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5398,13 +5398,13 @@
         <v>1.73</v>
       </c>
       <c r="H37" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="I37" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K37" t="n">
         <v>4.4</v>
@@ -5536,7 +5536,7 @@
         <v>2.2</v>
       </c>
       <c r="I38" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J38" t="n">
         <v>3.7</v>
@@ -5560,7 +5560,7 @@
         <v>2.26</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="G39" t="n">
         <v>10.5</v>
@@ -5671,7 +5671,7 @@
         <v>1.45</v>
       </c>
       <c r="I39" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="J39" t="n">
         <v>4.4</v>
@@ -5797,19 +5797,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="G40" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="H40" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="I40" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="J40" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K40" t="n">
         <v>3.9</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>5.1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K41" t="n">
         <v>3.65</v>
@@ -5962,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6235,7 +6235,7 @@
         <v>1.55</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO43"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,10 +670,10 @@
         <v>3.25</v>
       </c>
       <c r="G2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="n">
         <v>2.34</v>
@@ -685,7 +685,7 @@
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -709,10 +709,10 @@
         <v>2.92</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V2" t="n">
         <v>1.74</v>
@@ -763,7 +763,7 @@
         <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
         <v>85</v>
@@ -835,13 +835,13 @@
         <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R3" t="n">
         <v>1.49</v>
       </c>
       <c r="S3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T3" t="n">
         <v>1.81</v>
@@ -880,7 +880,7 @@
         <v>130</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
         <v>12.5</v>
@@ -976,7 +976,7 @@
         <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T4" t="n">
         <v>1.84</v>
@@ -1063,121 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.78</v>
+        <v>2.72</v>
       </c>
       <c r="G5" t="n">
-        <v>1.79</v>
+        <v>2.82</v>
       </c>
       <c r="H5" t="n">
-        <v>4.7</v>
+        <v>2.76</v>
       </c>
       <c r="I5" t="n">
-        <v>4.9</v>
+        <v>2.82</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>3.85</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>2.52</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>1.96</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>2.48</v>
+        <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="V5" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="W5" t="n">
-        <v>2.26</v>
+        <v>1.55</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AB5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
         <v>13</v>
       </c>
-      <c r="AC5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>19</v>
-      </c>
       <c r="AE5" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG5" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG5" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19.5</v>
+        <v>44</v>
       </c>
       <c r="AK5" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.6</v>
+        <v>26</v>
       </c>
       <c r="AO5" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>1.78</v>
       </c>
       <c r="G6" t="n">
-        <v>4.9</v>
+        <v>1.79</v>
       </c>
       <c r="H6" t="n">
-        <v>1.79</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.84</v>
+        <v>5.2</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
         <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="R6" t="n">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>2.46</v>
       </c>
       <c r="T6" t="n">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.48</v>
       </c>
       <c r="V6" t="n">
-        <v>2.18</v>
+        <v>1.24</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>2.26</v>
       </c>
       <c r="X6" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.800000000000001</v>
+        <v>25</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
-        <v>130</v>
+        <v>19.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.72</v>
+        <v>4.6</v>
       </c>
       <c r="G7" t="n">
-        <v>2.82</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.76</v>
+        <v>1.78</v>
       </c>
       <c r="I7" t="n">
-        <v>2.88</v>
+        <v>1.82</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="R7" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U7" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>1.53</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z7" t="n">
         <v>12</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH7" t="n">
         <v>19</v>
       </c>
-      <c r="AA7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>17</v>
-      </c>
       <c r="AI7" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.62</v>
+        <v>2.8</v>
       </c>
       <c r="G8" t="n">
-        <v>1.64</v>
+        <v>2.84</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
-        <v>6.6</v>
+        <v>2.74</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="S8" t="n">
-        <v>2.84</v>
+        <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="V8" t="n">
-        <v>1.18</v>
+        <v>1.57</v>
       </c>
       <c r="W8" t="n">
-        <v>2.56</v>
+        <v>1.54</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="AB8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM8" t="n">
         <v>90</v>
       </c>
-      <c r="AF8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>110</v>
-      </c>
       <c r="AN8" t="n">
-        <v>7.6</v>
+        <v>26</v>
       </c>
       <c r="AO8" t="n">
-        <v>90</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.82</v>
+        <v>1.62</v>
       </c>
       <c r="G9" t="n">
-        <v>2.88</v>
+        <v>1.64</v>
       </c>
       <c r="H9" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>2.76</v>
+        <v>6.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>1.74</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>3.7</v>
+        <v>2.84</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.57</v>
+        <v>1.18</v>
       </c>
       <c r="W9" t="n">
-        <v>1.53</v>
+        <v>2.56</v>
       </c>
       <c r="X9" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="AA9" t="n">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL9" t="n">
         <v>32</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>50</v>
       </c>
       <c r="AM9" t="n">
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>30</v>
+        <v>7.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.14</v>
+        <v>2.84</v>
       </c>
       <c r="G10" t="n">
-        <v>2.16</v>
+        <v>2.88</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>2.68</v>
       </c>
       <c r="I10" t="n">
-        <v>3.65</v>
+        <v>2.74</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.33</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S10" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="U10" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="W10" t="n">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
         <v>17</v>
       </c>
-      <c r="Z10" t="n">
-        <v>27</v>
-      </c>
       <c r="AA10" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AB10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD10" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE10" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ10" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN10" t="n">
         <v>30</v>
       </c>
-      <c r="AM10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AO10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="I11" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="J11" t="n">
         <v>4.2</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.36</v>
@@ -1912,13 +1912,13 @@
         <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q11" t="n">
         <v>1.79</v>
       </c>
       <c r="R11" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S11" t="n">
         <v>3</v>
@@ -1930,7 +1930,7 @@
         <v>2.18</v>
       </c>
       <c r="V11" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="W11" t="n">
         <v>1.23</v>
@@ -1939,7 +1939,7 @@
         <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
         <v>10.5</v>
@@ -1957,7 +1957,7 @@
         <v>9.6</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF11" t="n">
         <v>42</v>
@@ -1981,7 +1981,7 @@
         <v>70</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
         <v>70</v>
@@ -2023,7 +2023,7 @@
         <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I12" t="n">
         <v>2.42</v>
@@ -2032,7 +2032,7 @@
         <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
         <v>1.34</v>
@@ -2050,10 +2050,10 @@
         <v>2.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S12" t="n">
         <v>2.92</v>
@@ -2065,10 +2065,10 @@
         <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
         <v>17.5</v>
@@ -2083,16 +2083,16 @@
         <v>32</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
         <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
         <v>23</v>
@@ -2110,10 +2110,10 @@
         <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="n">
         <v>75</v>
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.72</v>
+        <v>2.14</v>
       </c>
       <c r="G13" t="n">
-        <v>2.82</v>
+        <v>2.16</v>
       </c>
       <c r="H13" t="n">
-        <v>2.76</v>
+        <v>3.55</v>
       </c>
       <c r="I13" t="n">
-        <v>2.82</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>1.96</v>
+        <v>2.28</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="R13" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.38</v>
       </c>
-      <c r="S13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.54</v>
-      </c>
       <c r="W13" t="n">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="X13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD13" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>13</v>
-      </c>
       <c r="AE13" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN13" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>26</v>
-      </c>
       <c r="AO13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2290,19 +2290,19 @@
         <v>2.28</v>
       </c>
       <c r="G14" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I14" t="n">
         <v>3.85</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L14" t="n">
         <v>1.46</v>
@@ -2338,7 +2338,7 @@
         <v>1.35</v>
       </c>
       <c r="W14" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.2</v>
+        <v>2.46</v>
       </c>
       <c r="G15" t="n">
-        <v>1.25</v>
+        <v>2.58</v>
       </c>
       <c r="H15" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB15" t="n">
         <v>14</v>
       </c>
-      <c r="I15" t="n">
+      <c r="AC15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK15" t="n">
         <v>25</v>
       </c>
-      <c r="J15" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W15" t="n">
-        <v>5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>980</v>
-      </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.2</v>
+        <v>18.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.7</v>
+        <v>1.85</v>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>1.96</v>
       </c>
       <c r="H16" t="n">
-        <v>2.02</v>
+        <v>4.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="J16" t="n">
         <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="S16" t="n">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="U16" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="V16" t="n">
-        <v>1.9</v>
+        <v>1.26</v>
       </c>
       <c r="W16" t="n">
-        <v>1.33</v>
+        <v>2.04</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AD16" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AF16" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AH16" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="AN16" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>13.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.15</v>
+        <v>1.41</v>
       </c>
       <c r="G17" t="n">
-        <v>1.19</v>
+        <v>1.47</v>
       </c>
       <c r="H17" t="n">
-        <v>23</v>
+        <v>8.4</v>
       </c>
       <c r="I17" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>8.4</v>
+        <v>4.9</v>
       </c>
       <c r="K17" t="n">
-        <v>10.5</v>
+        <v>5.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>2.68</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="R17" t="n">
-        <v>1.68</v>
+        <v>1.38</v>
       </c>
       <c r="S17" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="T17" t="n">
-        <v>2.52</v>
+        <v>2.08</v>
       </c>
       <c r="U17" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="V17" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>6.2</v>
+        <v>3.15</v>
       </c>
       <c r="X17" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="Y17" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="Z17" t="n">
-        <v>360</v>
+        <v>85</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG17" t="n">
         <v>11</v>
       </c>
-      <c r="AC17" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>110</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>15</v>
-      </c>
       <c r="AH17" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
-        <v>410</v>
+        <v>190</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
         <v>16</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="n">
-        <v>370</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.35</v>
+        <v>7.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18">
@@ -2881,7 +2881,7 @@
         <v>5.7</v>
       </c>
       <c r="X18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y18" t="n">
         <v>80</v>
@@ -2923,7 +2923,7 @@
         <v>14.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
         <v>190</v>
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="G19" t="n">
-        <v>1.47</v>
+        <v>1.88</v>
       </c>
       <c r="H19" t="n">
-        <v>8.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X19" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG19" t="n">
         <v>10</v>
       </c>
-      <c r="J19" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="X19" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>460</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>11</v>
-      </c>
       <c r="AH19" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AO19" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
@@ -3088,67 +3088,67 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.87</v>
+        <v>3.7</v>
       </c>
       <c r="G20" t="n">
-        <v>1.98</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>4.3</v>
+        <v>2.06</v>
       </c>
       <c r="I20" t="n">
-        <v>4.8</v>
+        <v>2.12</v>
       </c>
       <c r="J20" t="n">
         <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>1.82</v>
+        <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="R20" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="S20" t="n">
-        <v>3.5</v>
+        <v>2.98</v>
       </c>
       <c r="T20" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="U20" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="V20" t="n">
-        <v>1.27</v>
+        <v>1.89</v>
       </c>
       <c r="W20" t="n">
-        <v>2.02</v>
+        <v>1.34</v>
       </c>
       <c r="X20" t="n">
         <v>980</v>
@@ -3160,49 +3160,49 @@
         <v>980</v>
       </c>
       <c r="AA20" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AB20" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AC20" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
         <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AJ20" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AL20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AN20" t="n">
         <v>980</v>
       </c>
       <c r="AO20" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
     </row>
     <row r="21">
@@ -3223,79 +3223,79 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.78</v>
+        <v>1.2</v>
       </c>
       <c r="G21" t="n">
-        <v>1.91</v>
+        <v>1.25</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>14</v>
       </c>
       <c r="I21" t="n">
-        <v>5.6</v>
+        <v>25</v>
       </c>
       <c r="J21" t="n">
-        <v>3.55</v>
+        <v>6.4</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>10.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>3.45</v>
+        <v>5.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="P21" t="n">
-        <v>1.85</v>
+        <v>2.68</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.83</v>
+        <v>1.41</v>
       </c>
       <c r="R21" t="n">
-        <v>1.32</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="n">
-        <v>3.5</v>
+        <v>2.06</v>
       </c>
       <c r="T21" t="n">
-        <v>1.86</v>
+        <v>2.16</v>
       </c>
       <c r="U21" t="n">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="V21" t="n">
-        <v>1.21</v>
+        <v>1.05</v>
       </c>
       <c r="W21" t="n">
-        <v>2.08</v>
+        <v>5</v>
       </c>
       <c r="X21" t="n">
         <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
         <v>980</v>
@@ -3304,25 +3304,25 @@
         <v>980</v>
       </c>
       <c r="AD21" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AG21" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AI21" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AK21" t="n">
         <v>980</v>
@@ -3331,13 +3331,13 @@
         <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="AO21" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.46</v>
+        <v>1.16</v>
       </c>
       <c r="G22" t="n">
-        <v>2.54</v>
+        <v>1.19</v>
       </c>
       <c r="H22" t="n">
-        <v>2.92</v>
+        <v>18.5</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>34</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>3.85</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="P22" t="n">
-        <v>2.18</v>
+        <v>2.68</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="R22" t="n">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="S22" t="n">
-        <v>2.72</v>
+        <v>2.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.6</v>
+        <v>2.52</v>
       </c>
       <c r="U22" t="n">
-        <v>2.42</v>
+        <v>1.53</v>
       </c>
       <c r="V22" t="n">
-        <v>1.48</v>
+        <v>1.03</v>
       </c>
       <c r="W22" t="n">
-        <v>1.64</v>
+        <v>6.2</v>
       </c>
       <c r="X22" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.5</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>350</v>
       </c>
       <c r="AA22" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="AD22" t="n">
-        <v>13.5</v>
+        <v>110</v>
       </c>
       <c r="AE22" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>18</v>
+        <v>7.8</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="AJ22" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="AK22" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AM22" t="n">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="AN22" t="n">
-        <v>18.5</v>
+        <v>3.35</v>
       </c>
       <c r="AO22" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,22 +3493,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>1.9</v>
       </c>
       <c r="G23" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
         <v>4.4</v>
@@ -3520,94 +3520,94 @@
         <v>4.2</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="R23" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="S23" t="n">
-        <v>2.98</v>
+        <v>2.74</v>
       </c>
       <c r="T23" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="U23" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X23" t="n">
         <v>19.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Z23" t="n">
         <v>34</v>
       </c>
       <c r="AA23" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB23" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD23" t="n">
         <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF23" t="n">
         <v>13</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI23" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ23" t="n">
         <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM23" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO23" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G24" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="H24" t="n">
         <v>5.1</v>
       </c>
       <c r="I24" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P24" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T24" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="U24" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="X24" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z24" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA24" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF24" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AM24" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.25</v>
+        <v>1.71</v>
       </c>
       <c r="G25" t="n">
-        <v>3.35</v>
+        <v>1.76</v>
       </c>
       <c r="H25" t="n">
-        <v>2.36</v>
+        <v>4.8</v>
       </c>
       <c r="I25" t="n">
-        <v>2.38</v>
+        <v>5.2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="K25" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="T25" t="n">
         <v>1.72</v>
       </c>
       <c r="U25" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X25" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Y25" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG25" t="n">
         <v>12</v>
       </c>
-      <c r="Z25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA25" t="n">
+      <c r="AH25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AO25" t="n">
         <v>55</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.73</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>1.75</v>
+        <v>5.2</v>
       </c>
       <c r="H26" t="n">
-        <v>5.1</v>
+        <v>1.79</v>
       </c>
       <c r="I26" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="n">
         <v>4.1</v>
       </c>
-      <c r="K26" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T26" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="U26" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X26" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA26" t="n">
         <v>19</v>
       </c>
-      <c r="Y26" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>150</v>
-      </c>
       <c r="AB26" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE26" t="n">
-        <v>80</v>
+        <v>18.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI26" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK26" t="n">
         <v>70</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>22</v>
-      </c>
       <c r="AL26" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AM26" t="n">
         <v>120</v>
       </c>
       <c r="AN26" t="n">
-        <v>9.6</v>
+        <v>75</v>
       </c>
       <c r="AO26" t="n">
-        <v>80</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.9</v>
+        <v>1.24</v>
       </c>
       <c r="G27" t="n">
-        <v>5.3</v>
+        <v>1.25</v>
       </c>
       <c r="H27" t="n">
+        <v>13</v>
+      </c>
+      <c r="I27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K27" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.78</v>
       </c>
-      <c r="I27" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="V27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W27" t="n">
+        <v>5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>130</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>850</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN27" t="n">
         <v>4</v>
       </c>
-      <c r="K27" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>990</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>990</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>990</v>
-      </c>
       <c r="AO27" t="n">
-        <v>11.5</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="G28" t="n">
-        <v>1.76</v>
+        <v>3.25</v>
       </c>
       <c r="H28" t="n">
-        <v>4.8</v>
+        <v>2.38</v>
       </c>
       <c r="I28" t="n">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="J28" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="K28" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T28" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="U28" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X28" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Y28" t="n">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="AA28" t="n">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="AB28" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AF28" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AL28" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AM28" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN28" t="n">
-        <v>8.4</v>
+        <v>32</v>
       </c>
       <c r="AO28" t="n">
-        <v>55</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="29">
@@ -4303,118 +4303,118 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="G29" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="J29" t="n">
         <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P29" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T29" t="n">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="U29" t="n">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="X29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>21</v>
       </c>
-      <c r="Y29" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>28</v>
-      </c>
       <c r="AK29" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.24</v>
+        <v>1.89</v>
       </c>
       <c r="G30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O30" t="n">
         <v>1.26</v>
       </c>
-      <c r="H30" t="n">
-        <v>13</v>
-      </c>
-      <c r="I30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N30" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.18</v>
-      </c>
       <c r="P30" t="n">
-        <v>2.66</v>
+        <v>2.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.55</v>
+        <v>1.77</v>
       </c>
       <c r="R30" t="n">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="S30" t="n">
-        <v>2.38</v>
+        <v>2.96</v>
       </c>
       <c r="T30" t="n">
-        <v>2.16</v>
+        <v>1.73</v>
       </c>
       <c r="U30" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X30" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB30" t="n">
         <v>10.5</v>
       </c>
       <c r="AC30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD30" t="n">
         <v>17</v>
       </c>
-      <c r="AD30" t="n">
-        <v>200</v>
-      </c>
       <c r="AE30" t="n">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9.800000000000001</v>
+        <v>22</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM30" t="n">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="AN30" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G31" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n">
         <v>9.199999999999999</v>
@@ -4597,19 +4597,19 @@
         <v>5.5</v>
       </c>
       <c r="K31" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M31" t="n">
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P31" t="n">
         <v>2.36</v>
@@ -4618,76 +4618,76 @@
         <v>1.66</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T31" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U31" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="X31" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="Y31" t="n">
         <v>34</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA31" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD31" t="n">
         <v>36</v>
       </c>
       <c r="AE31" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AF31" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH31" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM31" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN31" t="n">
         <v>5.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32">
@@ -4708,25 +4708,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.48</v>
+        <v>6.4</v>
       </c>
       <c r="G32" t="n">
-        <v>1.56</v>
+        <v>11</v>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>1.45</v>
       </c>
       <c r="I32" t="n">
-        <v>8.4</v>
+        <v>1.53</v>
       </c>
       <c r="J32" t="n">
         <v>4.4</v>
@@ -4735,91 +4735,91 @@
         <v>5.2</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="P32" t="n">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R32" t="n">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="T32" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="U32" t="n">
-        <v>2.08</v>
+        <v>1.71</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X32" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>34</v>
+        <v>9.6</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AA32" t="n">
-        <v>250</v>
+        <v>980</v>
       </c>
       <c r="AB32" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AC32" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD32" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AE32" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AF32" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="AG32" t="n">
-        <v>12.5</v>
+        <v>46</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI32" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AJ32" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4870,16 +4870,16 @@
         <v>3.85</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P33" t="n">
         <v>1.87</v>
@@ -4888,76 +4888,76 @@
         <v>2.12</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
@@ -4993,7 +4993,7 @@
         <v>1.53</v>
       </c>
       <c r="H34" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I34" t="n">
         <v>8.199999999999999</v>
@@ -5005,16 +5005,16 @@
         <v>5.5</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P34" t="n">
         <v>2.34</v>
@@ -5023,76 +5023,76 @@
         <v>1.61</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.75</v>
+        <v>1.49</v>
       </c>
       <c r="G35" t="n">
-        <v>4.5</v>
+        <v>1.52</v>
       </c>
       <c r="H35" t="n">
-        <v>1.97</v>
+        <v>6.8</v>
       </c>
       <c r="I35" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U35" t="n">
         <v>2.04</v>
       </c>
-      <c r="J35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.66</v>
+        <v>3.75</v>
       </c>
       <c r="G36" t="n">
-        <v>1.72</v>
+        <v>4.4</v>
       </c>
       <c r="H36" t="n">
-        <v>5.5</v>
+        <v>1.97</v>
       </c>
       <c r="I36" t="n">
-        <v>6.4</v>
+        <v>2.04</v>
       </c>
       <c r="J36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K36" t="n">
         <v>3.9</v>
       </c>
-      <c r="K36" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P36" t="n">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.71</v>
+        <v>1.96</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="G37" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H37" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I37" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="J37" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="K37" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P37" t="n">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.96</v>
+        <v>1.71</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.2</v>
+        <v>1.62</v>
       </c>
       <c r="G38" t="n">
-        <v>3.55</v>
+        <v>1.74</v>
       </c>
       <c r="H38" t="n">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
       <c r="I38" t="n">
-        <v>2.32</v>
+        <v>7</v>
       </c>
       <c r="J38" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P38" t="n">
-        <v>2.26</v>
+        <v>1.85</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.64</v>
+        <v>1.96</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6.4</v>
+        <v>3.15</v>
       </c>
       <c r="G39" t="n">
-        <v>10.5</v>
+        <v>3.55</v>
       </c>
       <c r="H39" t="n">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="I39" t="n">
-        <v>1.53</v>
+        <v>2.32</v>
       </c>
       <c r="J39" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="K39" t="n">
-        <v>5.2</v>
+        <v>3.95</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P39" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL39" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="40">
@@ -5800,115 +5800,115 @@
         <v>2.08</v>
       </c>
       <c r="G40" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H40" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I40" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J40" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K40" t="n">
         <v>3.9</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P40" t="n">
         <v>2.1</v>
       </c>
       <c r="Q40" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T40" t="n">
         <v>1.62</v>
       </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="F41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G41" t="n">
         <v>1.93</v>
       </c>
-      <c r="G41" t="n">
-        <v>2.04</v>
-      </c>
       <c r="H41" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I41" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="J41" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K41" t="n">
-        <v>3.65</v>
+        <v>6</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P41" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,126 +6053,126 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="G42" t="n">
-        <v>1000</v>
+        <v>2.04</v>
       </c>
       <c r="H42" t="n">
-        <v>1.04</v>
+        <v>4.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="n">
-        <v>950</v>
+        <v>3.65</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V42" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL42" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
@@ -6217,96 +6217,366 @@
         <v>3.25</v>
       </c>
       <c r="K43" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Bolivar</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K44" t="n">
+        <v>980</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>20:10:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Boyaca Chico</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>America de Cali S.A</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>9</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L45" t="n">
         <v>0</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M45" t="n">
         <v>0</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N45" t="n">
         <v>0</v>
       </c>
-      <c r="O43" t="n">
+      <c r="O45" t="n">
         <v>0</v>
       </c>
-      <c r="P43" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R43" t="n">
+      <c r="P45" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R45" t="n">
         <v>0</v>
       </c>
-      <c r="S43" t="n">
+      <c r="S45" t="n">
         <v>0</v>
       </c>
-      <c r="T43" t="n">
+      <c r="T45" t="n">
         <v>0</v>
       </c>
-      <c r="U43" t="n">
+      <c r="U45" t="n">
         <v>0</v>
       </c>
-      <c r="V43" t="n">
+      <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="n">
+      <c r="W45" t="n">
         <v>0</v>
       </c>
-      <c r="X43" t="n">
+      <c r="X45" t="n">
         <v>0</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="Y45" t="n">
         <v>0</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="Z45" t="n">
         <v>0</v>
       </c>
-      <c r="AA43" t="n">
+      <c r="AA45" t="n">
         <v>0</v>
       </c>
-      <c r="AB43" t="n">
+      <c r="AB45" t="n">
         <v>0</v>
       </c>
-      <c r="AC43" t="n">
+      <c r="AC45" t="n">
         <v>0</v>
       </c>
-      <c r="AD43" t="n">
+      <c r="AD45" t="n">
         <v>0</v>
       </c>
-      <c r="AE43" t="n">
+      <c r="AE45" t="n">
         <v>0</v>
       </c>
-      <c r="AF43" t="n">
+      <c r="AF45" t="n">
         <v>0</v>
       </c>
-      <c r="AG43" t="n">
+      <c r="AG45" t="n">
         <v>0</v>
       </c>
-      <c r="AH43" t="n">
+      <c r="AH45" t="n">
         <v>0</v>
       </c>
-      <c r="AI43" t="n">
+      <c r="AI45" t="n">
         <v>0</v>
       </c>
-      <c r="AJ43" t="n">
+      <c r="AJ45" t="n">
         <v>0</v>
       </c>
-      <c r="AK43" t="n">
+      <c r="AK45" t="n">
         <v>0</v>
       </c>
-      <c r="AL43" t="n">
+      <c r="AL45" t="n">
         <v>0</v>
       </c>
-      <c r="AM43" t="n">
+      <c r="AM45" t="n">
         <v>0</v>
       </c>
-      <c r="AN43" t="n">
+      <c r="AN45" t="n">
         <v>0</v>
       </c>
-      <c r="AO43" t="n">
+      <c r="AO45" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO45"/>
+  <dimension ref="A1:AO47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,7 +676,7 @@
         <v>2.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
@@ -703,13 +703,13 @@
         <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
         <v>2.22</v>
@@ -727,37 +727,37 @@
         <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AB2" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AF2" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI2" t="n">
         <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AK2" t="n">
         <v>980</v>
@@ -769,7 +769,7 @@
         <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G3" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="H3" t="n">
         <v>6</v>
@@ -817,10 +817,10 @@
         <v>4.5</v>
       </c>
       <c r="K3" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -832,7 +832,7 @@
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
         <v>1.56</v>
@@ -847,22 +847,22 @@
         <v>1.81</v>
       </c>
       <c r="U3" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V3" t="n">
         <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="X3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -871,34 +871,34 @@
         <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>130</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI3" t="n">
         <v>110</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>140</v>
@@ -907,7 +907,7 @@
         <v>7.8</v>
       </c>
       <c r="AO3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G4" t="n">
         <v>2.38</v>
@@ -976,13 +976,13 @@
         <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U4" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
         <v>1.35</v>
@@ -991,7 +991,7 @@
         <v>1.73</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
         <v>980</v>
@@ -1024,7 +1024,7 @@
         <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="n">
         <v>980</v>
@@ -1105,16 +1105,16 @@
         <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
         <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U5" t="n">
         <v>2.22</v>
@@ -1126,13 +1126,13 @@
         <v>1.55</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
         <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="n">
         <v>46</v>
@@ -1141,22 +1141,22 @@
         <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF5" t="n">
         <v>19.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
         <v>44</v>
@@ -1177,7 +1177,7 @@
         <v>26</v>
       </c>
       <c r="AO5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1216,10 +1216,10 @@
         <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>4.2</v>
@@ -1231,7 +1231,7 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.2</v>
@@ -1240,13 +1240,13 @@
         <v>2.52</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="R6" t="n">
         <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T6" t="n">
         <v>1.61</v>
@@ -1276,7 +1276,7 @@
         <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>19.5</v>
@@ -1309,7 +1309,7 @@
         <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AO6" t="n">
         <v>40</v>
@@ -1378,7 +1378,7 @@
         <v>1.81</v>
       </c>
       <c r="R7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
         <v>3</v>
@@ -1396,7 +1396,7 @@
         <v>1.25</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y7" t="n">
         <v>9.800000000000001</v>
@@ -1411,34 +1411,34 @@
         <v>24</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
         <v>130</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM7" t="n">
         <v>120</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="G8" t="n">
         <v>2.84</v>
@@ -1510,7 +1510,7 @@
         <v>1.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R8" t="n">
         <v>1.38</v>
@@ -1519,7 +1519,7 @@
         <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="n">
         <v>2.22</v>
@@ -1564,7 +1564,7 @@
         <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ8" t="n">
         <v>44</v>
@@ -1624,7 +1624,7 @@
         <v>6.6</v>
       </c>
       <c r="J9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K9" t="n">
         <v>4.6</v>
@@ -1651,7 +1651,7 @@
         <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T9" t="n">
         <v>1.8</v>
@@ -1675,7 +1675,7 @@
         <v>55</v>
       </c>
       <c r="AA9" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AB9" t="n">
         <v>10</v>
@@ -1702,7 +1702,7 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
         <v>16</v>
@@ -1711,13 +1711,13 @@
         <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
         <v>7.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -1750,7 +1750,7 @@
         <v>2.84</v>
       </c>
       <c r="G10" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
         <v>2.68</v>
@@ -1771,7 +1771,7 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -1825,7 +1825,7 @@
         <v>32</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG10" t="n">
         <v>12.5</v>
@@ -1834,22 +1834,22 @@
         <v>18</v>
       </c>
       <c r="AI10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>48</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>50</v>
       </c>
       <c r="AK10" t="n">
         <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO10" t="n">
         <v>28</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G11" t="n">
         <v>5.4</v>
@@ -1915,13 +1915,13 @@
         <v>2.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
         <v>1.46</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T11" t="n">
         <v>1.78</v>
@@ -1948,7 +1948,7 @@
         <v>17.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AC11" t="n">
         <v>9.199999999999999</v>
@@ -1978,7 +1978,7 @@
         <v>65</v>
       </c>
       <c r="AL11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM11" t="n">
         <v>100</v>
@@ -2050,13 +2050,13 @@
         <v>2.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
         <v>1.48</v>
       </c>
       <c r="S12" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T12" t="n">
         <v>1.63</v>
@@ -2065,7 +2065,7 @@
         <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W12" t="n">
         <v>1.44</v>
@@ -2083,7 +2083,7 @@
         <v>32</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
         <v>8.199999999999999</v>
@@ -2104,7 +2104,7 @@
         <v>15.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
         <v>55</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G13" t="n">
         <v>2.14</v>
       </c>
-      <c r="G13" t="n">
-        <v>2.16</v>
-      </c>
       <c r="H13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
@@ -2176,7 +2176,7 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.24</v>
@@ -2200,10 +2200,10 @@
         <v>2.44</v>
       </c>
       <c r="V13" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W13" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X13" t="n">
         <v>18.5</v>
@@ -2215,7 +2215,7 @@
         <v>28</v>
       </c>
       <c r="AA13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB13" t="n">
         <v>12.5</v>
@@ -2257,7 +2257,7 @@
         <v>12.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -2320,7 +2320,7 @@
         <v>1.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R14" t="n">
         <v>1.28</v>
@@ -2329,10 +2329,10 @@
         <v>3.75</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V14" t="n">
         <v>1.35</v>
@@ -2341,7 +2341,7 @@
         <v>1.71</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Y14" t="n">
         <v>980</v>
@@ -2356,7 +2356,7 @@
         <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD14" t="n">
         <v>980</v>
@@ -2392,7 +2392,7 @@
         <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -2422,58 +2422,58 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="G15" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H15" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="I15" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
         <v>3.85</v>
       </c>
       <c r="L15" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S15" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U15" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V15" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="W15" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X15" t="n">
         <v>18.5</v>
@@ -2488,7 +2488,7 @@
         <v>48</v>
       </c>
       <c r="AB15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC15" t="n">
         <v>8.6</v>
@@ -2497,10 +2497,10 @@
         <v>13.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AF15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
@@ -2512,22 +2512,22 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
         <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G16" t="n">
         <v>1.96</v>
@@ -2566,7 +2566,7 @@
         <v>4.4</v>
       </c>
       <c r="I16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J16" t="n">
         <v>3.75</v>
@@ -2581,7 +2581,7 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O16" t="n">
         <v>1.32</v>
@@ -2620,7 +2620,7 @@
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB16" t="n">
         <v>980</v>
@@ -2638,7 +2638,7 @@
         <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
         <v>980</v>
@@ -2695,7 +2695,7 @@
         <v>1.41</v>
       </c>
       <c r="G17" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="H17" t="n">
         <v>8.4</v>
@@ -2704,7 +2704,7 @@
         <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K17" t="n">
         <v>5.2</v>
@@ -2737,25 +2737,25 @@
         <v>2.08</v>
       </c>
       <c r="U17" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V17" t="n">
         <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="X17" t="n">
         <v>18</v>
       </c>
       <c r="Y17" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="Z17" t="n">
         <v>85</v>
       </c>
       <c r="AA17" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AB17" t="n">
         <v>8</v>
@@ -2764,10 +2764,10 @@
         <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AE17" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="n">
         <v>8.199999999999999</v>
@@ -2776,10 +2776,10 @@
         <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI17" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AJ17" t="n">
         <v>12</v>
@@ -2788,16 +2788,16 @@
         <v>16</v>
       </c>
       <c r="AL17" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM17" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="n">
         <v>7.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18">
@@ -2833,7 +2833,7 @@
         <v>1.21</v>
       </c>
       <c r="H18" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="I18" t="n">
         <v>22</v>
@@ -2872,7 +2872,7 @@
         <v>1.96</v>
       </c>
       <c r="U18" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V18" t="n">
         <v>1.05</v>
@@ -2881,13 +2881,13 @@
         <v>5.7</v>
       </c>
       <c r="X18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y18" t="n">
         <v>80</v>
       </c>
       <c r="Z18" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
@@ -2896,13 +2896,13 @@
         <v>15.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AD18" t="n">
         <v>70</v>
       </c>
       <c r="AE18" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AF18" t="n">
         <v>11</v>
@@ -2923,7 +2923,7 @@
         <v>14.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM18" t="n">
         <v>190</v>
@@ -3136,7 +3136,7 @@
         <v>1.44</v>
       </c>
       <c r="S20" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="T20" t="n">
         <v>1.68</v>
@@ -3148,7 +3148,7 @@
         <v>1.89</v>
       </c>
       <c r="W20" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X20" t="n">
         <v>980</v>
@@ -3163,13 +3163,13 @@
         <v>980</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AC20" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE20" t="n">
         <v>980</v>
@@ -3178,16 +3178,16 @@
         <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AH20" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AI20" t="n">
         <v>980</v>
       </c>
       <c r="AJ20" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AK20" t="n">
         <v>980</v>
@@ -3196,7 +3196,7 @@
         <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN20" t="n">
         <v>980</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="G21" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H21" t="n">
         <v>14</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J21" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="K21" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L21" t="n">
         <v>1.25</v>
@@ -3256,28 +3256,28 @@
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
-        <v>2.68</v>
+        <v>2.94</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="R21" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="S21" t="n">
         <v>2.06</v>
       </c>
       <c r="T21" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="U21" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="V21" t="n">
         <v>1.05</v>
@@ -3304,25 +3304,25 @@
         <v>980</v>
       </c>
       <c r="AD21" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AK21" t="n">
         <v>980</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3373,16 +3373,16 @@
         <v>1.19</v>
       </c>
       <c r="H22" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="I22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J22" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L22" t="n">
         <v>1.25</v>
@@ -3400,7 +3400,7 @@
         <v>2.68</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="R22" t="n">
         <v>1.68</v>
@@ -3409,10 +3409,10 @@
         <v>2.2</v>
       </c>
       <c r="T22" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="U22" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V22" t="n">
         <v>1.03</v>
@@ -3427,7 +3427,7 @@
         <v>75</v>
       </c>
       <c r="Z22" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
@@ -3436,10 +3436,10 @@
         <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AD22" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
@@ -3454,7 +3454,7 @@
         <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="AJ22" t="n">
         <v>8</v>
@@ -3469,7 +3469,7 @@
         <v>400</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3541,13 +3541,13 @@
         <v>1.52</v>
       </c>
       <c r="S23" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T23" t="n">
         <v>1.66</v>
       </c>
       <c r="U23" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V23" t="n">
         <v>1.29</v>
@@ -3556,7 +3556,7 @@
         <v>2.08</v>
       </c>
       <c r="X23" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y23" t="n">
         <v>20</v>
@@ -3568,7 +3568,7 @@
         <v>90</v>
       </c>
       <c r="AB23" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
         <v>9</v>
@@ -3604,7 +3604,7 @@
         <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AO23" t="n">
         <v>38</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G24" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H24" t="n">
         <v>5.1</v>
@@ -3670,7 +3670,7 @@
         <v>2.14</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R24" t="n">
         <v>1.45</v>
@@ -3697,13 +3697,13 @@
         <v>22</v>
       </c>
       <c r="Z24" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA24" t="n">
         <v>140</v>
       </c>
       <c r="AB24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC24" t="n">
         <v>9.6</v>
@@ -3721,22 +3721,22 @@
         <v>9.6</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI24" t="n">
         <v>65</v>
       </c>
       <c r="AJ24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL24" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN24" t="n">
         <v>9.6</v>
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G25" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="H25" t="n">
         <v>4.8</v>
       </c>
       <c r="I25" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K25" t="n">
         <v>4.7</v>
@@ -3802,7 +3802,7 @@
         <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q25" t="n">
         <v>1.68</v>
@@ -3814,7 +3814,7 @@
         <v>2.68</v>
       </c>
       <c r="T25" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U25" t="n">
         <v>2.22</v>
@@ -3823,16 +3823,16 @@
         <v>1.23</v>
       </c>
       <c r="W25" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X25" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y25" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z25" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
         <v>130</v>
@@ -3847,13 +3847,13 @@
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
         <v>12.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH25" t="n">
         <v>20</v>
@@ -3862,22 +3862,22 @@
         <v>60</v>
       </c>
       <c r="AJ25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK25" t="n">
         <v>17.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3913,7 +3913,7 @@
         <v>5.2</v>
       </c>
       <c r="H26" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I26" t="n">
         <v>1.8</v>
@@ -3934,7 +3934,7 @@
         <v>3.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P26" t="n">
         <v>1.98</v>
@@ -3943,13 +3943,13 @@
         <v>1.94</v>
       </c>
       <c r="R26" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S26" t="n">
         <v>3.35</v>
       </c>
       <c r="T26" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U26" t="n">
         <v>2.02</v>
@@ -4060,7 +4060,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
@@ -4081,13 +4081,13 @@
         <v>1.66</v>
       </c>
       <c r="S27" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="T27" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="U27" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V27" t="n">
         <v>1.07</v>
@@ -4099,10 +4099,10 @@
         <v>30</v>
       </c>
       <c r="Y27" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AA27" t="n">
         <v>850</v>
@@ -4117,7 +4117,7 @@
         <v>55</v>
       </c>
       <c r="AE27" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="n">
         <v>7.8</v>
@@ -4129,7 +4129,7 @@
         <v>36</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ27" t="n">
         <v>9.199999999999999</v>
@@ -4141,7 +4141,7 @@
         <v>38</v>
       </c>
       <c r="AM27" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN27" t="n">
         <v>4</v>
@@ -4195,10 +4195,10 @@
         <v>3.75</v>
       </c>
       <c r="L28" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
         <v>4.1</v>
@@ -4234,7 +4234,7 @@
         <v>16</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z28" t="n">
         <v>15</v>
@@ -4267,16 +4267,16 @@
         <v>36</v>
       </c>
       <c r="AJ28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK28" t="n">
         <v>36</v>
       </c>
       <c r="AL28" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM28" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN28" t="n">
         <v>32</v>
@@ -4315,13 +4315,13 @@
         <v>1.75</v>
       </c>
       <c r="G29" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="H29" t="n">
         <v>5.1</v>
       </c>
       <c r="I29" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J29" t="n">
         <v>4</v>
@@ -4360,19 +4360,19 @@
         <v>2.02</v>
       </c>
       <c r="V29" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W29" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X29" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z29" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
         <v>170</v>
@@ -4381,34 +4381,34 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG29" t="n">
         <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
         <v>140</v>
@@ -4450,7 +4450,7 @@
         <v>1.89</v>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H30" t="n">
         <v>4.2</v>
@@ -4480,10 +4480,10 @@
         <v>2.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R30" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S30" t="n">
         <v>2.96</v>
@@ -4498,7 +4498,7 @@
         <v>1.29</v>
       </c>
       <c r="W30" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X30" t="n">
         <v>17.5</v>
@@ -4510,7 +4510,7 @@
         <v>34</v>
       </c>
       <c r="AA30" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB30" t="n">
         <v>10.5</v>
@@ -4525,7 +4525,7 @@
         <v>50</v>
       </c>
       <c r="AF30" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG30" t="n">
         <v>10</v>
@@ -4537,7 +4537,7 @@
         <v>55</v>
       </c>
       <c r="AJ30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK30" t="n">
         <v>18</v>
@@ -4585,10 +4585,10 @@
         <v>1.39</v>
       </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H31" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I31" t="n">
         <v>10.5</v>
@@ -4606,7 +4606,7 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O31" t="n">
         <v>1.22</v>
@@ -4618,7 +4618,7 @@
         <v>1.66</v>
       </c>
       <c r="R31" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S31" t="n">
         <v>2.66</v>
@@ -4627,13 +4627,13 @@
         <v>1.98</v>
       </c>
       <c r="U31" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V31" t="n">
         <v>1.11</v>
       </c>
       <c r="W31" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="X31" t="n">
         <v>22</v>
@@ -4657,19 +4657,19 @@
         <v>36</v>
       </c>
       <c r="AE31" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="n">
         <v>8.4</v>
       </c>
       <c r="AG31" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH31" t="n">
         <v>27</v>
       </c>
       <c r="AI31" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ31" t="n">
         <v>11.5</v>
@@ -4681,7 +4681,7 @@
         <v>34</v>
       </c>
       <c r="AM31" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN31" t="n">
         <v>5.5</v>
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6.4</v>
+        <v>3.15</v>
       </c>
       <c r="G32" t="n">
-        <v>11</v>
+        <v>3.55</v>
       </c>
       <c r="H32" t="n">
-        <v>1.45</v>
+        <v>2.18</v>
       </c>
       <c r="I32" t="n">
-        <v>1.53</v>
+        <v>2.32</v>
       </c>
       <c r="J32" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="K32" t="n">
-        <v>5.2</v>
+        <v>3.95</v>
       </c>
       <c r="L32" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="P32" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R32" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="S32" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="T32" t="n">
-        <v>1.84</v>
+        <v>1.59</v>
       </c>
       <c r="U32" t="n">
-        <v>1.71</v>
+        <v>2.4</v>
       </c>
       <c r="V32" t="n">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="W32" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC32" t="n">
         <v>9.6</v>
       </c>
-      <c r="Z32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>13</v>
-      </c>
       <c r="AD32" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AE32" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AF32" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AG32" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AI32" t="n">
         <v>980</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="33">
@@ -4855,16 +4855,16 @@
         <v>1.95</v>
       </c>
       <c r="G33" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H33" t="n">
         <v>4.4</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J33" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K33" t="n">
         <v>3.85</v>
@@ -4903,16 +4903,16 @@
         <v>1.27</v>
       </c>
       <c r="W33" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="X33" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y33" t="n">
         <v>16.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA33" t="n">
         <v>140</v>
@@ -4948,16 +4948,16 @@
         <v>23</v>
       </c>
       <c r="AL33" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM33" t="n">
         <v>150</v>
       </c>
       <c r="AN33" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AO33" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -5029,10 +5029,10 @@
         <v>2.52</v>
       </c>
       <c r="T34" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V34" t="n">
         <v>1.13</v>
@@ -5041,7 +5041,7 @@
         <v>2.88</v>
       </c>
       <c r="X34" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Y34" t="n">
         <v>980</v>
@@ -5083,7 +5083,7 @@
         <v>15.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM34" t="n">
         <v>130</v>
@@ -5125,25 +5125,25 @@
         <v>1.49</v>
       </c>
       <c r="G35" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="H35" t="n">
         <v>6.8</v>
       </c>
       <c r="I35" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J35" t="n">
         <v>5</v>
       </c>
       <c r="K35" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L35" t="n">
         <v>1.3</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
         <v>4.9</v>
@@ -5173,13 +5173,13 @@
         <v>1.14</v>
       </c>
       <c r="W35" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="X35" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y35" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
         <v>1000</v>
@@ -5191,10 +5191,10 @@
         <v>11</v>
       </c>
       <c r="AC35" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD35" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
         <v>120</v>
@@ -5206,13 +5206,13 @@
         <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI35" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK35" t="n">
         <v>16</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="G36" t="n">
         <v>4.4</v>
@@ -5308,7 +5308,7 @@
         <v>1.96</v>
       </c>
       <c r="W36" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X36" t="n">
         <v>980</v>
@@ -5407,16 +5407,16 @@
         <v>3.9</v>
       </c>
       <c r="K37" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L37" t="n">
         <v>1.38</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="O37" t="n">
         <v>1.28</v>
@@ -5428,16 +5428,16 @@
         <v>1.71</v>
       </c>
       <c r="R37" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="S37" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="T37" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U37" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V37" t="n">
         <v>1.19</v>
@@ -5446,55 +5446,55 @@
         <v>2.38</v>
       </c>
       <c r="X37" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Y37" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="Z37" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB37" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AC37" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AD37" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AG37" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AH37" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI37" t="n">
         <v>100</v>
       </c>
       <c r="AJ37" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AK37" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AL37" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN37" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G38" t="n">
         <v>1.74</v>
@@ -5560,7 +5560,7 @@
         <v>1.85</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R38" t="n">
         <v>1.32</v>
@@ -5581,13 +5581,13 @@
         <v>2.34</v>
       </c>
       <c r="X38" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Y38" t="n">
         <v>20</v>
       </c>
       <c r="Z38" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA38" t="n">
         <v>220</v>
@@ -5596,10 +5596,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC38" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE38" t="n">
         <v>120</v>
@@ -5614,7 +5614,7 @@
         <v>24</v>
       </c>
       <c r="AI38" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AJ38" t="n">
         <v>17.5</v>
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.15</v>
+        <v>7.6</v>
       </c>
       <c r="G39" t="n">
-        <v>3.55</v>
+        <v>11</v>
       </c>
       <c r="H39" t="n">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="I39" t="n">
-        <v>2.32</v>
+        <v>1.52</v>
       </c>
       <c r="J39" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="K39" t="n">
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M39" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="O39" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="P39" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="R39" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="S39" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="T39" t="n">
-        <v>1.59</v>
+        <v>1.98</v>
       </c>
       <c r="U39" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="V39" t="n">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="W39" t="n">
-        <v>1.41</v>
+        <v>1.11</v>
       </c>
       <c r="X39" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="Z39" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AA39" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AB39" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AC39" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AD39" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AE39" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AF39" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="AG39" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AH39" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AI39" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ39" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="AL39" t="n">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="AM39" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AN39" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
@@ -5800,7 +5800,7 @@
         <v>2.08</v>
       </c>
       <c r="G40" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H40" t="n">
         <v>3.45</v>
@@ -5821,16 +5821,16 @@
         <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P40" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="R40" t="n">
         <v>1.44</v>
@@ -5839,37 +5839,37 @@
         <v>2.8</v>
       </c>
       <c r="T40" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U40" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V40" t="n">
         <v>1.35</v>
       </c>
       <c r="W40" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="X40" t="n">
         <v>980</v>
       </c>
       <c r="Y40" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z40" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AA40" t="n">
         <v>70</v>
       </c>
       <c r="AB40" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AC40" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD40" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE40" t="n">
         <v>40</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="G41" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H41" t="n">
-        <v>4.8</v>
+        <v>2.04</v>
       </c>
       <c r="I41" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J41" t="n">
         <v>3.1</v>
       </c>
       <c r="K41" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5956,16 +5956,16 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="O41" t="n">
         <v>1.01</v>
       </c>
       <c r="P41" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R41" t="n">
         <v>1.14</v>
@@ -5980,10 +5980,10 @@
         <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="W41" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6073,7 +6073,7 @@
         <v>2.04</v>
       </c>
       <c r="H42" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I42" t="n">
         <v>5.1</v>
@@ -6082,94 +6082,94 @@
         <v>3.4</v>
       </c>
       <c r="K42" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L42" t="n">
         <v>1.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>1.66</v>
+        <v>3.05</v>
       </c>
       <c r="O42" t="n">
         <v>1.42</v>
       </c>
       <c r="P42" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S42" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="U42" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="V42" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W42" t="n">
         <v>1.96</v>
       </c>
       <c r="X42" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z42" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB42" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD42" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE42" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF42" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG42" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ42" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AK42" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL42" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN42" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6178,7 +6178,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,112 +6193,112 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.52</v>
+        <v>1.25</v>
       </c>
       <c r="G43" t="n">
-        <v>2.68</v>
+        <v>1.29</v>
       </c>
       <c r="H43" t="n">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="I43" t="n">
-        <v>3.4</v>
+        <v>15</v>
       </c>
       <c r="J43" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="K43" t="n">
-        <v>3.35</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L43" t="n">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="M43" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="O43" t="n">
-        <v>1.51</v>
+        <v>1.09</v>
       </c>
       <c r="P43" t="n">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.58</v>
+        <v>1.29</v>
       </c>
       <c r="R43" t="n">
-        <v>1.18</v>
+        <v>1.83</v>
       </c>
       <c r="S43" t="n">
-        <v>4.7</v>
+        <v>1.76</v>
       </c>
       <c r="T43" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="U43" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="V43" t="n">
-        <v>1.41</v>
+        <v>1.07</v>
       </c>
       <c r="W43" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA43" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD43" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE43" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH43" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI43" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK43" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM43" t="n">
         <v>1000</v>
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,115 +6328,115 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F44" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R44" t="n">
         <v>1.19</v>
       </c>
-      <c r="G44" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K44" t="n">
-        <v>980</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.81</v>
-      </c>
       <c r="S44" t="n">
-        <v>1.75</v>
+        <v>5.3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U44" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V44" t="n">
-        <v>1.02</v>
+        <v>1.41</v>
       </c>
       <c r="W44" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y44" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z44" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB44" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC44" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD44" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF44" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG44" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI44" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK44" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN44" t="n">
         <v>1000</v>
@@ -6472,112 +6472,382 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="G45" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="H45" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="I45" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="J45" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K45" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P45" t="n">
         <v>1.64</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z45" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AK45" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="AL45" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AM45" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AN45" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AO45" t="n">
-        <v>0</v>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SE Palmeiras</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+      <c r="I46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K46" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W46" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>440</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>22:20:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Boca Juniors de Cali</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Real Soacha Cundinamarca FC</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K47" t="n">
+        <v>980</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="n">
         <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="I2" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -703,22 +703,22 @@
         <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
         <v>2.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
         <v>2.22</v>
       </c>
       <c r="V2" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -811,13 +811,13 @@
         <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J3" t="n">
         <v>4.5</v>
       </c>
       <c r="K3" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.31</v>
@@ -838,13 +838,13 @@
         <v>1.56</v>
       </c>
       <c r="R3" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U3" t="n">
         <v>1.98</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -883,16 +883,16 @@
         <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>110</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
@@ -940,10 +940,10 @@
         <v>2.18</v>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
@@ -952,7 +952,7 @@
         <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,16 +961,16 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
         <v>1.38</v>
       </c>
       <c r="P4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R4" t="n">
         <v>1.27</v>
@@ -982,13 +982,13 @@
         <v>1.85</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
         <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X4" t="n">
         <v>14</v>
@@ -1024,7 +1024,7 @@
         <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="n">
         <v>980</v>
@@ -1075,7 +1075,7 @@
         <v>2.72</v>
       </c>
       <c r="G5" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="H5" t="n">
         <v>2.76</v>
@@ -1123,7 +1123,7 @@
         <v>1.54</v>
       </c>
       <c r="W5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
@@ -1144,7 +1144,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>32</v>
@@ -1156,19 +1156,19 @@
         <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK5" t="n">
         <v>32</v>
       </c>
       <c r="AL5" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM5" t="n">
         <v>90</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="G6" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I6" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.28</v>
@@ -1237,10 +1237,10 @@
         <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R6" t="n">
         <v>1.62</v>
@@ -1249,52 +1249,52 @@
         <v>2.48</v>
       </c>
       <c r="T6" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="U6" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V6" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W6" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="X6" t="n">
         <v>23</v>
       </c>
       <c r="Y6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
         <v>19.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
         <v>19.5</v>
@@ -1303,16 +1303,16 @@
         <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="I7" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.35</v>
@@ -1366,88 +1366,88 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
         <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="n">
         <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="W7" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA7" t="n">
         <v>18</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AK7" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G8" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I8" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J8" t="n">
         <v>3.55</v>
@@ -1501,7 +1501,7 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O8" t="n">
         <v>1.32</v>
@@ -1510,25 +1510,25 @@
         <v>1.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S8" t="n">
         <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="U8" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W8" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X8" t="n">
         <v>14</v>
@@ -1555,7 +1555,7 @@
         <v>30</v>
       </c>
       <c r="AF8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG8" t="n">
         <v>12.5</v>
@@ -1567,13 +1567,13 @@
         <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
         <v>90</v>
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="G9" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I9" t="n">
         <v>6.6</v>
       </c>
       <c r="J9" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -1639,7 +1639,7 @@
         <v>4.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
         <v>2.26</v>
@@ -1648,76 +1648,76 @@
         <v>1.74</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="X9" t="n">
         <v>19</v>
       </c>
       <c r="Y9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z9" t="n">
         <v>55</v>
       </c>
       <c r="AA9" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC9" t="n">
         <v>10</v>
       </c>
-      <c r="AC9" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="n">
         <v>80</v>
       </c>
-      <c r="AF9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>75</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK9" t="n">
         <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="G10" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="H10" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="I10" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
         <v>3.55</v>
@@ -1786,7 +1786,7 @@
         <v>1.33</v>
       </c>
       <c r="S10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T10" t="n">
         <v>1.83</v>
@@ -1795,19 +1795,19 @@
         <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X10" t="n">
         <v>12.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA10" t="n">
         <v>42</v>
@@ -1819,22 +1819,22 @@
         <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF10" t="n">
         <v>18.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
         <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="n">
         <v>48</v>
@@ -1852,7 +1852,7 @@
         <v>32</v>
       </c>
       <c r="AO10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G11" t="n">
         <v>5.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="I11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="J11" t="n">
         <v>4.2</v>
@@ -1900,13 +1900,13 @@
         <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.26</v>
@@ -1915,22 +1915,22 @@
         <v>2.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R11" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S11" t="n">
         <v>2.96</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="W11" t="n">
         <v>1.23</v>
@@ -1939,16 +1939,16 @@
         <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
         <v>10.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
         <v>9.199999999999999</v>
@@ -1987,7 +1987,7 @@
         <v>70</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -2023,22 +2023,22 @@
         <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I12" t="n">
         <v>2.42</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
         <v>1.34</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
         <v>4.5</v>
@@ -2056,13 +2056,13 @@
         <v>1.48</v>
       </c>
       <c r="S12" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="T12" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V12" t="n">
         <v>1.7</v>
@@ -2083,7 +2083,7 @@
         <v>32</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8.199999999999999</v>
@@ -2110,7 +2110,7 @@
         <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
         <v>40</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G13" t="n">
         <v>2.14</v>
@@ -2176,25 +2176,25 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S13" t="n">
         <v>2.8</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U13" t="n">
         <v>2.44</v>
@@ -2209,10 +2209,10 @@
         <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA13" t="n">
         <v>70</v>
@@ -2221,10 +2221,10 @@
         <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
         <v>38</v>
@@ -2242,10 +2242,10 @@
         <v>42</v>
       </c>
       <c r="AJ13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL13" t="n">
         <v>30</v>
@@ -2254,10 +2254,10 @@
         <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2323,13 +2323,13 @@
         <v>2.16</v>
       </c>
       <c r="R14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
         <v>3.75</v>
       </c>
       <c r="T14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
         <v>1.96</v>
@@ -2425,19 +2425,19 @@
         <v>2.56</v>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H15" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I15" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J15" t="n">
         <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.35</v>
@@ -2473,19 +2473,19 @@
         <v>1.52</v>
       </c>
       <c r="W15" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X15" t="n">
         <v>18.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB15" t="n">
         <v>13.5</v>
@@ -2500,7 +2500,7 @@
         <v>30</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
@@ -2512,10 +2512,10 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
         <v>34</v>
@@ -2524,10 +2524,10 @@
         <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -2557,37 +2557,37 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="G16" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O16" t="n">
         <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q16" t="n">
         <v>2.06</v>
@@ -2596,19 +2596,19 @@
         <v>1.33</v>
       </c>
       <c r="S16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="U16" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="V16" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W16" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2620,7 +2620,7 @@
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AB16" t="n">
         <v>980</v>
@@ -2632,19 +2632,19 @@
         <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AF16" t="n">
         <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH16" t="n">
         <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="n">
         <v>980</v>
@@ -2656,13 +2656,13 @@
         <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN16" t="n">
         <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
@@ -2698,16 +2698,16 @@
         <v>1.45</v>
       </c>
       <c r="H17" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L17" t="n">
         <v>1.38</v>
@@ -2716,13 +2716,13 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
         <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q17" t="n">
         <v>1.7</v>
@@ -2734,28 +2734,28 @@
         <v>3.1</v>
       </c>
       <c r="T17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U17" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V17" t="n">
         <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="X17" t="n">
         <v>18</v>
       </c>
       <c r="Y17" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="Z17" t="n">
         <v>85</v>
       </c>
       <c r="AA17" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
         <v>8</v>
@@ -2764,10 +2764,10 @@
         <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="AF17" t="n">
         <v>8.199999999999999</v>
@@ -2776,7 +2776,7 @@
         <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
         <v>180</v>
@@ -2788,7 +2788,7 @@
         <v>16</v>
       </c>
       <c r="AL17" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
         <v>200</v>
@@ -2797,7 +2797,7 @@
         <v>7.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18">
@@ -2839,10 +2839,10 @@
         <v>22</v>
       </c>
       <c r="J18" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="K18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
         <v>1.2</v>
@@ -2854,7 +2854,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P18" t="n">
         <v>3.5</v>
@@ -2863,10 +2863,10 @@
         <v>1.33</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="S18" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="T18" t="n">
         <v>1.96</v>
@@ -2887,7 +2887,7 @@
         <v>80</v>
       </c>
       <c r="Z18" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
@@ -2917,7 +2917,7 @@
         <v>220</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK18" t="n">
         <v>14.5</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="G19" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
@@ -3004,16 +3004,16 @@
         <v>3.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U19" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V19" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W19" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X19" t="n">
         <v>980</v>
@@ -3025,7 +3025,7 @@
         <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB19" t="n">
         <v>980</v>
@@ -3037,7 +3037,7 @@
         <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF19" t="n">
         <v>980</v>
@@ -3061,7 +3061,7 @@
         <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN19" t="n">
         <v>980</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.7</v>
       </c>
-      <c r="G20" t="n">
-        <v>4</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L20" t="n">
         <v>1.34</v>
@@ -3136,19 +3136,19 @@
         <v>1.44</v>
       </c>
       <c r="S20" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="T20" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U20" t="n">
         <v>2.28</v>
       </c>
       <c r="V20" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="W20" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X20" t="n">
         <v>980</v>
@@ -3166,10 +3166,10 @@
         <v>980</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE20" t="n">
         <v>980</v>
@@ -3241,10 +3241,10 @@
         <v>14</v>
       </c>
       <c r="I21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J21" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="K21" t="n">
         <v>8.800000000000001</v>
@@ -3256,22 +3256,22 @@
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P21" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R21" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S21" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T21" t="n">
         <v>2.08</v>
@@ -3376,13 +3376,13 @@
         <v>19</v>
       </c>
       <c r="I22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J22" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.25</v>
@@ -3403,16 +3403,16 @@
         <v>1.49</v>
       </c>
       <c r="R22" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S22" t="n">
         <v>2.2</v>
       </c>
       <c r="T22" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="U22" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="V22" t="n">
         <v>1.03</v>
@@ -3502,31 +3502,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="G23" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="I23" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O23" t="n">
         <v>1.23</v>
@@ -3535,79 +3535,79 @@
         <v>2.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R23" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S23" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="T23" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="U23" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V23" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="W23" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="X23" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="Y23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Z23" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AA23" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AB23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF23" t="n">
         <v>12</v>
       </c>
-      <c r="AC23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>13</v>
-      </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH23" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM23" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO23" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -3706,10 +3706,10 @@
         <v>10</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE24" t="n">
         <v>65</v>
@@ -3718,10 +3718,10 @@
         <v>11.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH24" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>65</v>
@@ -3739,7 +3739,7 @@
         <v>95</v>
       </c>
       <c r="AN24" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO24" t="n">
         <v>65</v>
@@ -3772,112 +3772,112 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G25" t="n">
         <v>1.72</v>
       </c>
-      <c r="G25" t="n">
-        <v>1.78</v>
-      </c>
       <c r="H25" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I25" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K25" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S25" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="T25" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U25" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V25" t="n">
         <v>1.23</v>
       </c>
       <c r="W25" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="X25" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="n">
         <v>22</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA25" t="n">
         <v>130</v>
       </c>
       <c r="AB25" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF25" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AG25" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
         <v>60</v>
       </c>
       <c r="AJ25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM25" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G26" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H26" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="I26" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="O26" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q26" t="n">
         <v>1.94</v>
       </c>
       <c r="R26" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S26" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U26" t="n">
         <v>2.02</v>
       </c>
       <c r="V26" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="W26" t="n">
         <v>1.23</v>
       </c>
       <c r="X26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB26" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC26" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE26" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG26" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL26" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AM26" t="n">
         <v>120</v>
       </c>
       <c r="AN26" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AO26" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -4048,7 +4048,7 @@
         <v>1.25</v>
       </c>
       <c r="H27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I27" t="n">
         <v>15.5</v>
@@ -4078,7 +4078,7 @@
         <v>1.55</v>
       </c>
       <c r="R27" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S27" t="n">
         <v>2.38</v>
@@ -4087,7 +4087,7 @@
         <v>2.12</v>
       </c>
       <c r="U27" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="V27" t="n">
         <v>1.07</v>
@@ -4099,7 +4099,7 @@
         <v>30</v>
       </c>
       <c r="Y27" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Z27" t="n">
         <v>180</v>
@@ -4117,7 +4117,7 @@
         <v>55</v>
       </c>
       <c r="AE27" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AF27" t="n">
         <v>7.8</v>
@@ -4180,13 +4180,13 @@
         <v>3.2</v>
       </c>
       <c r="G28" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H28" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I28" t="n">
         <v>2.38</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.4</v>
       </c>
       <c r="J28" t="n">
         <v>3.65</v>
@@ -4195,7 +4195,7 @@
         <v>3.75</v>
       </c>
       <c r="L28" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
@@ -4207,13 +4207,13 @@
         <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R28" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S28" t="n">
         <v>3.25</v>
@@ -4222,22 +4222,22 @@
         <v>1.74</v>
       </c>
       <c r="U28" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V28" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W28" t="n">
         <v>1.44</v>
       </c>
       <c r="X28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y28" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA28" t="n">
         <v>32</v>
@@ -4282,7 +4282,7 @@
         <v>32</v>
       </c>
       <c r="AO28" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -4351,7 +4351,7 @@
         <v>1.38</v>
       </c>
       <c r="S29" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T29" t="n">
         <v>1.86</v>
@@ -4366,7 +4366,7 @@
         <v>2.28</v>
       </c>
       <c r="X29" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y29" t="n">
         <v>19</v>
@@ -4378,7 +4378,7 @@
         <v>170</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC29" t="n">
         <v>9.4</v>
@@ -4390,7 +4390,7 @@
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG29" t="n">
         <v>10</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="G30" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="H30" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J30" t="n">
         <v>4</v>
@@ -4477,28 +4477,28 @@
         <v>1.26</v>
       </c>
       <c r="P30" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R30" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S30" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T30" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U30" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V30" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W30" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X30" t="n">
         <v>17.5</v>
@@ -4510,13 +4510,13 @@
         <v>34</v>
       </c>
       <c r="AA30" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB30" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD30" t="n">
         <v>17</v>
@@ -4537,7 +4537,7 @@
         <v>55</v>
       </c>
       <c r="AJ30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK30" t="n">
         <v>18</v>
@@ -4546,13 +4546,13 @@
         <v>32</v>
       </c>
       <c r="AM30" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="n">
         <v>11</v>
       </c>
       <c r="AO30" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
@@ -4588,16 +4588,16 @@
         <v>1.41</v>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="I31" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J31" t="n">
         <v>5.5</v>
       </c>
       <c r="K31" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L31" t="n">
         <v>1.28</v>
@@ -4606,13 +4606,13 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P31" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q31" t="n">
         <v>1.66</v>
@@ -4621,10 +4621,10 @@
         <v>1.55</v>
       </c>
       <c r="S31" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T31" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U31" t="n">
         <v>1.93</v>
@@ -4645,7 +4645,7 @@
         <v>90</v>
       </c>
       <c r="AA31" t="n">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="AB31" t="n">
         <v>9.6</v>
@@ -4687,7 +4687,7 @@
         <v>5.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32">
@@ -4720,7 +4720,7 @@
         <v>3.15</v>
       </c>
       <c r="G32" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H32" t="n">
         <v>2.18</v>
@@ -4729,7 +4729,7 @@
         <v>2.32</v>
       </c>
       <c r="J32" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K32" t="n">
         <v>3.95</v>
@@ -4747,7 +4747,7 @@
         <v>1.22</v>
       </c>
       <c r="P32" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q32" t="n">
         <v>1.65</v>
@@ -4759,10 +4759,10 @@
         <v>2.6</v>
       </c>
       <c r="T32" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U32" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V32" t="n">
         <v>1.75</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="G33" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="H33" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I33" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="J33" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L33" t="n">
         <v>1.44</v>
@@ -4894,22 +4894,22 @@
         <v>3.6</v>
       </c>
       <c r="T33" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U33" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="V33" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="W33" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="X33" t="n">
         <v>16</v>
       </c>
       <c r="Y33" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z33" t="n">
         <v>980</v>
@@ -4924,13 +4924,13 @@
         <v>8.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE33" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG33" t="n">
         <v>11</v>
@@ -4939,25 +4939,25 @@
         <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ33" t="n">
         <v>24</v>
       </c>
       <c r="AK33" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL33" t="n">
         <v>980</v>
       </c>
       <c r="AM33" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN33" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34">
@@ -4990,7 +4990,7 @@
         <v>1.47</v>
       </c>
       <c r="G34" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H34" t="n">
         <v>7.2</v>
@@ -5020,7 +5020,7 @@
         <v>2.34</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="R34" t="n">
         <v>1.53</v>
@@ -5212,10 +5212,10 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK35" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL35" t="n">
         <v>34</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="G36" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H36" t="n">
         <v>1.97</v>
       </c>
       <c r="I36" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="J36" t="n">
         <v>3.5</v>
       </c>
       <c r="K36" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L36" t="n">
         <v>1.42</v>
@@ -5284,28 +5284,28 @@
         <v>3.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P36" t="n">
         <v>1.85</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R36" t="n">
         <v>1.33</v>
       </c>
       <c r="S36" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T36" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U36" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V36" t="n">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="W36" t="n">
         <v>1.3</v>
@@ -5347,7 +5347,7 @@
         <v>980</v>
       </c>
       <c r="AJ36" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="n">
         <v>55</v>
@@ -5356,7 +5356,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN36" t="n">
         <v>60</v>
@@ -5419,10 +5419,10 @@
         <v>3.85</v>
       </c>
       <c r="O37" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q37" t="n">
         <v>1.71</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G38" t="n">
         <v>1.74</v>
@@ -5536,7 +5536,7 @@
         <v>5.7</v>
       </c>
       <c r="I38" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J38" t="n">
         <v>4</v>
@@ -5560,10 +5560,10 @@
         <v>1.85</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R38" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S38" t="n">
         <v>3.45</v>
@@ -5575,7 +5575,7 @@
         <v>1.87</v>
       </c>
       <c r="V38" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W38" t="n">
         <v>2.34</v>
@@ -5590,7 +5590,7 @@
         <v>55</v>
       </c>
       <c r="AA38" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB38" t="n">
         <v>8.199999999999999</v>
@@ -5599,10 +5599,10 @@
         <v>9.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE38" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF38" t="n">
         <v>10.5</v>
@@ -5614,7 +5614,7 @@
         <v>24</v>
       </c>
       <c r="AI38" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ38" t="n">
         <v>17.5</v>
@@ -5623,7 +5623,7 @@
         <v>19.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM38" t="n">
         <v>170</v>
@@ -5632,7 +5632,7 @@
         <v>12</v>
       </c>
       <c r="AO38" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39">
@@ -5674,7 +5674,7 @@
         <v>1.52</v>
       </c>
       <c r="J39" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K39" t="n">
         <v>5.2</v>
@@ -5704,10 +5704,10 @@
         <v>3</v>
       </c>
       <c r="T39" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U39" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V39" t="n">
         <v>2.9</v>
@@ -5800,7 +5800,7 @@
         <v>2.08</v>
       </c>
       <c r="G40" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H40" t="n">
         <v>3.45</v>
@@ -5809,7 +5809,7 @@
         <v>3.85</v>
       </c>
       <c r="J40" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K40" t="n">
         <v>3.9</v>
@@ -5821,40 +5821,40 @@
         <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O40" t="n">
         <v>1.25</v>
       </c>
       <c r="P40" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R40" t="n">
         <v>1.44</v>
       </c>
       <c r="S40" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="T40" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U40" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V40" t="n">
         <v>1.35</v>
       </c>
       <c r="W40" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="X40" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="Z40" t="n">
         <v>980</v>
@@ -5863,7 +5863,7 @@
         <v>70</v>
       </c>
       <c r="AB40" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AC40" t="n">
         <v>8.800000000000001</v>
@@ -5932,58 +5932,58 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G41" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="H41" t="n">
-        <v>2.04</v>
+        <v>4.9</v>
       </c>
       <c r="I41" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J41" t="n">
         <v>3.1</v>
       </c>
       <c r="K41" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>1.59</v>
+        <v>2.48</v>
       </c>
       <c r="O41" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="P41" t="n">
         <v>1.51</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R41" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="S41" t="n">
         <v>1.01</v>
       </c>
       <c r="T41" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U41" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V41" t="n">
         <v>1.14</v>
       </c>
       <c r="W41" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="G42" t="n">
         <v>2.04</v>
@@ -6079,7 +6079,7 @@
         <v>5.1</v>
       </c>
       <c r="J42" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K42" t="n">
         <v>3.7</v>
@@ -6100,7 +6100,7 @@
         <v>1.69</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R42" t="n">
         <v>1.25</v>
@@ -6205,10 +6205,10 @@
         <v>1.25</v>
       </c>
       <c r="G43" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="H43" t="n">
-        <v>2.66</v>
+        <v>7.8</v>
       </c>
       <c r="I43" t="n">
         <v>15</v>
@@ -6229,25 +6229,25 @@
         <v>1.01</v>
       </c>
       <c r="O43" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="P43" t="n">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
         <v>1.29</v>
       </c>
       <c r="R43" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="S43" t="n">
         <v>1.76</v>
       </c>
       <c r="T43" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U43" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V43" t="n">
         <v>1.07</v>
@@ -6256,55 +6256,55 @@
         <v>4</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y43" t="n">
         <v>1000</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA43" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AK43" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6337,16 +6337,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="G44" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="H44" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I44" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J44" t="n">
         <v>3.25</v>
@@ -6370,7 +6370,7 @@
         <v>1.54</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R44" t="n">
         <v>1.19</v>
@@ -6388,7 +6388,7 @@
         <v>1.41</v>
       </c>
       <c r="W44" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X44" t="n">
         <v>9.199999999999999</v>
@@ -6397,7 +6397,7 @@
         <v>9.6</v>
       </c>
       <c r="Z44" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AA44" t="n">
         <v>80</v>
@@ -6436,7 +6436,7 @@
         <v>70</v>
       </c>
       <c r="AM44" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN44" t="n">
         <v>1000</v>
@@ -6478,7 +6478,7 @@
         <v>8.4</v>
       </c>
       <c r="H45" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="I45" t="n">
         <v>1.68</v>
@@ -6487,7 +6487,7 @@
         <v>3.7</v>
       </c>
       <c r="K45" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6496,7 +6496,7 @@
         <v>1.09</v>
       </c>
       <c r="N45" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="O45" t="n">
         <v>1.45</v>
@@ -6517,7 +6517,7 @@
         <v>2.04</v>
       </c>
       <c r="U45" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="V45" t="n">
         <v>2.48</v>
@@ -6541,7 +6541,7 @@
         <v>24</v>
       </c>
       <c r="AC45" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD45" t="n">
         <v>20</v>
@@ -6553,7 +6553,7 @@
         <v>60</v>
       </c>
       <c r="AG45" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AH45" t="n">
         <v>110</v>
@@ -6562,7 +6562,7 @@
         <v>270</v>
       </c>
       <c r="AJ45" t="n">
-        <v>990</v>
+        <v>270</v>
       </c>
       <c r="AK45" t="n">
         <v>800</v>
@@ -6571,7 +6571,7 @@
         <v>990</v>
       </c>
       <c r="AM45" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AN45" t="n">
         <v>320</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G46" t="n">
         <v>1.45</v>
@@ -6622,7 +6622,7 @@
         <v>4.7</v>
       </c>
       <c r="K46" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="L46" t="n">
         <v>1.38</v>
@@ -6655,7 +6655,7 @@
         <v>1.76</v>
       </c>
       <c r="V46" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W46" t="n">
         <v>3.15</v>
@@ -6754,10 +6754,10 @@
         <v>3.05</v>
       </c>
       <c r="J47" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="K47" t="n">
-        <v>980</v>
+        <v>5.2</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6766,13 +6766,13 @@
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="O47" t="n">
         <v>1.01</v>
       </c>
       <c r="P47" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q47" t="n">
         <v>2.2</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
@@ -685,7 +685,7 @@
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -709,10 +709,10 @@
         <v>2.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
         <v>1.77</v>
@@ -727,49 +727,49 @@
         <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG2" t="n">
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
@@ -808,10 +808,10 @@
         <v>1.56</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I3" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="J3" t="n">
         <v>4.5</v>
@@ -826,28 +826,28 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="R3" t="n">
         <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="T3" t="n">
         <v>1.83</v>
       </c>
       <c r="U3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
         <v>1.13</v>
@@ -859,34 +859,34 @@
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC3" t="n">
         <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>13.5</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF3" t="n">
         <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI3" t="n">
         <v>110</v>
@@ -895,13 +895,13 @@
         <v>16.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
         <v>7.8</v>
@@ -940,7 +940,7 @@
         <v>2.18</v>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
         <v>3.45</v>
@@ -949,19 +949,19 @@
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.38</v>
@@ -976,10 +976,10 @@
         <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T4" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
         <v>1.96</v>
@@ -991,46 +991,46 @@
         <v>1.72</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="n">
         <v>95</v>
       </c>
       <c r="AB4" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
         <v>85</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
         <v>980</v>
@@ -1039,10 +1039,10 @@
         <v>150</v>
       </c>
       <c r="AN4" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1078,7 +1078,7 @@
         <v>2.78</v>
       </c>
       <c r="H5" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I5" t="n">
         <v>2.82</v>
@@ -1090,7 +1090,7 @@
         <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1114,10 +1114,10 @@
         <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V5" t="n">
         <v>1.54</v>
@@ -1141,7 +1141,7 @@
         <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
@@ -1150,28 +1150,28 @@
         <v>32</v>
       </c>
       <c r="AF5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
         <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI5" t="n">
         <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK5" t="n">
         <v>32</v>
       </c>
       <c r="AL5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="n">
         <v>26</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G6" t="n">
         <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K6" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.28</v>
@@ -1246,19 +1246,19 @@
         <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T6" t="n">
         <v>1.64</v>
       </c>
       <c r="U6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V6" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X6" t="n">
         <v>23</v>
@@ -1279,16 +1279,16 @@
         <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
         <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH6" t="n">
         <v>17</v>
@@ -1297,13 +1297,13 @@
         <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK6" t="n">
         <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM6" t="n">
         <v>75</v>
@@ -1312,7 +1312,7 @@
         <v>7.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -1342,28 +1342,28 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="G7" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="I7" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
         <v>4.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
         <v>4.3</v>
@@ -1375,25 +1375,25 @@
         <v>2.14</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.8</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.78</v>
-      </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V7" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X7" t="n">
         <v>17</v>
@@ -1408,7 +1408,7 @@
         <v>18</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="n">
         <v>9.199999999999999</v>
@@ -1417,10 +1417,10 @@
         <v>9.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="n">
         <v>20</v>
@@ -1432,13 +1432,13 @@
         <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AK7" t="n">
         <v>65</v>
       </c>
       <c r="AL7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
         <v>100</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G8" t="n">
         <v>2.8</v>
@@ -1495,22 +1495,22 @@
         <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
         <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R8" t="n">
         <v>1.37</v>
@@ -1519,10 +1519,10 @@
         <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V8" t="n">
         <v>1.56</v>
@@ -1534,10 +1534,10 @@
         <v>14</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
         <v>44</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="G9" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
         <v>6.2</v>
@@ -1624,10 +1624,10 @@
         <v>6.6</v>
       </c>
       <c r="J9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K9" t="n">
         <v>4.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.34</v>
@@ -1636,25 +1636,25 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S9" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
         <v>2.14</v>
@@ -1663,7 +1663,7 @@
         <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="X9" t="n">
         <v>19</v>
@@ -1678,10 +1678,10 @@
         <v>180</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
         <v>24</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="G10" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="H10" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="I10" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="J10" t="n">
         <v>3.5</v>
@@ -1771,13 +1771,13 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q10" t="n">
         <v>2.06</v>
@@ -1792,22 +1792,22 @@
         <v>1.83</v>
       </c>
       <c r="U10" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V10" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X10" t="n">
         <v>12.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
         <v>42</v>
@@ -1822,7 +1822,7 @@
         <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF10" t="n">
         <v>18.5</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H11" t="n">
         <v>1.73</v>
@@ -1912,7 +1912,7 @@
         <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
         <v>1.77</v>
@@ -1927,7 +1927,7 @@
         <v>1.79</v>
       </c>
       <c r="U11" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
         <v>2.32</v>
@@ -1936,7 +1936,7 @@
         <v>1.23</v>
       </c>
       <c r="X11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
         <v>10.5</v>
@@ -1945,7 +1945,7 @@
         <v>10.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB11" t="n">
         <v>21</v>
@@ -1957,13 +1957,13 @@
         <v>9.6</v>
       </c>
       <c r="AE11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>42</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH11" t="n">
         <v>19.5</v>
@@ -2020,16 +2020,16 @@
         <v>3.2</v>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I12" t="n">
         <v>2.42</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
         <v>3.7</v>
@@ -2038,10 +2038,10 @@
         <v>1.34</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
@@ -2050,19 +2050,19 @@
         <v>2.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R12" t="n">
         <v>1.48</v>
       </c>
       <c r="S12" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="T12" t="n">
         <v>1.65</v>
       </c>
       <c r="U12" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V12" t="n">
         <v>1.7</v>
@@ -2122,7 +2122,7 @@
         <v>26</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="13">
@@ -2158,7 +2158,7 @@
         <v>2.14</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I13" t="n">
         <v>3.7</v>
@@ -2179,37 +2179,37 @@
         <v>4.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="V13" t="n">
         <v>1.37</v>
       </c>
       <c r="W13" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="X13" t="n">
         <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z13" t="n">
         <v>29</v>
@@ -2221,7 +2221,7 @@
         <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
         <v>15</v>
@@ -2236,7 +2236,7 @@
         <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
         <v>42</v>
@@ -2257,7 +2257,7 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2290,13 +2290,13 @@
         <v>2.28</v>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
         <v>3.45</v>
       </c>
       <c r="I14" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J14" t="n">
         <v>3.35</v>
@@ -2311,10 +2311,10 @@
         <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
         <v>1.74</v>
@@ -2323,7 +2323,7 @@
         <v>2.16</v>
       </c>
       <c r="R14" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S14" t="n">
         <v>3.75</v>
@@ -2332,16 +2332,16 @@
         <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W14" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X14" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
         <v>980</v>
@@ -2353,10 +2353,10 @@
         <v>75</v>
       </c>
       <c r="AB14" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
         <v>980</v>
@@ -2368,7 +2368,7 @@
         <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
         <v>980</v>
@@ -2422,37 +2422,37 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="G15" t="n">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="H15" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O15" t="n">
         <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q15" t="n">
         <v>1.73</v>
@@ -2464,70 +2464,70 @@
         <v>2.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U15" t="n">
         <v>2.42</v>
       </c>
       <c r="V15" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="W15" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="X15" t="n">
         <v>18.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AA15" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AB15" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
         <v>13.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AF15" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM15" t="n">
         <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16">
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H16" t="n">
         <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K16" t="n">
         <v>3.8</v>
@@ -2581,13 +2581,13 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q16" t="n">
         <v>2.06</v>
@@ -2599,13 +2599,13 @@
         <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W16" t="n">
         <v>2</v>
@@ -2638,7 +2638,7 @@
         <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
         <v>980</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G17" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H17" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="I17" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J17" t="n">
         <v>4.9</v>
       </c>
       <c r="K17" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.38</v>
@@ -2716,58 +2716,58 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="O17" t="n">
         <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U17" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V17" t="n">
         <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="X17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="Z17" t="n">
         <v>85</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AB17" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC17" t="n">
         <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AE17" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AF17" t="n">
         <v>8.199999999999999</v>
@@ -2776,7 +2776,7 @@
         <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI17" t="n">
         <v>180</v>
@@ -2788,16 +2788,16 @@
         <v>16</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="n">
         <v>200</v>
       </c>
       <c r="AN17" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AO17" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18">
@@ -2833,16 +2833,16 @@
         <v>1.21</v>
       </c>
       <c r="H18" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="I18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J18" t="n">
         <v>8.6</v>
       </c>
       <c r="K18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.2</v>
@@ -2854,7 +2854,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P18" t="n">
         <v>3.5</v>
@@ -2863,7 +2863,7 @@
         <v>1.33</v>
       </c>
       <c r="R18" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>1.81</v>
@@ -2872,13 +2872,13 @@
         <v>1.96</v>
       </c>
       <c r="U18" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V18" t="n">
         <v>1.05</v>
       </c>
       <c r="W18" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X18" t="n">
         <v>60</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="G19" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
@@ -2980,52 +2980,52 @@
         <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P19" t="n">
         <v>1.85</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="R19" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S19" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="T19" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="U19" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V19" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W19" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X19" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="n">
         <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB19" t="n">
         <v>980</v>
@@ -3034,13 +3034,13 @@
         <v>980</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AG19" t="n">
         <v>10</v>
@@ -3049,22 +3049,22 @@
         <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN19" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AO19" t="n">
         <v>110</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="G20" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K20" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
         <v>1.34</v>
@@ -3130,25 +3130,25 @@
         <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R20" t="n">
         <v>1.44</v>
       </c>
       <c r="S20" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="T20" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U20" t="n">
         <v>2.28</v>
       </c>
       <c r="V20" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="W20" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X20" t="n">
         <v>980</v>
@@ -3166,7 +3166,7 @@
         <v>980</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AD20" t="n">
         <v>11.5</v>
@@ -3175,7 +3175,7 @@
         <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AG20" t="n">
         <v>980</v>
@@ -3187,7 +3187,7 @@
         <v>980</v>
       </c>
       <c r="AJ20" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="n">
         <v>980</v>
@@ -3241,13 +3241,13 @@
         <v>14</v>
       </c>
       <c r="I21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J21" t="n">
         <v>7.2</v>
       </c>
       <c r="K21" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.25</v>
@@ -3256,25 +3256,25 @@
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
         <v>2.96</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="S21" t="n">
         <v>2.08</v>
       </c>
       <c r="T21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U21" t="n">
         <v>1.74</v>
@@ -3289,7 +3289,7 @@
         <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z21" t="n">
         <v>1000</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="G22" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I22" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J22" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="K22" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
         <v>1.25</v>
@@ -3397,37 +3397,37 @@
         <v>1.16</v>
       </c>
       <c r="P22" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R22" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="T22" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="U22" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="V22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W22" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="X22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y22" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Z22" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
@@ -3436,13 +3436,13 @@
         <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AD22" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="AF22" t="n">
         <v>7.8</v>
@@ -3454,22 +3454,22 @@
         <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="AJ22" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AK22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="G23" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="H23" t="n">
         <v>4.8</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J23" t="n">
         <v>4.1</v>
@@ -3541,19 +3541,19 @@
         <v>1.53</v>
       </c>
       <c r="S23" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="T23" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U23" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V23" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W23" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="X23" t="n">
         <v>22</v>
@@ -3565,7 +3565,7 @@
         <v>42</v>
       </c>
       <c r="AA23" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
         <v>11</v>
@@ -3574,10 +3574,10 @@
         <v>9.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
         <v>12</v>
@@ -3607,7 +3607,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO23" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24">
@@ -3637,25 +3637,25 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="G24" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H24" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I24" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="J24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
         <v>4.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -3667,16 +3667,16 @@
         <v>1.26</v>
       </c>
       <c r="P24" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R24" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S24" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T24" t="n">
         <v>1.79</v>
@@ -3685,64 +3685,64 @@
         <v>2.12</v>
       </c>
       <c r="V24" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W24" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="X24" t="n">
         <v>18</v>
       </c>
       <c r="Y24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z24" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA24" t="n">
         <v>140</v>
       </c>
       <c r="AB24" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC24" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF24" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
         <v>9.4</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ24" t="n">
         <v>18</v>
       </c>
       <c r="AK24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL24" t="n">
         <v>32</v>
       </c>
       <c r="AM24" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN24" t="n">
         <v>9.4</v>
       </c>
       <c r="AO24" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G25" t="n">
         <v>1.71</v>
       </c>
-      <c r="G25" t="n">
-        <v>1.72</v>
-      </c>
       <c r="H25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I25" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J25" t="n">
         <v>4.4</v>
@@ -3796,25 +3796,25 @@
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q25" t="n">
         <v>1.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S25" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T25" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U25" t="n">
         <v>2.26</v>
@@ -3823,7 +3823,7 @@
         <v>1.23</v>
       </c>
       <c r="W25" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X25" t="n">
         <v>20</v>
@@ -3874,7 +3874,7 @@
         <v>90</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO25" t="n">
         <v>60</v>
@@ -3910,13 +3910,13 @@
         <v>5.1</v>
       </c>
       <c r="G26" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H26" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="I26" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
@@ -3925,10 +3925,10 @@
         <v>4.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
         <v>3.75</v>
@@ -3937,49 +3937,49 @@
         <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
         <v>1.36</v>
       </c>
       <c r="S26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T26" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U26" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V26" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="W26" t="n">
         <v>1.23</v>
       </c>
       <c r="X26" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z26" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA26" t="n">
         <v>18</v>
       </c>
       <c r="AB26" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC26" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -3994,16 +3994,16 @@
         <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ26" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL26" t="n">
         <v>75</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>90</v>
       </c>
       <c r="AM26" t="n">
         <v>120</v>
@@ -4048,7 +4048,7 @@
         <v>1.25</v>
       </c>
       <c r="H27" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="I27" t="n">
         <v>15.5</v>
@@ -4057,7 +4057,7 @@
         <v>7.6</v>
       </c>
       <c r="K27" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L27" t="n">
         <v>1.26</v>
@@ -4066,28 +4066,28 @@
         <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O27" t="n">
         <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="Q27" t="n">
         <v>1.55</v>
       </c>
       <c r="R27" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S27" t="n">
         <v>2.38</v>
       </c>
       <c r="T27" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="U27" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
         <v>1.07</v>
@@ -4096,7 +4096,7 @@
         <v>5</v>
       </c>
       <c r="X27" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y27" t="n">
         <v>60</v>
@@ -4117,10 +4117,10 @@
         <v>55</v>
       </c>
       <c r="AE27" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AG27" t="n">
         <v>11</v>
@@ -4144,7 +4144,7 @@
         <v>200</v>
       </c>
       <c r="AN27" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO27" t="n">
         <v>310</v>
@@ -4195,34 +4195,34 @@
         <v>3.75</v>
       </c>
       <c r="L28" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P28" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="R28" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S28" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T28" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="U28" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="V28" t="n">
         <v>1.72</v>
@@ -4243,10 +4243,10 @@
         <v>32</v>
       </c>
       <c r="AB28" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
         <v>11</v>
@@ -4255,7 +4255,7 @@
         <v>24</v>
       </c>
       <c r="AF28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG28" t="n">
         <v>13.5</v>
@@ -4276,13 +4276,13 @@
         <v>44</v>
       </c>
       <c r="AM28" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -4330,13 +4330,13 @@
         <v>4.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O29" t="n">
         <v>1.31</v>
@@ -4345,16 +4345,16 @@
         <v>2</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R29" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S29" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T29" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U29" t="n">
         <v>2.02</v>
@@ -4369,46 +4369,46 @@
         <v>16</v>
       </c>
       <c r="Y29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA29" t="n">
         <v>170</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC29" t="n">
         <v>9.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG29" t="n">
         <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ29" t="n">
         <v>18.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM29" t="n">
         <v>140</v>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G30" t="n">
         <v>1.93</v>
       </c>
-      <c r="G30" t="n">
-        <v>1.94</v>
-      </c>
       <c r="H30" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I30" t="n">
         <v>4.3</v>
@@ -4471,7 +4471,7 @@
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.26</v>
@@ -4480,7 +4480,7 @@
         <v>2.24</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R30" t="n">
         <v>1.49</v>
@@ -4591,7 +4591,7 @@
         <v>9.4</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J31" t="n">
         <v>5.5</v>
@@ -4606,31 +4606,31 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O31" t="n">
         <v>1.21</v>
       </c>
       <c r="P31" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R31" t="n">
         <v>1.55</v>
       </c>
       <c r="S31" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T31" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U31" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V31" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W31" t="n">
         <v>3.45</v>
@@ -4639,19 +4639,19 @@
         <v>22</v>
       </c>
       <c r="Y31" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z31" t="n">
         <v>90</v>
       </c>
       <c r="AA31" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD31" t="n">
         <v>36</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H32" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J32" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K32" t="n">
         <v>3.95</v>
@@ -4750,76 +4750,76 @@
         <v>2.28</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R32" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S32" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="T32" t="n">
         <v>1.6</v>
       </c>
       <c r="U32" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V32" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W32" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X32" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD32" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AE32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG32" t="n">
         <v>17</v>
       </c>
-      <c r="AA32" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>15</v>
-      </c>
       <c r="AH32" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI32" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ32" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AK32" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL32" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM32" t="n">
         <v>70</v>
       </c>
       <c r="AN32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO32" t="n">
         <v>15.5</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G33" t="n">
         <v>1.93</v>
@@ -4861,25 +4861,25 @@
         <v>4.8</v>
       </c>
       <c r="I33" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M33" t="n">
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O33" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P33" t="n">
         <v>1.87</v>
@@ -4888,16 +4888,16 @@
         <v>2.12</v>
       </c>
       <c r="R33" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S33" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U33" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
         <v>1.22</v>
@@ -4906,22 +4906,22 @@
         <v>2.06</v>
       </c>
       <c r="X33" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AA33" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD33" t="n">
         <v>26</v>
@@ -4930,28 +4930,28 @@
         <v>80</v>
       </c>
       <c r="AF33" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG33" t="n">
         <v>11</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI33" t="n">
         <v>95</v>
       </c>
       <c r="AJ33" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK33" t="n">
         <v>22</v>
       </c>
       <c r="AL33" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM33" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN33" t="n">
         <v>16.5</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G34" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H34" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I34" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J34" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K34" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L34" t="n">
         <v>1.31</v>
@@ -5011,37 +5011,37 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O34" t="n">
         <v>1.21</v>
       </c>
       <c r="P34" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="Q34" t="n">
         <v>1.65</v>
       </c>
       <c r="R34" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="S34" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T34" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="U34" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V34" t="n">
         <v>1.13</v>
       </c>
       <c r="W34" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="X34" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y34" t="n">
         <v>980</v>
@@ -5050,49 +5050,49 @@
         <v>70</v>
       </c>
       <c r="AA34" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AB34" t="n">
         <v>10.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
         <v>980</v>
       </c>
       <c r="AE34" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF34" t="n">
         <v>10.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI34" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL34" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM34" t="n">
         <v>130</v>
       </c>
       <c r="AN34" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -5125,13 +5125,13 @@
         <v>1.49</v>
       </c>
       <c r="G35" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="H35" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I35" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="J35" t="n">
         <v>5</v>
@@ -5143,16 +5143,16 @@
         <v>1.3</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P35" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q35" t="n">
         <v>1.62</v>
@@ -5161,10 +5161,10 @@
         <v>1.55</v>
       </c>
       <c r="S35" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="T35" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U35" t="n">
         <v>2.04</v>
@@ -5173,13 +5173,13 @@
         <v>1.14</v>
       </c>
       <c r="W35" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X35" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z35" t="n">
         <v>1000</v>
@@ -5191,10 +5191,10 @@
         <v>11</v>
       </c>
       <c r="AC35" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE35" t="n">
         <v>120</v>
@@ -5203,10 +5203,10 @@
         <v>10.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI35" t="n">
         <v>100</v>
@@ -5218,13 +5218,13 @@
         <v>15.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM35" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN35" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5257,58 +5257,58 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="G36" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="H36" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="I36" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="J36" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K36" t="n">
         <v>3.85</v>
       </c>
       <c r="L36" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M36" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O36" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R36" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S36" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="T36" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="U36" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V36" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="W36" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X36" t="n">
         <v>980</v>
@@ -5347,13 +5347,13 @@
         <v>980</v>
       </c>
       <c r="AJ36" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK36" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AL36" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM36" t="n">
         <v>120</v>
@@ -5398,7 +5398,7 @@
         <v>1.72</v>
       </c>
       <c r="H37" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I37" t="n">
         <v>6.4</v>
@@ -5407,7 +5407,7 @@
         <v>3.9</v>
       </c>
       <c r="K37" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L37" t="n">
         <v>1.38</v>
@@ -5422,7 +5422,7 @@
         <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q37" t="n">
         <v>1.71</v>
@@ -5437,7 +5437,7 @@
         <v>1.84</v>
       </c>
       <c r="U37" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V37" t="n">
         <v>1.19</v>
@@ -5452,28 +5452,28 @@
         <v>980</v>
       </c>
       <c r="Z37" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AA37" t="n">
         <v>190</v>
       </c>
       <c r="AB37" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AH37" t="n">
         <v>980</v>
@@ -5485,7 +5485,7 @@
         <v>980</v>
       </c>
       <c r="AK37" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL37" t="n">
         <v>980</v>
@@ -5494,7 +5494,7 @@
         <v>140</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="G38" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="H38" t="n">
         <v>5.7</v>
       </c>
       <c r="I38" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K38" t="n">
         <v>4.4</v>
@@ -5554,40 +5554,40 @@
         <v>3.45</v>
       </c>
       <c r="O38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R38" t="n">
         <v>1.32</v>
       </c>
-      <c r="P38" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.33</v>
-      </c>
       <c r="S38" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T38" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U38" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V38" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W38" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="X38" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y38" t="n">
         <v>20</v>
       </c>
       <c r="Z38" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA38" t="n">
         <v>210</v>
@@ -5596,10 +5596,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD38" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE38" t="n">
         <v>110</v>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="G39" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="H39" t="n">
         <v>1.45</v>
@@ -5674,7 +5674,7 @@
         <v>1.52</v>
       </c>
       <c r="J39" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K39" t="n">
         <v>5.2</v>
@@ -5686,19 +5686,19 @@
         <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O39" t="n">
         <v>1.28</v>
       </c>
       <c r="P39" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="R39" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S39" t="n">
         <v>3</v>
@@ -5707,10 +5707,10 @@
         <v>2</v>
       </c>
       <c r="U39" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V39" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="W39" t="n">
         <v>1.11</v>
@@ -5740,7 +5740,7 @@
         <v>980</v>
       </c>
       <c r="AF39" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AG39" t="n">
         <v>980</v>
@@ -5758,7 +5758,7 @@
         <v>170</v>
       </c>
       <c r="AL39" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AM39" t="n">
         <v>180</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="G40" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H40" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I40" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="J40" t="n">
         <v>3.8</v>
@@ -5821,34 +5821,34 @@
         <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="O40" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P40" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R40" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S40" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="T40" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U40" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="V40" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="W40" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="X40" t="n">
         <v>18.5</v>
@@ -5863,7 +5863,7 @@
         <v>70</v>
       </c>
       <c r="AB40" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AC40" t="n">
         <v>8.800000000000001</v>
@@ -5872,19 +5872,19 @@
         <v>15.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF40" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AG40" t="n">
         <v>11.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ40" t="n">
         <v>980</v>
@@ -5899,10 +5899,10 @@
         <v>75</v>
       </c>
       <c r="AN40" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
     </row>
     <row r="41">
@@ -5935,7 +5935,7 @@
         <v>1.71</v>
       </c>
       <c r="G41" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="H41" t="n">
         <v>4.9</v>
@@ -5950,10 +5950,10 @@
         <v>4.2</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N41" t="n">
         <v>2.48</v>
@@ -5971,7 +5971,7 @@
         <v>1.21</v>
       </c>
       <c r="S41" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="T41" t="n">
         <v>2.16</v>
@@ -5983,7 +5983,7 @@
         <v>1.14</v>
       </c>
       <c r="W41" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6079,7 +6079,7 @@
         <v>5.1</v>
       </c>
       <c r="J42" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="n">
         <v>3.7</v>
@@ -6097,7 +6097,7 @@
         <v>1.42</v>
       </c>
       <c r="P42" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q42" t="n">
         <v>2.18</v>
@@ -6106,13 +6106,13 @@
         <v>1.25</v>
       </c>
       <c r="S42" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T42" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U42" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="V42" t="n">
         <v>1.25</v>
@@ -6121,7 +6121,7 @@
         <v>1.96</v>
       </c>
       <c r="X42" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y42" t="n">
         <v>15</v>
@@ -6133,10 +6133,10 @@
         <v>150</v>
       </c>
       <c r="AB42" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD42" t="n">
         <v>21</v>
@@ -6160,16 +6160,16 @@
         <v>25</v>
       </c>
       <c r="AK42" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AL42" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM42" t="n">
         <v>180</v>
       </c>
       <c r="AN42" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6226,7 +6226,7 @@
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O43" t="n">
         <v>1.11</v>
@@ -6244,7 +6244,7 @@
         <v>1.76</v>
       </c>
       <c r="T43" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U43" t="n">
         <v>2.06</v>
@@ -6337,16 +6337,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G44" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="H44" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I44" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J44" t="n">
         <v>3.25</v>
@@ -6358,16 +6358,16 @@
         <v>1.58</v>
       </c>
       <c r="M44" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N44" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="O44" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P44" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q44" t="n">
         <v>2.56</v>
@@ -6376,19 +6376,19 @@
         <v>1.19</v>
       </c>
       <c r="S44" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="T44" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U44" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V44" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="W44" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="X44" t="n">
         <v>9.199999999999999</v>
@@ -6400,7 +6400,7 @@
         <v>980</v>
       </c>
       <c r="AA44" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB44" t="n">
         <v>8.199999999999999</v>
@@ -6415,28 +6415,28 @@
         <v>55</v>
       </c>
       <c r="AF44" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG44" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH44" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI44" t="n">
         <v>80</v>
       </c>
       <c r="AJ44" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AK44" t="n">
         <v>980</v>
       </c>
       <c r="AL44" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM44" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN44" t="n">
         <v>1000</v>
@@ -6472,40 +6472,40 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="G45" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="H45" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="I45" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="J45" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K45" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M45" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>2.88</v>
+        <v>2.58</v>
       </c>
       <c r="O45" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P45" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="R45" t="n">
         <v>1.23</v>
@@ -6517,64 +6517,64 @@
         <v>2.04</v>
       </c>
       <c r="U45" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="V45" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="W45" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="X45" t="n">
         <v>980</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Z45" t="n">
         <v>980</v>
       </c>
       <c r="AA45" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB45" t="n">
         <v>24</v>
       </c>
       <c r="AC45" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD45" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AE45" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF45" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AG45" t="n">
         <v>980</v>
       </c>
       <c r="AH45" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="AI45" t="n">
         <v>270</v>
       </c>
       <c r="AJ45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>180</v>
+      </c>
+      <c r="AM45" t="n">
         <v>270</v>
       </c>
-      <c r="AK45" t="n">
-        <v>800</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>990</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>280</v>
-      </c>
       <c r="AN45" t="n">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="AO45" t="n">
         <v>980</v>
@@ -6607,61 +6607,61 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="G46" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="H46" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I46" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="J46" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="K46" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L46" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M46" t="n">
         <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="O46" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P46" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="R46" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="S46" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T46" t="n">
         <v>2.08</v>
       </c>
       <c r="U46" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="V46" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W46" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y46" t="n">
         <v>980</v>
@@ -6670,19 +6670,19 @@
         <v>1000</v>
       </c>
       <c r="AA46" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="AB46" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD46" t="n">
         <v>980</v>
       </c>
       <c r="AE46" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF46" t="n">
         <v>8.4</v>
@@ -6694,7 +6694,7 @@
         <v>980</v>
       </c>
       <c r="AI46" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ46" t="n">
         <v>13</v>
@@ -6706,10 +6706,10 @@
         <v>980</v>
       </c>
       <c r="AM46" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AN46" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6742,100 +6742,100 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="G47" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="H47" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="I47" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>2.68</v>
+        <v>2.96</v>
       </c>
       <c r="K47" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N47" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O47" t="n">
         <v>1.46</v>
       </c>
-      <c r="O47" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P47" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q47" t="n">
         <v>2.2</v>
       </c>
       <c r="R47" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="S47" t="n">
-        <v>2.2</v>
+        <v>3.45</v>
       </c>
       <c r="T47" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U47" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V47" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="W47" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA47" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD47" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE47" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF47" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ47" t="n">
         <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL47" t="n">
         <v>1000</v>
@@ -6844,10 +6844,10 @@
         <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO47"/>
+  <dimension ref="A1:AO49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:55:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Sportive De Tunis</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>JS Omrane</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>2.32</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>2.06</v>
+        <v>1.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.28</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>2.96</v>
+        <v>1.28</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,87 +788,87 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Stade Tunisien</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Club Africain</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>1.56</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>5.9</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>2.26</v>
+        <v>1.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>2.78</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
         <v>1000</v>
@@ -877,34 +877,34 @@
         <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>11:55:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.18</v>
+        <v>3.3</v>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.45</v>
+        <v>2.12</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>2.34</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.38</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>1.73</v>
+        <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>1.96</v>
+        <v>2.22</v>
       </c>
       <c r="V4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.35</v>
       </c>
-      <c r="W4" t="n">
-        <v>1.72</v>
-      </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF4" t="n">
         <v>32</v>
       </c>
-      <c r="AA4" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>17</v>
-      </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AJ4" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
         <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AN4" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AO4" t="n">
-        <v>70</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.72</v>
+        <v>1.45</v>
       </c>
       <c r="G5" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W5" t="n">
         <v>2.78</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.56</v>
-      </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC5" t="n">
         <v>12</v>
       </c>
-      <c r="Z5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN5" t="n">
         <v>8</v>
       </c>
-      <c r="AD5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>26</v>
-      </c>
       <c r="AO5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.72</v>
+        <v>2.16</v>
       </c>
       <c r="G6" t="n">
-        <v>1.73</v>
+        <v>2.42</v>
       </c>
       <c r="H6" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.28</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S6" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>2.48</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>2.36</v>
+        <v>1.71</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
         <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.4</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.9</v>
+        <v>2.74</v>
       </c>
       <c r="G7" t="n">
-        <v>5.2</v>
+        <v>2.82</v>
       </c>
       <c r="H7" t="n">
-        <v>1.76</v>
+        <v>2.74</v>
       </c>
       <c r="I7" t="n">
-        <v>1.77</v>
+        <v>2.84</v>
       </c>
       <c r="J7" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="S7" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="V7" t="n">
-        <v>2.28</v>
+        <v>1.54</v>
       </c>
       <c r="W7" t="n">
-        <v>1.24</v>
+        <v>1.55</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AB7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH7" t="n">
         <v>17.5</v>
       </c>
-      <c r="AF7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK7" t="n">
         <v>32</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>65</v>
-      </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AM7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.78</v>
+        <v>1.71</v>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>1.72</v>
       </c>
       <c r="H8" t="n">
-        <v>2.74</v>
+        <v>5.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.76</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>1.95</v>
+        <v>2.54</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.97</v>
+        <v>1.61</v>
       </c>
       <c r="R8" t="n">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>3.45</v>
+        <v>2.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="V8" t="n">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="W8" t="n">
-        <v>1.55</v>
+        <v>2.38</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.5</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="AA8" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AB8" t="n">
         <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH8" t="n">
         <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>42</v>
+        <v>18.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AL8" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AM8" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN8" t="n">
-        <v>26</v>
+        <v>7.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.59</v>
+        <v>4.9</v>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>6.2</v>
+        <v>1.78</v>
       </c>
       <c r="I9" t="n">
-        <v>6.6</v>
+        <v>1.79</v>
       </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="O9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.25</v>
       </c>
-      <c r="P9" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.66</v>
-      </c>
       <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG9" t="n">
         <v>19</v>
       </c>
-      <c r="Y9" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15.5</v>
+        <v>120</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="AL9" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.8</v>
+        <v>70</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1738,25 +1738,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="G10" t="n">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="J10" t="n">
         <v>3.5</v>
@@ -1765,94 +1765,94 @@
         <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="T10" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="U10" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="V10" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="W10" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="X10" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD10" t="n">
         <v>12.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>30</v>
       </c>
       <c r="AF10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AJ10" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN10" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AO10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.1</v>
+        <v>1.57</v>
       </c>
       <c r="G11" t="n">
-        <v>5.3</v>
+        <v>1.58</v>
       </c>
       <c r="H11" t="n">
-        <v>1.73</v>
+        <v>6.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.75</v>
+        <v>6.8</v>
       </c>
       <c r="J11" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="L11" t="n">
         <v>1.34</v>
@@ -1906,88 +1906,88 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S11" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="V11" t="n">
-        <v>2.32</v>
+        <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>1.23</v>
+        <v>2.72</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC11" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AD11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF11" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AG11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH11" t="n">
         <v>21</v>
       </c>
-      <c r="AC11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI11" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="n">
-        <v>130</v>
+        <v>15.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>70</v>
+        <v>7.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>2.96</v>
       </c>
       <c r="H12" t="n">
-        <v>2.38</v>
+        <v>2.68</v>
       </c>
       <c r="I12" t="n">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
         <v>3.7</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4.8</v>
-      </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="R12" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="S12" t="n">
-        <v>2.92</v>
+        <v>3.75</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="U12" t="n">
-        <v>2.44</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="W12" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="X12" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN12" t="n">
         <v>32</v>
       </c>
-      <c r="AB12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>26</v>
-      </c>
       <c r="AO12" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G13" t="n">
         <v>2.14</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
         <v>3.7</v>
@@ -2182,10 +2182,10 @@
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
         <v>1.53</v>
@@ -2197,28 +2197,28 @@
         <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V13" t="n">
         <v>1.37</v>
       </c>
       <c r="W13" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="X13" t="n">
         <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA13" t="n">
         <v>70</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
         <v>8.800000000000001</v>
@@ -2230,7 +2230,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
         <v>10.5</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.28</v>
+        <v>3.3</v>
       </c>
       <c r="G14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I14" t="n">
         <v>2.38</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.75</v>
-      </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>1.74</v>
+        <v>2.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.16</v>
+        <v>1.79</v>
       </c>
       <c r="R14" t="n">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
-        <v>3.75</v>
+        <v>2.92</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>2.46</v>
       </c>
       <c r="V14" t="n">
-        <v>1.36</v>
+        <v>1.73</v>
       </c>
       <c r="W14" t="n">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AA14" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.4</v>
+        <v>15.5</v>
       </c>
       <c r="AC14" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.3</v>
+        <v>5.2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.38</v>
+        <v>5.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="I15" t="n">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.34</v>
@@ -2446,88 +2446,88 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="R15" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="S15" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="T15" t="n">
-        <v>1.62</v>
+        <v>1.79</v>
       </c>
       <c r="U15" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.44</v>
+        <v>2.32</v>
       </c>
       <c r="W15" t="n">
-        <v>1.72</v>
+        <v>1.23</v>
       </c>
       <c r="X15" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>25</v>
+        <v>10.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="AE15" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AG15" t="n">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AL15" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AM15" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>14.5</v>
+        <v>65</v>
       </c>
       <c r="AO15" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.93</v>
+        <v>2.24</v>
       </c>
       <c r="G16" t="n">
-        <v>1.99</v>
+        <v>2.28</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="I16" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="L16" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="O16" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P16" t="n">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R16" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>3.4</v>
+        <v>1.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V16" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AA16" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AB16" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM16" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.42</v>
+        <v>2.4</v>
       </c>
       <c r="G17" t="n">
-        <v>1.46</v>
+        <v>2.42</v>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>9.800000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R17" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="S17" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.14</v>
+        <v>1.67</v>
       </c>
       <c r="U17" t="n">
-        <v>1.76</v>
+        <v>2.34</v>
       </c>
       <c r="V17" t="n">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="W17" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="X17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN17" t="n">
         <v>17</v>
       </c>
-      <c r="Y17" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>360</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AO17" t="n">
-        <v>250</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.18</v>
+        <v>1.92</v>
       </c>
       <c r="G18" t="n">
-        <v>1.21</v>
+        <v>1.99</v>
       </c>
       <c r="H18" t="n">
-        <v>18</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>23</v>
+        <v>4.7</v>
       </c>
       <c r="J18" t="n">
-        <v>8.6</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>10.5</v>
+        <v>3.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>8.199999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q18" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.33</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W18" t="n">
         <v>2</v>
       </c>
-      <c r="S18" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W18" t="n">
-        <v>5.8</v>
-      </c>
       <c r="X18" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>240</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB18" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
         <v>980</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AE18" t="n">
         <v>70</v>
       </c>
-      <c r="AE18" t="n">
-        <v>330</v>
-      </c>
       <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
         <v>11</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>14</v>
       </c>
       <c r="AH18" t="n">
         <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.9</v>
+        <v>18.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>330</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.78</v>
+        <v>1.42</v>
       </c>
       <c r="G19" t="n">
-        <v>1.88</v>
+        <v>1.46</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>5.4</v>
+        <v>9.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>4.9</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="O19" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="S19" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="U19" t="n">
-        <v>1.96</v>
+        <v>1.73</v>
       </c>
       <c r="V19" t="n">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="W19" t="n">
-        <v>2.12</v>
+        <v>3.1</v>
       </c>
       <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK19" t="n">
         <v>16</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>16</v>
+        <v>7.8</v>
       </c>
       <c r="AO19" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.65</v>
+        <v>1.17</v>
       </c>
       <c r="G20" t="n">
-        <v>3.95</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.04</v>
+        <v>19.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.14</v>
+        <v>23</v>
       </c>
       <c r="J20" t="n">
-        <v>3.85</v>
+        <v>8.6</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L20" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>4.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="P20" t="n">
-        <v>2.12</v>
+        <v>3.45</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="R20" t="n">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>2.92</v>
+        <v>1.83</v>
       </c>
       <c r="T20" t="n">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="U20" t="n">
-        <v>2.28</v>
+        <v>1.88</v>
       </c>
       <c r="V20" t="n">
-        <v>1.88</v>
+        <v>1.04</v>
       </c>
       <c r="W20" t="n">
-        <v>1.34</v>
+        <v>5.9</v>
       </c>
       <c r="X20" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="Y20" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="n">
-        <v>980</v>
+        <v>240</v>
       </c>
       <c r="AA20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
         <v>980</v>
       </c>
       <c r="AD20" t="n">
-        <v>11.5</v>
+        <v>70</v>
       </c>
       <c r="AE20" t="n">
-        <v>980</v>
+        <v>330</v>
       </c>
       <c r="AF20" t="n">
-        <v>34</v>
+        <v>10.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AI20" t="n">
-        <v>980</v>
+        <v>220</v>
       </c>
       <c r="AJ20" t="n">
-        <v>75</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK20" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM20" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="AN20" t="n">
-        <v>980</v>
+        <v>2.9</v>
       </c>
       <c r="AO20" t="n">
-        <v>980</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.19</v>
+        <v>1.8</v>
       </c>
       <c r="G21" t="n">
-        <v>1.24</v>
+        <v>1.87</v>
       </c>
       <c r="H21" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="X21" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>24</v>
-      </c>
-      <c r="J21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N21" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W21" t="n">
-        <v>5</v>
-      </c>
-      <c r="X21" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>980</v>
       </c>
       <c r="AK21" t="n">
         <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.7</v>
+        <v>16.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.18</v>
+        <v>3.65</v>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X22" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB22" t="n">
         <v>21</v>
       </c>
-      <c r="I22" t="n">
+      <c r="AC22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE22" t="n">
         <v>26</v>
       </c>
-      <c r="J22" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>9</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W22" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X22" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>300</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC22" t="n">
+      <c r="AF22" t="n">
         <v>980</v>
       </c>
-      <c r="AD22" t="n">
-        <v>95</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>550</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AG22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO22" t="n">
         <v>15</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>360</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>340</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.8</v>
+        <v>1.19</v>
       </c>
       <c r="G23" t="n">
-        <v>1.82</v>
+        <v>1.24</v>
       </c>
       <c r="H23" t="n">
-        <v>4.8</v>
+        <v>15</v>
       </c>
       <c r="I23" t="n">
-        <v>4.9</v>
+        <v>24</v>
       </c>
       <c r="J23" t="n">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
       <c r="K23" t="n">
-        <v>4.3</v>
+        <v>10.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="P23" t="n">
-        <v>2.36</v>
+        <v>2.96</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="S23" t="n">
-        <v>2.74</v>
+        <v>2.08</v>
       </c>
       <c r="T23" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="U23" t="n">
-        <v>2.34</v>
+        <v>1.73</v>
       </c>
       <c r="V23" t="n">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="W23" t="n">
-        <v>2.22</v>
+        <v>5</v>
       </c>
       <c r="X23" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="Y23" t="n">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="Z23" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AD23" t="n">
-        <v>18.5</v>
+        <v>70</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AH23" t="n">
-        <v>17.5</v>
+        <v>38</v>
       </c>
       <c r="AI23" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AK23" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AL23" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AM23" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.800000000000001</v>
+        <v>3.55</v>
       </c>
       <c r="AO23" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,126 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.7</v>
+        <v>1.17</v>
       </c>
       <c r="G24" t="n">
-        <v>1.75</v>
+        <v>1.19</v>
       </c>
       <c r="H24" t="n">
-        <v>5.2</v>
+        <v>21</v>
       </c>
       <c r="I24" t="n">
-        <v>5.7</v>
+        <v>27</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>4.3</v>
+        <v>9.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="P24" t="n">
-        <v>2.16</v>
+        <v>2.64</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.46</v>
+        <v>1.66</v>
       </c>
       <c r="S24" t="n">
-        <v>2.96</v>
+        <v>2.22</v>
       </c>
       <c r="T24" t="n">
-        <v>1.79</v>
+        <v>2.48</v>
       </c>
       <c r="U24" t="n">
-        <v>2.12</v>
+        <v>1.56</v>
       </c>
       <c r="V24" t="n">
-        <v>1.21</v>
+        <v>1.03</v>
       </c>
       <c r="W24" t="n">
-        <v>2.32</v>
+        <v>6.2</v>
       </c>
       <c r="X24" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="Y24" t="n">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="n">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="AA24" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>20</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="AE24" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AG24" t="n">
-        <v>9.4</v>
+        <v>14.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>19.5</v>
+        <v>55</v>
       </c>
       <c r="AI24" t="n">
-        <v>70</v>
+        <v>360</v>
       </c>
       <c r="AJ24" t="n">
-        <v>18</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="AN24" t="n">
-        <v>9.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G25" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="H25" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="I25" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="K25" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q25" t="n">
         <v>1.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S25" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="T25" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="U25" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="V25" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W25" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="X25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z25" t="n">
         <v>42</v>
       </c>
       <c r="AA25" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC25" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
         <v>60</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK25" t="n">
         <v>16.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM25" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO25" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.1</v>
+        <v>1.72</v>
       </c>
       <c r="G26" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H26" t="n">
         <v>5.3</v>
       </c>
-      <c r="H26" t="n">
-        <v>1.76</v>
-      </c>
       <c r="I26" t="n">
-        <v>1.78</v>
+        <v>5.5</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="P26" t="n">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="R26" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="S26" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="U26" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="V26" t="n">
-        <v>2.28</v>
+        <v>1.22</v>
       </c>
       <c r="W26" t="n">
-        <v>1.23</v>
+        <v>2.34</v>
       </c>
       <c r="X26" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.199999999999999</v>
+        <v>21</v>
       </c>
       <c r="Z26" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AA26" t="n">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="AB26" t="n">
-        <v>18</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>9.6</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH26" t="n">
         <v>19</v>
       </c>
-      <c r="AF26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>21</v>
-      </c>
       <c r="AI26" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="n">
-        <v>130</v>
+        <v>17.5</v>
       </c>
       <c r="AK26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AO26" t="n">
         <v>70</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>85</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O27" t="n">
         <v>1.24</v>
       </c>
-      <c r="G27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="H27" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="I27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K27" t="n">
-        <v>8</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N27" t="n">
-        <v>6</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.18</v>
-      </c>
       <c r="P27" t="n">
-        <v>2.72</v>
+        <v>2.32</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="R27" t="n">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="S27" t="n">
-        <v>2.38</v>
+        <v>2.82</v>
       </c>
       <c r="T27" t="n">
-        <v>2.18</v>
+        <v>1.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>2.24</v>
       </c>
       <c r="V27" t="n">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="W27" t="n">
-        <v>5</v>
+        <v>2.42</v>
       </c>
       <c r="X27" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL27" t="n">
         <v>28</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AM27" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AO27" t="n">
         <v>60</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>180</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>850</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>240</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>230</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>310</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="G28" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="H28" t="n">
-        <v>2.36</v>
+        <v>1.79</v>
       </c>
       <c r="I28" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="J28" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L28" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
         <v>1.36</v>
       </c>
-      <c r="M28" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.43</v>
-      </c>
       <c r="S28" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="T28" t="n">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="U28" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.72</v>
+        <v>2.24</v>
       </c>
       <c r="W28" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z28" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AB28" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AE28" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AF28" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AG28" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AH28" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
         <v>36</v>
       </c>
       <c r="AJ28" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AK28" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AL28" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AM28" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN28" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -4303,118 +4303,118 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.75</v>
+        <v>1.23</v>
       </c>
       <c r="G29" t="n">
-        <v>1.78</v>
+        <v>1.24</v>
       </c>
       <c r="H29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W29" t="n">
         <v>5.1</v>
       </c>
-      <c r="I29" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="X29" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>210</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN29" t="n">
         <v>3.9</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W29" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="X29" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>11</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.92</v>
+        <v>3.2</v>
       </c>
       <c r="G30" t="n">
-        <v>1.93</v>
+        <v>3.3</v>
       </c>
       <c r="H30" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N30" t="n">
         <v>4.2</v>
       </c>
-      <c r="I30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N30" t="n">
-        <v>4.6</v>
-      </c>
       <c r="O30" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P30" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="R30" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="S30" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="T30" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U30" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="V30" t="n">
-        <v>1.3</v>
+        <v>1.71</v>
       </c>
       <c r="W30" t="n">
-        <v>2.06</v>
+        <v>1.44</v>
       </c>
       <c r="X30" t="n">
         <v>17.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AB30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD30" t="n">
         <v>11</v>
       </c>
-      <c r="AC30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>17</v>
-      </c>
       <c r="AE30" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="AF30" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>55</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>22</v>
-      </c>
       <c r="AK30" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AL30" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AM30" t="n">
         <v>80</v>
       </c>
       <c r="AN30" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AO30" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L31" t="n">
         <v>1.39</v>
       </c>
-      <c r="G31" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="H31" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="M31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="X31" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF31" t="n">
         <v>10.5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K31" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N31" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W31" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="X31" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>8.4</v>
       </c>
       <c r="AG31" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH31" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM31" t="n">
         <v>120</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>140</v>
-      </c>
       <c r="AN31" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="AO31" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.2</v>
+        <v>1.86</v>
       </c>
       <c r="G32" t="n">
-        <v>3.4</v>
+        <v>1.88</v>
       </c>
       <c r="H32" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="I32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U32" t="n">
         <v>2.28</v>
       </c>
-      <c r="J32" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N32" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.48</v>
-      </c>
       <c r="V32" t="n">
-        <v>1.78</v>
+        <v>1.28</v>
       </c>
       <c r="W32" t="n">
-        <v>1.41</v>
+        <v>2.12</v>
       </c>
       <c r="X32" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="Z32" t="n">
-        <v>19.5</v>
+        <v>36</v>
       </c>
       <c r="AA32" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AB32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>20</v>
       </c>
-      <c r="AC32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF32" t="n">
+      <c r="AK32" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL32" t="n">
         <v>32</v>
       </c>
-      <c r="AG32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>40</v>
-      </c>
       <c r="AM32" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AO32" t="n">
-        <v>15.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="G33" t="n">
-        <v>1.93</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="I33" t="n">
+        <v>11</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K33" t="n">
         <v>5.6</v>
       </c>
-      <c r="J33" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L33" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>3.35</v>
+        <v>5.3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>1.87</v>
+        <v>2.42</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.12</v>
+        <v>1.65</v>
       </c>
       <c r="R33" t="n">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="S33" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W33" t="n">
         <v>3.5</v>
       </c>
-      <c r="T33" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W33" t="n">
-        <v>2.06</v>
-      </c>
       <c r="X33" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.5</v>
+        <v>60</v>
       </c>
       <c r="Z33" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AA33" t="n">
-        <v>160</v>
+        <v>420</v>
       </c>
       <c r="AB33" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG33" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF33" t="n">
+      <c r="AH33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>11.5</v>
       </c>
-      <c r="AG33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>22</v>
-      </c>
       <c r="AK33" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AL33" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AM33" t="n">
         <v>150</v>
       </c>
       <c r="AN33" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>95</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.46</v>
+        <v>6.8</v>
       </c>
       <c r="G34" t="n">
-        <v>1.55</v>
+        <v>9.6</v>
       </c>
       <c r="H34" t="n">
-        <v>7</v>
+        <v>1.45</v>
       </c>
       <c r="I34" t="n">
-        <v>8.4</v>
+        <v>1.52</v>
       </c>
       <c r="J34" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="K34" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="O34" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="P34" t="n">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R34" t="n">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="S34" t="n">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="U34" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="V34" t="n">
-        <v>1.13</v>
+        <v>2.92</v>
       </c>
       <c r="W34" t="n">
-        <v>2.8</v>
+        <v>1.11</v>
       </c>
       <c r="X34" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA34" t="n">
         <v>980</v>
       </c>
-      <c r="Z34" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>250</v>
-      </c>
       <c r="AB34" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE34" t="n">
         <v>980</v>
       </c>
-      <c r="AE34" t="n">
-        <v>120</v>
-      </c>
       <c r="AF34" t="n">
-        <v>10.5</v>
+        <v>95</v>
       </c>
       <c r="AG34" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AH34" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI34" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AJ34" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="AL34" t="n">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="AM34" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AN34" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>130</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="G35" t="n">
-        <v>1.52</v>
+        <v>1.93</v>
       </c>
       <c r="H35" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="I35" t="n">
-        <v>7.8</v>
+        <v>5.5</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="K35" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="L35" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R35" t="n">
         <v>1.3</v>
       </c>
-      <c r="M35" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N35" t="n">
-        <v>5</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.55</v>
-      </c>
       <c r="S35" t="n">
-        <v>2.56</v>
+        <v>3.6</v>
       </c>
       <c r="T35" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="U35" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="W35" t="n">
-        <v>2.92</v>
+        <v>2.06</v>
       </c>
       <c r="X35" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Y35" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA35" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="AB35" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG35" t="n">
         <v>11</v>
       </c>
-      <c r="AC35" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>10</v>
-      </c>
       <c r="AH35" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI35" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AK35" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AL35" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM35" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN35" t="n">
-        <v>7.4</v>
+        <v>16.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>1.48</v>
       </c>
       <c r="G36" t="n">
-        <v>4.7</v>
+        <v>1.54</v>
       </c>
       <c r="H36" t="n">
-        <v>1.9</v>
+        <v>7</v>
       </c>
       <c r="I36" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U36" t="n">
         <v>2.06</v>
       </c>
-      <c r="J36" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U36" t="n">
-        <v>2.08</v>
-      </c>
       <c r="V36" t="n">
-        <v>1.95</v>
+        <v>1.14</v>
       </c>
       <c r="W36" t="n">
-        <v>1.27</v>
+        <v>2.8</v>
       </c>
       <c r="X36" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Y36" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Z36" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AA36" t="n">
-        <v>980</v>
+        <v>250</v>
       </c>
       <c r="AB36" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AC36" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AD36" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AE36" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AF36" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AG36" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI36" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AJ36" t="n">
-        <v>110</v>
+        <v>14.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>75</v>
+        <v>18.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AM36" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN36" t="n">
-        <v>60</v>
+        <v>7.6</v>
       </c>
       <c r="AO36" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
@@ -5383,118 +5383,118 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="G37" t="n">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="H37" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5</v>
+      </c>
+      <c r="K37" t="n">
         <v>5.4</v>
       </c>
-      <c r="I37" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L37" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="P37" t="n">
-        <v>1.99</v>
+        <v>2.38</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="R37" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="S37" t="n">
-        <v>3.15</v>
+        <v>2.56</v>
       </c>
       <c r="T37" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="U37" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V37" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="W37" t="n">
-        <v>2.38</v>
+        <v>2.94</v>
       </c>
       <c r="X37" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="Y37" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Z37" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AA37" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="AB37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF37" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC37" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AG37" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH37" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI37" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ37" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AK37" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM37" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN37" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.64</v>
+        <v>4.1</v>
       </c>
       <c r="G38" t="n">
-        <v>1.77</v>
+        <v>4.7</v>
       </c>
       <c r="H38" t="n">
-        <v>5.7</v>
+        <v>1.92</v>
       </c>
       <c r="I38" t="n">
-        <v>6.6</v>
+        <v>2.02</v>
       </c>
       <c r="J38" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="K38" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="L38" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="O38" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P38" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="R38" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="S38" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="T38" t="n">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="U38" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="V38" t="n">
-        <v>1.17</v>
+        <v>1.98</v>
       </c>
       <c r="W38" t="n">
-        <v>2.3</v>
+        <v>1.27</v>
       </c>
       <c r="X38" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="Y38" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AA38" t="n">
-        <v>210</v>
+        <v>980</v>
       </c>
       <c r="AB38" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE38" t="n">
         <v>25</v>
       </c>
-      <c r="AE38" t="n">
-        <v>110</v>
-      </c>
       <c r="AF38" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AG38" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AH38" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI38" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AJ38" t="n">
-        <v>17.5</v>
+        <v>120</v>
       </c>
       <c r="AK38" t="n">
-        <v>19.5</v>
+        <v>70</v>
       </c>
       <c r="AL38" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AM38" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AN38" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="AO38" t="n">
-        <v>150</v>
+        <v>970</v>
       </c>
     </row>
     <row r="39">
@@ -5653,118 +5653,118 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>1.66</v>
       </c>
       <c r="G39" t="n">
-        <v>9.4</v>
+        <v>1.71</v>
       </c>
       <c r="H39" t="n">
-        <v>1.45</v>
+        <v>5.4</v>
       </c>
       <c r="I39" t="n">
-        <v>1.52</v>
+        <v>6.4</v>
       </c>
       <c r="J39" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="K39" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="L39" t="n">
         <v>1.38</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="R39" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="U39" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="V39" t="n">
-        <v>2.92</v>
+        <v>1.19</v>
       </c>
       <c r="W39" t="n">
-        <v>1.11</v>
+        <v>2.38</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y39" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Z39" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AA39" t="n">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AB39" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AD39" t="n">
         <v>980</v>
       </c>
       <c r="AE39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>980</v>
       </c>
-      <c r="AF39" t="n">
-        <v>95</v>
-      </c>
-      <c r="AG39" t="n">
+      <c r="AK39" t="n">
         <v>980</v>
       </c>
-      <c r="AH39" t="n">
+      <c r="AL39" t="n">
         <v>980</v>
       </c>
-      <c r="AI39" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>170</v>
-      </c>
-      <c r="AL39" t="n">
+      <c r="AM39" t="n">
         <v>140</v>
       </c>
-      <c r="AM39" t="n">
-        <v>180</v>
-      </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.18</v>
+        <v>1.63</v>
       </c>
       <c r="G40" t="n">
-        <v>2.26</v>
+        <v>1.75</v>
       </c>
       <c r="H40" t="n">
-        <v>3.35</v>
+        <v>5.6</v>
       </c>
       <c r="I40" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S40" t="n">
         <v>3.5</v>
       </c>
-      <c r="J40" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N40" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.82</v>
-      </c>
       <c r="T40" t="n">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="U40" t="n">
-        <v>2.44</v>
+        <v>1.88</v>
       </c>
       <c r="V40" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="W40" t="n">
-        <v>1.79</v>
+        <v>2.32</v>
       </c>
       <c r="X40" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y40" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AA40" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AB40" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD40" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AE40" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AF40" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AI40" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AJ40" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AM40" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AN40" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AO40" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.71</v>
+        <v>3.3</v>
       </c>
       <c r="G41" t="n">
-        <v>1.92</v>
+        <v>3.5</v>
       </c>
       <c r="H41" t="n">
-        <v>4.9</v>
+        <v>2.18</v>
       </c>
       <c r="I41" t="n">
-        <v>8</v>
+        <v>2.24</v>
       </c>
       <c r="J41" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="K41" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L41" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="M41" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>2.48</v>
+        <v>5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.46</v>
+        <v>1.2</v>
       </c>
       <c r="P41" t="n">
-        <v>1.51</v>
+        <v>2.42</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.18</v>
+        <v>1.6</v>
       </c>
       <c r="R41" t="n">
-        <v>1.21</v>
+        <v>1.56</v>
       </c>
       <c r="S41" t="n">
-        <v>3.45</v>
+        <v>2.56</v>
       </c>
       <c r="T41" t="n">
-        <v>2.16</v>
+        <v>1.56</v>
       </c>
       <c r="U41" t="n">
-        <v>1.68</v>
+        <v>2.5</v>
       </c>
       <c r="V41" t="n">
-        <v>1.14</v>
+        <v>1.8</v>
       </c>
       <c r="W41" t="n">
-        <v>2.02</v>
+        <v>1.4</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="G42" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="H42" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="I42" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="J42" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="K42" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="L42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R42" t="n">
         <v>1.5</v>
       </c>
-      <c r="M42" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N42" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.25</v>
-      </c>
       <c r="S42" t="n">
-        <v>4.1</v>
+        <v>2.78</v>
       </c>
       <c r="T42" t="n">
-        <v>1.96</v>
+        <v>1.64</v>
       </c>
       <c r="U42" t="n">
-        <v>1.94</v>
+        <v>2.44</v>
       </c>
       <c r="V42" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="W42" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="X42" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Z42" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AA42" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="AB42" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD42" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AF42" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AG42" t="n">
         <v>11.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AJ42" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK42" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL42" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AM42" t="n">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="AN42" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,123 +6188,123 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.25</v>
+        <v>1.68</v>
       </c>
       <c r="G43" t="n">
-        <v>1.33</v>
+        <v>1.81</v>
       </c>
       <c r="H43" t="n">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="I43" t="n">
-        <v>15</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>5.5</v>
+        <v>3.35</v>
       </c>
       <c r="K43" t="n">
-        <v>8.199999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="L43" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>1.1</v>
+        <v>2.72</v>
       </c>
       <c r="O43" t="n">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>1.61</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.29</v>
+        <v>2.18</v>
       </c>
       <c r="R43" t="n">
-        <v>1.94</v>
+        <v>1.22</v>
       </c>
       <c r="S43" t="n">
-        <v>1.76</v>
+        <v>4.1</v>
       </c>
       <c r="T43" t="n">
-        <v>1.72</v>
+        <v>2.16</v>
       </c>
       <c r="U43" t="n">
-        <v>2.06</v>
+        <v>1.67</v>
       </c>
       <c r="V43" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="W43" t="n">
-        <v>4</v>
+        <v>2.16</v>
       </c>
       <c r="X43" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y43" t="n">
         <v>1000</v>
       </c>
       <c r="Z43" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AA43" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AD43" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AE43" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH43" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI43" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK43" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM43" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6323,123 +6323,123 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.44</v>
+        <v>1.99</v>
       </c>
       <c r="G44" t="n">
-        <v>2.56</v>
+        <v>2.02</v>
       </c>
       <c r="H44" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="I44" t="n">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K44" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="L44" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="O44" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="P44" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.56</v>
+        <v>2.24</v>
       </c>
       <c r="R44" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="S44" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="T44" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U44" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="V44" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="W44" t="n">
-        <v>1.64</v>
+        <v>1.98</v>
       </c>
       <c r="X44" t="n">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="Y44" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC44" t="n">
         <v>9.6</v>
       </c>
-      <c r="Z44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AD44" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="AE44" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AF44" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG44" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI44" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AK44" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AL44" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM44" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,126 +6458,126 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Boyaca Chico</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5.9</v>
+        <v>1.26</v>
       </c>
       <c r="G45" t="n">
-        <v>7.2</v>
+        <v>1.29</v>
       </c>
       <c r="H45" t="n">
-        <v>1.68</v>
+        <v>12.5</v>
       </c>
       <c r="I45" t="n">
-        <v>1.74</v>
+        <v>13</v>
       </c>
       <c r="J45" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="K45" t="n">
-        <v>3.95</v>
+        <v>8</v>
       </c>
       <c r="L45" t="n">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="M45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q45" t="n">
         <v>1.08</v>
       </c>
-      <c r="N45" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.16</v>
-      </c>
       <c r="R45" t="n">
-        <v>1.23</v>
+        <v>1.83</v>
       </c>
       <c r="S45" t="n">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="T45" t="n">
-        <v>2.04</v>
+        <v>1.72</v>
       </c>
       <c r="U45" t="n">
-        <v>1.58</v>
+        <v>2.1</v>
       </c>
       <c r="V45" t="n">
-        <v>2.34</v>
+        <v>1.08</v>
       </c>
       <c r="W45" t="n">
-        <v>1.17</v>
+        <v>4</v>
       </c>
       <c r="X45" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="Y45" t="n">
-        <v>7.8</v>
+        <v>70</v>
       </c>
       <c r="Z45" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AA45" t="n">
-        <v>17.5</v>
+        <v>410</v>
       </c>
       <c r="AB45" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>8.800000000000001</v>
+        <v>22</v>
       </c>
       <c r="AD45" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AE45" t="n">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="AF45" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AH45" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI45" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK45" t="n">
-        <v>160</v>
+        <v>16.5</v>
       </c>
       <c r="AL45" t="n">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="AM45" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="AN45" t="n">
-        <v>230</v>
+        <v>3.7</v>
       </c>
       <c r="AO45" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
@@ -6593,123 +6593,123 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.44</v>
+        <v>2.46</v>
       </c>
       <c r="G46" t="n">
-        <v>1.49</v>
+        <v>2.54</v>
       </c>
       <c r="H46" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X46" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="I46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K46" t="n">
-        <v>5</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N46" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T46" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W46" t="n">
-        <v>3</v>
-      </c>
-      <c r="X46" t="n">
-        <v>17</v>
-      </c>
       <c r="Y46" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK46" t="n">
         <v>980</v>
       </c>
-      <c r="Z46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>400</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>17</v>
-      </c>
       <c r="AL46" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM46" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN46" t="n">
-        <v>8.4</v>
+        <v>40</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6718,135 +6718,405 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>20:10:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Boyaca Chico</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>America de Cali S.A</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G47" t="n">
+        <v>7</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X47" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>270</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>220</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>180</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>210</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>SE Palmeiras</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H48" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W48" t="n">
+        <v>3</v>
+      </c>
+      <c r="X48" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>400</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>Colombian Primera B</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>2025-11-06</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>22:20:00</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Boca Juniors de Cali</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="G47" t="n">
+      <c r="F49" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G49" t="n">
         <v>3.6</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H49" t="n">
         <v>2.44</v>
       </c>
-      <c r="I47" t="n">
-        <v>3</v>
-      </c>
-      <c r="J47" t="n">
+      <c r="I49" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J49" t="n">
         <v>2.96</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K49" t="n">
         <v>3.4</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L49" t="n">
         <v>1.01</v>
       </c>
-      <c r="M47" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S47" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T47" t="n">
+      <c r="M49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N49" t="n">
         <v>1.96</v>
       </c>
-      <c r="U47" t="n">
+      <c r="O49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U49" t="n">
         <v>1.84</v>
       </c>
-      <c r="V47" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W47" t="n">
+      <c r="V49" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W49" t="n">
         <v>1.38</v>
       </c>
-      <c r="X47" t="n">
+      <c r="X49" t="n">
         <v>12</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="Y49" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z47" t="n">
+      <c r="Z49" t="n">
         <v>19</v>
       </c>
-      <c r="AA47" t="n">
+      <c r="AA49" t="n">
         <v>50</v>
       </c>
-      <c r="AB47" t="n">
+      <c r="AB49" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC47" t="n">
+      <c r="AC49" t="n">
         <v>8.6</v>
       </c>
-      <c r="AD47" t="n">
+      <c r="AD49" t="n">
         <v>15</v>
       </c>
-      <c r="AE47" t="n">
+      <c r="AE49" t="n">
         <v>42</v>
       </c>
-      <c r="AF47" t="n">
+      <c r="AF49" t="n">
         <v>27</v>
       </c>
-      <c r="AG47" t="n">
+      <c r="AG49" t="n">
         <v>18</v>
       </c>
-      <c r="AH47" t="n">
+      <c r="AH49" t="n">
         <v>25</v>
       </c>
-      <c r="AI47" t="n">
+      <c r="AI49" t="n">
         <v>70</v>
       </c>
-      <c r="AJ47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK47" t="n">
+      <c r="AJ49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK49" t="n">
         <v>60</v>
       </c>
-      <c r="AL47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN47" t="n">
+      <c r="AL49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN49" t="n">
         <v>75</v>
       </c>
-      <c r="AO47" t="n">
+      <c r="AO49" t="n">
         <v>44</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
@@ -670,7 +670,7 @@
         <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
         <v>1.04</v>
@@ -679,7 +679,7 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
@@ -691,34 +691,34 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="R2" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -814,10 +814,10 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,34 +826,34 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
         <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
         <v>2.12</v>
       </c>
       <c r="I4" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
         <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -976,19 +976,19 @@
         <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T4" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U4" t="n">
         <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="W4" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -997,7 +997,7 @@
         <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA4" t="n">
         <v>30</v>
@@ -1006,25 +1006,25 @@
         <v>18</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>28</v>
       </c>
       <c r="AF4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH4" t="n">
         <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
         <v>75</v>
@@ -1036,13 +1036,13 @@
         <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G5" t="n">
         <v>1.56</v>
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="J5" t="n">
         <v>4.5</v>
@@ -1108,13 +1108,13 @@
         <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S5" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
         <v>1.98</v>
@@ -1135,16 +1135,16 @@
         <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
         <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE5" t="n">
         <v>130</v>
@@ -1156,19 +1156,19 @@
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
         <v>110</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
         <v>18.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
         <v>140</v>
@@ -1210,16 +1210,16 @@
         <v>2.16</v>
       </c>
       <c r="G6" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>3.7</v>
@@ -1240,13 +1240,13 @@
         <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
         <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T6" t="n">
         <v>1.83</v>
@@ -1255,10 +1255,10 @@
         <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W6" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X6" t="n">
         <v>15</v>
@@ -1270,37 +1270,37 @@
         <v>32</v>
       </c>
       <c r="AA6" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
         <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
         <v>980</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
         <v>980</v>
@@ -1309,10 +1309,10 @@
         <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1345,13 +1345,13 @@
         <v>2.74</v>
       </c>
       <c r="G7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.82</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.84</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
@@ -1360,22 +1360,22 @@
         <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
         <v>1.38</v>
@@ -1393,7 +1393,7 @@
         <v>1.54</v>
       </c>
       <c r="W7" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X7" t="n">
         <v>15</v>
@@ -1402,16 +1402,16 @@
         <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB7" t="n">
         <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
         <v>13</v>
@@ -1420,10 +1420,10 @@
         <v>32</v>
       </c>
       <c r="AF7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
         <v>17.5</v>
@@ -1435,19 +1435,19 @@
         <v>44</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
         <v>44</v>
       </c>
       <c r="AM7" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO7" t="n">
         <v>26</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -1477,82 +1477,82 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="G8" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="H8" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S8" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T8" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="U8" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="V8" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W8" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z8" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AA8" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB8" t="n">
         <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF8" t="n">
         <v>12</v>
@@ -1561,28 +1561,28 @@
         <v>9.6</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
         <v>75</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H9" t="n">
         <v>1.78</v>
@@ -1624,10 +1624,10 @@
         <v>1.79</v>
       </c>
       <c r="J9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K9" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.3</v>
       </c>
       <c r="L9" t="n">
         <v>1.36</v>
@@ -1639,34 +1639,34 @@
         <v>4.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
         <v>2.14</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R9" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
         <v>3.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V9" t="n">
         <v>2.26</v>
       </c>
       <c r="W9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y9" t="n">
         <v>9.6</v>
@@ -1675,7 +1675,7 @@
         <v>11</v>
       </c>
       <c r="AA9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB9" t="n">
         <v>19.5</v>
@@ -1717,7 +1717,7 @@
         <v>70</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G10" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I10" t="n">
         <v>2.8</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.86</v>
-      </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.41</v>
@@ -1771,13 +1771,13 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O10" t="n">
         <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="Q10" t="n">
         <v>1.97</v>
@@ -1795,7 +1795,7 @@
         <v>2.24</v>
       </c>
       <c r="V10" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W10" t="n">
         <v>1.55</v>
@@ -1807,7 +1807,7 @@
         <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA10" t="n">
         <v>44</v>
@@ -1822,7 +1822,7 @@
         <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF10" t="n">
         <v>18</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.57</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.58</v>
-      </c>
       <c r="H11" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I11" t="n">
         <v>6.8</v>
@@ -1909,43 +1909,43 @@
         <v>4.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
         <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T11" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U11" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
         <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA11" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AB11" t="n">
         <v>9.199999999999999</v>
@@ -1954,16 +1954,16 @@
         <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE11" t="n">
         <v>85</v>
       </c>
       <c r="AF11" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -1972,10 +1972,10 @@
         <v>80</v>
       </c>
       <c r="AJ11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK11" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>16</v>
       </c>
       <c r="AL11" t="n">
         <v>30</v>
@@ -1984,7 +1984,7 @@
         <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G12" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="H12" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I12" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
         <v>1.43</v>
@@ -2047,28 +2047,28 @@
         <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q12" t="n">
         <v>2.06</v>
       </c>
       <c r="R12" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S12" t="n">
         <v>3.75</v>
       </c>
       <c r="T12" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U12" t="n">
         <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W12" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X12" t="n">
         <v>12.5</v>
@@ -2122,7 +2122,7 @@
         <v>32</v>
       </c>
       <c r="AO12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="G13" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I13" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
@@ -2191,31 +2191,31 @@
         <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V13" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="X13" t="n">
         <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB13" t="n">
         <v>13</v>
@@ -2224,13 +2224,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG13" t="n">
         <v>10.5</v>
@@ -2239,13 +2239,13 @@
         <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK13" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
         <v>30</v>
@@ -2254,10 +2254,10 @@
         <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G14" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H14" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I14" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
         <v>3.7</v>
@@ -2311,7 +2311,7 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.25</v>
@@ -2335,13 +2335,13 @@
         <v>2.46</v>
       </c>
       <c r="V14" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="W14" t="n">
         <v>1.43</v>
       </c>
       <c r="X14" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
         <v>12.5</v>
@@ -2356,7 +2356,7 @@
         <v>15.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
         <v>11.5</v>
@@ -2386,7 +2386,7 @@
         <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN14" t="n">
         <v>26</v>
@@ -2425,7 +2425,7 @@
         <v>5.2</v>
       </c>
       <c r="G15" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H15" t="n">
         <v>1.73</v>
@@ -2440,7 +2440,7 @@
         <v>4.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2452,7 +2452,7 @@
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q15" t="n">
         <v>1.77</v>
@@ -2461,10 +2461,10 @@
         <v>1.47</v>
       </c>
       <c r="S15" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T15" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="n">
         <v>2.2</v>
@@ -2476,10 +2476,10 @@
         <v>1.23</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z15" t="n">
         <v>10.5</v>
@@ -2506,7 +2506,7 @@
         <v>19.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI15" t="n">
         <v>32</v>
@@ -2521,7 +2521,7 @@
         <v>65</v>
       </c>
       <c r="AM15" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN15" t="n">
         <v>65</v>
@@ -2560,70 +2560,70 @@
         <v>2.24</v>
       </c>
       <c r="G16" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="H16" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.46</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P16" t="n">
         <v>1.74</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S16" t="n">
-        <v>1.05</v>
+        <v>3.85</v>
       </c>
       <c r="T16" t="n">
         <v>1.83</v>
       </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V16" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="X16" t="n">
         <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA16" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
         <v>7.8</v>
@@ -2632,7 +2632,7 @@
         <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
         <v>14</v>
@@ -2641,16 +2641,16 @@
         <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
         <v>32</v>
       </c>
       <c r="AK16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
         <v>44</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G17" t="n">
         <v>2.4</v>
       </c>
-      <c r="G17" t="n">
-        <v>2.42</v>
-      </c>
       <c r="H17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
         <v>3.7</v>
@@ -2734,22 +2734,22 @@
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U17" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V17" t="n">
         <v>1.45</v>
       </c>
       <c r="W17" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X17" t="n">
         <v>16.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Z17" t="n">
         <v>23</v>
@@ -2758,7 +2758,7 @@
         <v>55</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
         <v>8.6</v>
@@ -2773,7 +2773,7 @@
         <v>16.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
         <v>16</v>
@@ -2782,22 +2782,22 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
         <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AO17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G18" t="n">
         <v>1.99</v>
@@ -2836,16 +2836,16 @@
         <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K18" t="n">
         <v>3.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -2863,16 +2863,16 @@
         <v>2.06</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V18" t="n">
         <v>1.27</v>
@@ -2893,7 +2893,7 @@
         <v>120</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
         <v>10</v>
@@ -2917,10 +2917,10 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
         <v>980</v>
@@ -2971,19 +2971,19 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="L19" t="n">
         <v>1.38</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
         <v>3.85</v>
@@ -2995,25 +2995,25 @@
         <v>1.97</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="R19" t="n">
         <v>1.37</v>
       </c>
       <c r="S19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T19" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="U19" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V19" t="n">
         <v>1.11</v>
       </c>
       <c r="W19" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="X19" t="n">
         <v>17</v>
@@ -3022,7 +3022,7 @@
         <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="n">
         <v>370</v>
@@ -3043,7 +3043,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
         <v>30</v>
@@ -3052,13 +3052,13 @@
         <v>160</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
         <v>16</v>
       </c>
       <c r="AL19" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM19" t="n">
         <v>200</v>
@@ -3100,7 +3100,7 @@
         <v>1.17</v>
       </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H20" t="n">
         <v>19.5</v>
@@ -3109,70 +3109,70 @@
         <v>23</v>
       </c>
       <c r="J20" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="K20" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.11</v>
       </c>
       <c r="P20" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="Q20" t="n">
         <v>1.33</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S20" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T20" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V20" t="n">
         <v>1.04</v>
       </c>
       <c r="W20" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="X20" t="n">
         <v>50</v>
       </c>
       <c r="Y20" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Z20" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AD20" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AF20" t="n">
         <v>10.5</v>
@@ -3190,19 +3190,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM20" t="n">
         <v>190</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="AO20" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21">
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G21" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H21" t="n">
         <v>5</v>
@@ -3244,58 +3244,58 @@
         <v>5.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
         <v>1.44</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O21" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="P21" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S21" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="T21" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="U21" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W21" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AA21" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB21" t="n">
         <v>9.6</v>
@@ -3310,7 +3310,7 @@
         <v>95</v>
       </c>
       <c r="AF21" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AG21" t="n">
         <v>10</v>
@@ -3322,7 +3322,7 @@
         <v>100</v>
       </c>
       <c r="AJ21" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AK21" t="n">
         <v>980</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="G22" t="n">
         <v>4.1</v>
       </c>
       <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
         <v>2.02</v>
       </c>
-      <c r="I22" t="n">
-        <v>2.1</v>
-      </c>
       <c r="J22" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K22" t="n">
         <v>4.1</v>
@@ -3397,82 +3397,82 @@
         <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q22" t="n">
         <v>1.77</v>
       </c>
       <c r="R22" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S22" t="n">
         <v>2.92</v>
       </c>
       <c r="T22" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U22" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V22" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="W22" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AA22" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AF22" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH22" t="n">
         <v>19.5</v>
       </c>
-      <c r="AH22" t="n">
-        <v>21</v>
-      </c>
       <c r="AI22" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ22" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK22" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="23">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G23" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H23" t="n">
         <v>15</v>
@@ -3514,10 +3514,10 @@
         <v>24</v>
       </c>
       <c r="J23" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L23" t="n">
         <v>1.25</v>
@@ -3526,19 +3526,19 @@
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="O23" t="n">
         <v>1.14</v>
       </c>
       <c r="P23" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="Q23" t="n">
         <v>1.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S23" t="n">
         <v>2.08</v>
@@ -3553,13 +3553,13 @@
         <v>1.04</v>
       </c>
       <c r="W23" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="X23" t="n">
         <v>980</v>
       </c>
       <c r="Y23" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3571,7 +3571,7 @@
         <v>14</v>
       </c>
       <c r="AC23" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AD23" t="n">
         <v>70</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3643,16 +3643,16 @@
         <v>1.19</v>
       </c>
       <c r="H24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L24" t="n">
         <v>1.28</v>
@@ -3667,34 +3667,34 @@
         <v>1.16</v>
       </c>
       <c r="P24" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="Q24" t="n">
         <v>1.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="S24" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T24" t="n">
         <v>2.48</v>
       </c>
       <c r="U24" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="V24" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W24" t="n">
         <v>6.2</v>
       </c>
       <c r="X24" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="Z24" t="n">
         <v>300</v>
@@ -3703,7 +3703,7 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC24" t="n">
         <v>20</v>
@@ -3712,22 +3712,22 @@
         <v>95</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="AF24" t="n">
         <v>7.8</v>
       </c>
       <c r="AG24" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AH24" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AI24" t="n">
         <v>360</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AK24" t="n">
         <v>15.5</v>
@@ -3739,7 +3739,7 @@
         <v>340</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,25 +3772,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="G25" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="H25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K25" t="n">
         <v>4.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -3805,34 +3805,34 @@
         <v>2.36</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R25" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S25" t="n">
         <v>2.74</v>
       </c>
       <c r="T25" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U25" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V25" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W25" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="X25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y25" t="n">
         <v>23</v>
       </c>
       <c r="Z25" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
@@ -3841,16 +3841,16 @@
         <v>11</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG25" t="n">
         <v>9.6</v>
@@ -3859,7 +3859,7 @@
         <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ25" t="n">
         <v>19</v>
@@ -3877,7 +3877,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO25" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26">
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="G26" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="H26" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="I26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K26" t="n">
         <v>4.1</v>
       </c>
-      <c r="K26" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L26" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -3934,85 +3934,85 @@
         <v>4.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P26" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W26" t="n">
         <v>2.18</v>
       </c>
-      <c r="Q26" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W26" t="n">
-        <v>2.34</v>
-      </c>
       <c r="X26" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH26" t="n">
         <v>18</v>
       </c>
-      <c r="Y26" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH26" t="n">
+      <c r="AI26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>19</v>
       </c>
-      <c r="AI26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ26" t="n">
+      <c r="AK26" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>17</v>
       </c>
       <c r="AL26" t="n">
         <v>32</v>
       </c>
       <c r="AM26" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN26" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AO26" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
@@ -4042,25 +4042,25 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H27" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I27" t="n">
         <v>5.4</v>
       </c>
       <c r="J27" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K27" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -4072,49 +4072,49 @@
         <v>1.24</v>
       </c>
       <c r="P27" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="R27" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S27" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="T27" t="n">
         <v>1.75</v>
       </c>
       <c r="U27" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V27" t="n">
         <v>1.22</v>
       </c>
       <c r="W27" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="X27" t="n">
         <v>21</v>
       </c>
       <c r="Y27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z27" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA27" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB27" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
         <v>65</v>
@@ -4123,7 +4123,7 @@
         <v>11.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AH27" t="n">
         <v>19</v>
@@ -4135,7 +4135,7 @@
         <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL27" t="n">
         <v>28</v>
@@ -4144,7 +4144,7 @@
         <v>90</v>
       </c>
       <c r="AN27" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO27" t="n">
         <v>60</v>
@@ -4177,25 +4177,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="G28" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="H28" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="I28" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -4204,31 +4204,31 @@
         <v>3.85</v>
       </c>
       <c r="O28" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P28" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q28" t="n">
         <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S28" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="U28" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="W28" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="X28" t="n">
         <v>15.5</v>
@@ -4237,28 +4237,28 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z28" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB28" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD28" t="n">
         <v>9.6</v>
       </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AG28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH28" t="n">
         <v>21</v>
@@ -4267,22 +4267,22 @@
         <v>36</v>
       </c>
       <c r="AJ28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM28" t="n">
         <v>130</v>
       </c>
-      <c r="AK28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>120</v>
-      </c>
       <c r="AN28" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AO28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -4318,7 +4318,7 @@
         <v>1.24</v>
       </c>
       <c r="H29" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="I29" t="n">
         <v>16.5</v>
@@ -4342,34 +4342,34 @@
         <v>1.18</v>
       </c>
       <c r="P29" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R29" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S29" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T29" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U29" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V29" t="n">
         <v>1.06</v>
       </c>
       <c r="W29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="X29" t="n">
         <v>32</v>
       </c>
       <c r="Y29" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="Z29" t="n">
         <v>1000</v>
@@ -4381,16 +4381,16 @@
         <v>10.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AF29" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG29" t="n">
         <v>11</v>
@@ -4402,19 +4402,19 @@
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4450,7 +4450,7 @@
         <v>3.2</v>
       </c>
       <c r="G30" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H30" t="n">
         <v>2.36</v>
@@ -4462,7 +4462,7 @@
         <v>3.7</v>
       </c>
       <c r="K30" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L30" t="n">
         <v>1.36</v>
@@ -4471,7 +4471,7 @@
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O30" t="n">
         <v>1.28</v>
@@ -4480,16 +4480,16 @@
         <v>2.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="R30" t="n">
         <v>1.43</v>
       </c>
       <c r="S30" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T30" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U30" t="n">
         <v>2.36</v>
@@ -4498,13 +4498,13 @@
         <v>1.71</v>
       </c>
       <c r="W30" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X30" t="n">
         <v>17.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z30" t="n">
         <v>15.5</v>
@@ -4540,7 +4540,7 @@
         <v>55</v>
       </c>
       <c r="AK30" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL30" t="n">
         <v>42</v>
@@ -4549,7 +4549,7 @@
         <v>80</v>
       </c>
       <c r="AN30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO30" t="n">
         <v>17</v>
@@ -4582,37 +4582,37 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="G31" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="H31" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="I31" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L31" t="n">
         <v>1.39</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q31" t="n">
         <v>1.91</v>
@@ -4624,70 +4624,70 @@
         <v>3.35</v>
       </c>
       <c r="T31" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U31" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V31" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W31" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="X31" t="n">
         <v>15</v>
       </c>
       <c r="Y31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z31" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA31" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF31" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG31" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ31" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL31" t="n">
         <v>38</v>
       </c>
       <c r="AM31" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO31" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -4717,112 +4717,112 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="G32" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="H32" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="I32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J32" t="n">
         <v>4.5</v>
       </c>
-      <c r="J32" t="n">
-        <v>4.1</v>
-      </c>
       <c r="K32" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O32" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V32" t="n">
         <v>1.25</v>
       </c>
-      <c r="P32" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.28</v>
-      </c>
       <c r="W32" t="n">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="X32" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Y32" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD32" t="n">
         <v>19</v>
       </c>
-      <c r="Z32" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AE32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AO32" t="n">
         <v>55</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="33">
@@ -4855,13 +4855,13 @@
         <v>1.38</v>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H33" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J33" t="n">
         <v>5.4</v>
@@ -4882,16 +4882,16 @@
         <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q33" t="n">
         <v>1.65</v>
       </c>
       <c r="R33" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S33" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T33" t="n">
         <v>1.98</v>
@@ -4900,22 +4900,22 @@
         <v>1.98</v>
       </c>
       <c r="V33" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W33" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="X33" t="n">
         <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="Z33" t="n">
         <v>90</v>
       </c>
       <c r="AA33" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AB33" t="n">
         <v>9.800000000000001</v>
@@ -4936,10 +4936,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH33" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI33" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ33" t="n">
         <v>11.5</v>
@@ -4954,7 +4954,7 @@
         <v>150</v>
       </c>
       <c r="AN33" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AO33" t="n">
         <v>170</v>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="G34" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="H34" t="n">
         <v>1.45</v>
@@ -5035,7 +5035,7 @@
         <v>1.83</v>
       </c>
       <c r="V34" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="W34" t="n">
         <v>1.11</v>
@@ -5050,7 +5050,7 @@
         <v>10.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AB34" t="n">
         <v>980</v>
@@ -5062,10 +5062,10 @@
         <v>12.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
         <v>980</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="G35" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="H35" t="n">
         <v>4.6</v>
       </c>
       <c r="I35" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K35" t="n">
         <v>3.9</v>
@@ -5152,10 +5152,10 @@
         <v>1.34</v>
       </c>
       <c r="P35" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R35" t="n">
         <v>1.3</v>
@@ -5170,10 +5170,10 @@
         <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="W35" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X35" t="n">
         <v>16</v>
@@ -5182,10 +5182,10 @@
         <v>19.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA35" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB35" t="n">
         <v>9.800000000000001</v>
@@ -5206,25 +5206,25 @@
         <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI35" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ35" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK35" t="n">
         <v>25</v>
       </c>
       <c r="AL35" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM35" t="n">
         <v>150</v>
       </c>
       <c r="AN35" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO35" t="n">
         <v>110</v>
@@ -5290,7 +5290,7 @@
         <v>2.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R36" t="n">
         <v>1.52</v>
@@ -5308,7 +5308,7 @@
         <v>1.14</v>
       </c>
       <c r="W36" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="X36" t="n">
         <v>27</v>
@@ -5326,7 +5326,7 @@
         <v>12</v>
       </c>
       <c r="AC36" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD36" t="n">
         <v>34</v>
@@ -5335,7 +5335,7 @@
         <v>120</v>
       </c>
       <c r="AF36" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG36" t="n">
         <v>10.5</v>
@@ -5350,7 +5350,7 @@
         <v>14.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL36" t="n">
         <v>34</v>
@@ -5359,7 +5359,7 @@
         <v>130</v>
       </c>
       <c r="AN36" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="AO36" t="n">
         <v>130</v>
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G37" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>7.2</v>
       </c>
       <c r="I37" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J37" t="n">
         <v>5</v>
@@ -5416,55 +5416,55 @@
         <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P37" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q37" t="n">
         <v>1.62</v>
       </c>
       <c r="R37" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S37" t="n">
         <v>2.56</v>
       </c>
       <c r="T37" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U37" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V37" t="n">
         <v>1.14</v>
       </c>
       <c r="W37" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="X37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y37" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Z37" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
         <v>260</v>
       </c>
       <c r="AB37" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
         <v>120</v>
@@ -5488,13 +5488,13 @@
         <v>15.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM37" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5539,7 +5539,7 @@
         <v>2.02</v>
       </c>
       <c r="J38" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K38" t="n">
         <v>3.85</v>
@@ -5554,7 +5554,7 @@
         <v>3.7</v>
       </c>
       <c r="O38" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P38" t="n">
         <v>1.91</v>
@@ -5569,10 +5569,10 @@
         <v>3.2</v>
       </c>
       <c r="T38" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U38" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V38" t="n">
         <v>1.98</v>
@@ -5587,7 +5587,7 @@
         <v>11.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AA38" t="n">
         <v>980</v>
@@ -5602,7 +5602,7 @@
         <v>13</v>
       </c>
       <c r="AE38" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AF38" t="n">
         <v>980</v>
@@ -5632,7 +5632,7 @@
         <v>70</v>
       </c>
       <c r="AO38" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -5662,19 +5662,19 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G39" t="n">
         <v>1.71</v>
       </c>
       <c r="H39" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I39" t="n">
         <v>6.4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K39" t="n">
         <v>4.5</v>
@@ -5698,7 +5698,7 @@
         <v>1.71</v>
       </c>
       <c r="R39" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S39" t="n">
         <v>3.15</v>
@@ -5713,16 +5713,16 @@
         <v>1.19</v>
       </c>
       <c r="W39" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X39" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="Y39" t="n">
         <v>24</v>
       </c>
       <c r="Z39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA39" t="n">
         <v>180</v>
@@ -5752,10 +5752,10 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AK39" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL39" t="n">
         <v>980</v>
@@ -5797,19 +5797,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G40" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H40" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="I40" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J40" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K40" t="n">
         <v>4.4</v>
@@ -5821,19 +5821,19 @@
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O40" t="n">
         <v>1.33</v>
       </c>
       <c r="P40" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="R40" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S40" t="n">
         <v>3.5</v>
@@ -5842,13 +5842,13 @@
         <v>1.93</v>
       </c>
       <c r="U40" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V40" t="n">
         <v>1.17</v>
       </c>
       <c r="W40" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="X40" t="n">
         <v>17</v>
@@ -5857,10 +5857,10 @@
         <v>19.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA40" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB40" t="n">
         <v>8.199999999999999</v>
@@ -5872,7 +5872,7 @@
         <v>25</v>
       </c>
       <c r="AE40" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AF40" t="n">
         <v>10.5</v>
@@ -5884,7 +5884,7 @@
         <v>24</v>
       </c>
       <c r="AI40" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ40" t="n">
         <v>17.5</v>
@@ -5899,7 +5899,7 @@
         <v>170</v>
       </c>
       <c r="AN40" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO40" t="n">
         <v>150</v>
@@ -5932,19 +5932,19 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G41" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H41" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="I41" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J41" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K41" t="n">
         <v>3.95</v>
@@ -5956,13 +5956,13 @@
         <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O41" t="n">
         <v>1.2</v>
       </c>
       <c r="P41" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q41" t="n">
         <v>1.6</v>
@@ -5974,16 +5974,16 @@
         <v>2.56</v>
       </c>
       <c r="T41" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U41" t="n">
         <v>2.5</v>
       </c>
       <c r="V41" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W41" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X41" t="n">
         <v>25</v>
@@ -5995,19 +5995,19 @@
         <v>20</v>
       </c>
       <c r="AA41" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB41" t="n">
         <v>20</v>
       </c>
       <c r="AC41" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD41" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF41" t="n">
         <v>32</v>
@@ -6022,13 +6022,13 @@
         <v>980</v>
       </c>
       <c r="AJ41" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL41" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM41" t="n">
         <v>65</v>
@@ -6037,7 +6037,7 @@
         <v>30</v>
       </c>
       <c r="AO41" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="42">
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G42" t="n">
         <v>2.14</v>
       </c>
       <c r="H42" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I42" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J42" t="n">
         <v>3.8</v>
@@ -6091,10 +6091,10 @@
         <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O42" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P42" t="n">
         <v>2.22</v>
@@ -6106,31 +6106,31 @@
         <v>1.5</v>
       </c>
       <c r="S42" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T42" t="n">
         <v>1.64</v>
       </c>
       <c r="U42" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="V42" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W42" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="X42" t="n">
         <v>18.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="Z42" t="n">
         <v>29</v>
       </c>
       <c r="AA42" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB42" t="n">
         <v>12.5</v>
@@ -6157,7 +6157,7 @@
         <v>46</v>
       </c>
       <c r="AJ42" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK42" t="n">
         <v>21</v>
@@ -6169,7 +6169,7 @@
         <v>75</v>
       </c>
       <c r="AN42" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO42" t="n">
         <v>980</v>
@@ -6205,10 +6205,10 @@
         <v>1.68</v>
       </c>
       <c r="G43" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="H43" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I43" t="n">
         <v>8.199999999999999</v>
@@ -6217,7 +6217,7 @@
         <v>3.35</v>
       </c>
       <c r="K43" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L43" t="n">
         <v>1.43</v>
@@ -6232,10 +6232,10 @@
         <v>1.45</v>
       </c>
       <c r="P43" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="R43" t="n">
         <v>1.22</v>
@@ -6244,7 +6244,7 @@
         <v>4.1</v>
       </c>
       <c r="T43" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U43" t="n">
         <v>1.67</v>
@@ -6253,7 +6253,7 @@
         <v>1.16</v>
       </c>
       <c r="W43" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6343,10 +6343,10 @@
         <v>2.02</v>
       </c>
       <c r="H44" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J44" t="n">
         <v>3.4</v>
@@ -6370,7 +6370,7 @@
         <v>1.72</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R44" t="n">
         <v>1.26</v>
@@ -6385,7 +6385,7 @@
         <v>1.94</v>
       </c>
       <c r="V44" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W44" t="n">
         <v>1.98</v>
@@ -6394,7 +6394,7 @@
         <v>13.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z44" t="n">
         <v>44</v>
@@ -6406,10 +6406,10 @@
         <v>8</v>
       </c>
       <c r="AC44" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE44" t="n">
         <v>90</v>
@@ -6418,16 +6418,16 @@
         <v>14</v>
       </c>
       <c r="AG44" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI44" t="n">
         <v>100</v>
       </c>
       <c r="AJ44" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK44" t="n">
         <v>29</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="G45" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="H45" t="n">
-        <v>12.5</v>
+        <v>7.4</v>
       </c>
       <c r="I45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J45" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="K45" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="L45" t="n">
         <v>1.17</v>
@@ -6499,82 +6499,82 @@
         <v>1.1</v>
       </c>
       <c r="O45" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V45" t="n">
         <v>1.09</v>
       </c>
-      <c r="P45" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U45" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.08</v>
-      </c>
       <c r="W45" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="X45" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y45" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="Z45" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AA45" t="n">
-        <v>410</v>
+        <v>330</v>
       </c>
       <c r="AB45" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC45" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AE45" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AF45" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>15</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>14.5</v>
       </c>
       <c r="AK45" t="n">
         <v>16.5</v>
       </c>
       <c r="AL45" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM45" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AO45" t="n">
         <v>1000</v>
@@ -6610,7 +6610,7 @@
         <v>2.46</v>
       </c>
       <c r="G46" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H46" t="n">
         <v>3.35</v>
@@ -6622,7 +6622,7 @@
         <v>3.25</v>
       </c>
       <c r="K46" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L46" t="n">
         <v>1.6</v>
@@ -6634,19 +6634,19 @@
         <v>2.72</v>
       </c>
       <c r="O46" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P46" t="n">
         <v>1.58</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R46" t="n">
         <v>1.21</v>
       </c>
       <c r="S46" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T46" t="n">
         <v>2.06</v>
@@ -6655,10 +6655,10 @@
         <v>1.82</v>
       </c>
       <c r="V46" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W46" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X46" t="n">
         <v>9.199999999999999</v>
@@ -6700,7 +6700,7 @@
         <v>42</v>
       </c>
       <c r="AK46" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL46" t="n">
         <v>65</v>
@@ -6742,52 +6742,52 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="G47" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H47" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="I47" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="J47" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K47" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L47" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="M47" t="n">
         <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O47" t="n">
         <v>1.45</v>
       </c>
       <c r="P47" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R47" t="n">
         <v>1.23</v>
       </c>
       <c r="S47" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T47" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="U47" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="V47" t="n">
         <v>2.28</v>
@@ -6802,52 +6802,52 @@
         <v>7.8</v>
       </c>
       <c r="Z47" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA47" t="n">
         <v>18.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH47" t="n">
         <v>980</v>
       </c>
-      <c r="AE47" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>36</v>
-      </c>
       <c r="AI47" t="n">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="AJ47" t="n">
         <v>220</v>
       </c>
       <c r="AK47" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AL47" t="n">
         <v>180</v>
       </c>
       <c r="AM47" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="AN47" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AO47" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="48">
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G48" t="n">
         <v>1.5</v>
       </c>
       <c r="H48" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="J48" t="n">
         <v>4.5</v>
@@ -6907,61 +6907,61 @@
         <v>1.32</v>
       </c>
       <c r="P48" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R48" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S48" t="n">
         <v>3.4</v>
       </c>
       <c r="T48" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U48" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V48" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W48" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="X48" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="AB48" t="n">
         <v>7.6</v>
       </c>
       <c r="AC48" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AE48" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AF48" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG48" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH48" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AI48" t="n">
         <v>160</v>
@@ -6970,10 +6970,10 @@
         <v>13</v>
       </c>
       <c r="AK48" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL48" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM48" t="n">
         <v>200</v>
@@ -6982,7 +6982,7 @@
         <v>8.4</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49">
@@ -7042,7 +7042,7 @@
         <v>1.01</v>
       </c>
       <c r="P49" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="Q49" t="n">
         <v>2.16</v>
@@ -7054,10 +7054,10 @@
         <v>2.16</v>
       </c>
       <c r="T49" t="n">
-        <v>1.96</v>
+        <v>1.03</v>
       </c>
       <c r="U49" t="n">
-        <v>1.84</v>
+        <v>1.03</v>
       </c>
       <c r="V49" t="n">
         <v>1.56</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
@@ -679,7 +679,7 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>2.06</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
@@ -688,25 +688,25 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P2" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.26</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
         <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>2.84</v>
       </c>
       <c r="T2" t="n">
         <v>1.03</v>
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="T3" t="n">
         <v>1.03</v>
@@ -850,10 +850,10 @@
         <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.02</v>
+        <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -940,109 +940,109 @@
         <v>3.4</v>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H4" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="I4" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="J4" t="n">
         <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R4" t="n">
         <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U4" t="n">
         <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="W4" t="n">
         <v>1.37</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
         <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB4" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
         <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG4" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AM4" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G5" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="I5" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J5" t="n">
         <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L5" t="n">
         <v>1.31</v>
@@ -1102,10 +1102,10 @@
         <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="R5" t="n">
         <v>1.49</v>
@@ -1123,58 +1123,58 @@
         <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AD5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>130</v>
+        <v>510</v>
       </c>
       <c r="AF5" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>18.5</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="n">
-        <v>140</v>
+        <v>470</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G6" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
         <v>3.95</v>
@@ -1222,25 +1222,25 @@
         <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
         <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R6" t="n">
         <v>1.28</v>
@@ -1249,70 +1249,70 @@
         <v>3.85</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U6" t="n">
         <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
         <v>1.73</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>100</v>
+        <v>530</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AF6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>380</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK6" t="n">
         <v>980</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>32</v>
       </c>
       <c r="AL6" t="n">
         <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H7" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I7" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
@@ -1372,7 +1372,7 @@
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q7" t="n">
         <v>1.96</v>
@@ -1396,58 +1396,58 @@
         <v>1.56</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
         <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AB7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD7" t="n">
         <v>12</v>
       </c>
-      <c r="AC7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>13</v>
-      </c>
       <c r="AE7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
         <v>25</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G8" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I8" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
         <v>4.6</v>
@@ -1507,7 +1507,7 @@
         <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="n">
         <v>1.59</v>
@@ -1516,55 +1516,55 @@
         <v>1.63</v>
       </c>
       <c r="S8" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T8" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U8" t="n">
         <v>2.42</v>
       </c>
       <c r="V8" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W8" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="X8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
         <v>27</v>
       </c>
       <c r="Z8" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="n">
         <v>130</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC8" t="n">
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="n">
         <v>60</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
         <v>17.5</v>
@@ -1582,7 +1582,7 @@
         <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="G9" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="I9" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="J9" t="n">
         <v>4.1</v>
@@ -1630,58 +1630,58 @@
         <v>4.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S9" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="U9" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="X9" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA9" t="n">
         <v>18</v>
       </c>
       <c r="AB9" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>9.6</v>
@@ -1693,31 +1693,31 @@
         <v>40</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="n">
         <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="G10" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="H10" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I10" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="J10" t="n">
         <v>3.55</v>
@@ -1771,34 +1771,34 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V10" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W10" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X10" t="n">
         <v>14</v>
@@ -1810,34 +1810,34 @@
         <v>18.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB10" t="n">
         <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG10" t="n">
         <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI10" t="n">
         <v>42</v>
       </c>
       <c r="AJ10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="n">
         <v>30</v>
@@ -1852,7 +1852,7 @@
         <v>26</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="G11" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I11" t="n">
         <v>6.6</v>
       </c>
-      <c r="I11" t="n">
-        <v>6.8</v>
-      </c>
       <c r="J11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.9</v>
       </c>
       <c r="L11" t="n">
         <v>1.34</v>
@@ -1912,7 +1912,7 @@
         <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q11" t="n">
         <v>1.73</v>
@@ -1924,40 +1924,40 @@
         <v>2.86</v>
       </c>
       <c r="T11" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U11" t="n">
         <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W11" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA11" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC11" t="n">
         <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="n">
         <v>9.800000000000001</v>
@@ -1984,7 +1984,7 @@
         <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G12" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="H12" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.7</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.72</v>
       </c>
       <c r="J12" t="n">
         <v>3.5</v>
@@ -2041,25 +2041,25 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q12" t="n">
         <v>2.06</v>
       </c>
       <c r="R12" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S12" t="n">
         <v>3.75</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U12" t="n">
         <v>2.16</v>
@@ -2068,19 +2068,19 @@
         <v>1.58</v>
       </c>
       <c r="W12" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X12" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB12" t="n">
         <v>11.5</v>
@@ -2122,7 +2122,7 @@
         <v>32</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H13" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
@@ -2176,46 +2176,46 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S13" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="V13" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W13" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="X13" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB13" t="n">
         <v>13</v>
@@ -2224,13 +2224,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
         <v>10.5</v>
@@ -2239,22 +2239,22 @@
         <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL13" t="n">
         <v>28</v>
       </c>
-      <c r="AK13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>30</v>
-      </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
@@ -2293,76 +2293,76 @@
         <v>3.25</v>
       </c>
       <c r="H14" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I14" t="n">
         <v>2.38</v>
       </c>
-      <c r="I14" t="n">
-        <v>2.42</v>
-      </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="R14" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="S14" t="n">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="T14" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="U14" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W14" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X14" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z14" t="n">
         <v>16.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>16</v>
       </c>
       <c r="AA14" t="n">
         <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF14" t="n">
         <v>24</v>
@@ -2371,28 +2371,28 @@
         <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
         <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="15">
@@ -2425,7 +2425,7 @@
         <v>5.2</v>
       </c>
       <c r="G15" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H15" t="n">
         <v>1.73</v>
@@ -2437,7 +2437,7 @@
         <v>4.2</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
         <v>1.35</v>
@@ -2446,22 +2446,22 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R15" t="n">
         <v>1.47</v>
       </c>
       <c r="S15" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
         <v>1.8</v>
@@ -2473,10 +2473,10 @@
         <v>2.32</v>
       </c>
       <c r="W15" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y15" t="n">
         <v>9.800000000000001</v>
@@ -2488,16 +2488,16 @@
         <v>17.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
         <v>9.6</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF15" t="n">
         <v>42</v>
@@ -2557,28 +2557,28 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="G16" t="n">
         <v>2.34</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="J16" t="n">
         <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L16" t="n">
         <v>1.46</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
         <v>3.2</v>
@@ -2590,22 +2590,22 @@
         <v>1.74</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R16" t="n">
         <v>1.28</v>
       </c>
       <c r="S16" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T16" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
         <v>1.74</v>
@@ -2614,25 +2614,25 @@
         <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z16" t="n">
         <v>25</v>
       </c>
       <c r="AA16" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AB16" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC16" t="n">
         <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AF16" t="n">
         <v>14</v>
@@ -2641,28 +2641,28 @@
         <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AJ16" t="n">
         <v>32</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM16" t="n">
         <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
         <v>3.1</v>
       </c>
-      <c r="I17" t="n">
-        <v>3.25</v>
-      </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
         <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R17" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="T17" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="U17" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V17" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W17" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="X17" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z17" t="n">
         <v>23</v>
       </c>
       <c r="AA17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF17" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
         <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AK17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
         <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AO17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="G18" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="H18" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -2854,7 +2854,7 @@
         <v>3.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
         <v>1.85</v>
@@ -2863,76 +2863,76 @@
         <v>2.06</v>
       </c>
       <c r="R18" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U18" t="n">
         <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA18" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AB18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG18" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11</v>
-      </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>75</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>28</v>
-      </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>18.5</v>
+        <v>55</v>
       </c>
       <c r="AO18" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G19" t="n">
         <v>1.46</v>
@@ -2971,10 +2971,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K19" t="n">
         <v>5.6</v>
@@ -2986,31 +2986,31 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="R19" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S19" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="U19" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V19" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W19" t="n">
         <v>3.15</v>
@@ -3019,25 +3019,25 @@
         <v>17</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="Z19" t="n">
         <v>80</v>
       </c>
       <c r="AA19" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC19" t="n">
         <v>12</v>
       </c>
       <c r="AD19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE19" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="n">
         <v>8.199999999999999</v>
@@ -3049,7 +3049,7 @@
         <v>30</v>
       </c>
       <c r="AI19" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ19" t="n">
         <v>12</v>
@@ -3061,13 +3061,13 @@
         <v>42</v>
       </c>
       <c r="AM19" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20">
@@ -3103,43 +3103,43 @@
         <v>1.19</v>
       </c>
       <c r="H20" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="I20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J20" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>10</v>
       </c>
       <c r="L20" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
         <v>1.11</v>
       </c>
       <c r="P20" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="Q20" t="n">
         <v>1.33</v>
       </c>
       <c r="R20" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U20" t="n">
         <v>1.87</v>
@@ -3151,13 +3151,13 @@
         <v>6.2</v>
       </c>
       <c r="X20" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="Y20" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Z20" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
@@ -3169,40 +3169,40 @@
         <v>23</v>
       </c>
       <c r="AD20" t="n">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="AE20" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="AF20" t="n">
         <v>10.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI20" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="AJ20" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM20" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="AO20" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="G21" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="H21" t="n">
         <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L21" t="n">
         <v>1.44</v>
@@ -3256,70 +3256,70 @@
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O21" t="n">
         <v>1.38</v>
       </c>
       <c r="P21" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R21" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>
       </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V21" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="Y21" t="n">
         <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AA21" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AD21" t="n">
         <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>95</v>
+        <v>420</v>
       </c>
       <c r="AF21" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
         <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="AJ21" t="n">
         <v>980</v>
@@ -3328,16 +3328,16 @@
         <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>16.5</v>
+        <v>85</v>
       </c>
       <c r="AO21" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22">
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="I22" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="J22" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
         <v>4.1</v>
@@ -3391,7 +3391,7 @@
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.25</v>
@@ -3400,64 +3400,64 @@
         <v>2.16</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S22" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T22" t="n">
         <v>1.7</v>
       </c>
       <c r="U22" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V22" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W22" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA22" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AB22" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
         <v>10.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AH22" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AJ22" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AK22" t="n">
         <v>48</v>
@@ -3505,19 +3505,19 @@
         <v>1.18</v>
       </c>
       <c r="G23" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="H23" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="I23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="K23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L23" t="n">
         <v>1.25</v>
@@ -3529,22 +3529,22 @@
         <v>6.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P23" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="Q23" t="n">
         <v>1.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="S23" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="T23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U23" t="n">
         <v>1.73</v>
@@ -3553,13 +3553,13 @@
         <v>1.04</v>
       </c>
       <c r="W23" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="X23" t="n">
         <v>980</v>
       </c>
       <c r="Y23" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3568,31 +3568,31 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AC23" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AD23" t="n">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="AG23" t="n">
         <v>980</v>
       </c>
       <c r="AH23" t="n">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AK23" t="n">
         <v>980</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3640,16 +3640,16 @@
         <v>1.17</v>
       </c>
       <c r="G24" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="H24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I24" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J24" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K24" t="n">
         <v>9.199999999999999</v>
@@ -3664,82 +3664,82 @@
         <v>5.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="R24" t="n">
         <v>1.68</v>
       </c>
       <c r="S24" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="T24" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="U24" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V24" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="W24" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="X24" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AD24" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>610</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AI24" t="n">
+        <v>430</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM24" t="n">
         <v>360</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>340</v>
-      </c>
       <c r="AN24" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="G25" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="H25" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I25" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K25" t="n">
         <v>4.3</v>
@@ -3802,61 +3802,61 @@
         <v>1.23</v>
       </c>
       <c r="P25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U25" t="n">
         <v>2.36</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.32</v>
-      </c>
       <c r="V25" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W25" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="X25" t="n">
         <v>21</v>
       </c>
       <c r="Y25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC25" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG25" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AH25" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
         <v>55</v>
@@ -3868,16 +3868,16 @@
         <v>16.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM25" t="n">
         <v>80</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -3919,7 +3919,7 @@
         <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
         <v>4.1</v>
@@ -3928,7 +3928,7 @@
         <v>1.34</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
         <v>4.4</v>
@@ -3937,10 +3937,10 @@
         <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R26" t="n">
         <v>1.45</v>
@@ -3949,10 +3949,10 @@
         <v>3.05</v>
       </c>
       <c r="T26" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U26" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V26" t="n">
         <v>1.25</v>
@@ -3964,22 +3964,22 @@
         <v>17</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z26" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA26" t="n">
         <v>110</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC26" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
         <v>60</v>
@@ -3997,7 +3997,7 @@
         <v>60</v>
       </c>
       <c r="AJ26" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AK26" t="n">
         <v>17.5</v>
@@ -4009,10 +4009,10 @@
         <v>90</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="G27" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H27" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J27" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="K27" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.32</v>
@@ -4066,46 +4066,46 @@
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="O27" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.24</v>
       </c>
-      <c r="P27" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.22</v>
-      </c>
       <c r="W27" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="X27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y27" t="n">
         <v>22</v>
       </c>
       <c r="Z27" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AA27" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AB27" t="n">
         <v>9.800000000000001</v>
@@ -4114,28 +4114,28 @@
         <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>65</v>
       </c>
       <c r="AF27" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>19</v>
       </c>
-      <c r="AI27" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>17</v>
-      </c>
       <c r="AK27" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
         <v>28</v>
@@ -4144,10 +4144,10 @@
         <v>90</v>
       </c>
       <c r="AN27" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AO27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="G28" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="H28" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="I28" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L28" t="n">
         <v>1.4</v>
@@ -4201,49 +4201,49 @@
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P28" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R28" t="n">
         <v>1.37</v>
       </c>
       <c r="S28" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T28" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U28" t="n">
         <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="W28" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X28" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y28" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Z28" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA28" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC28" t="n">
         <v>9</v>
@@ -4252,37 +4252,37 @@
         <v>9.6</v>
       </c>
       <c r="AE28" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF28" t="n">
         <v>42</v>
       </c>
       <c r="AG28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH28" t="n">
         <v>22</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>21</v>
       </c>
       <c r="AI28" t="n">
         <v>36</v>
       </c>
       <c r="AJ28" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL28" t="n">
         <v>80</v>
       </c>
       <c r="AM28" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN28" t="n">
         <v>90</v>
       </c>
       <c r="AO28" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="29">
@@ -4318,16 +4318,16 @@
         <v>1.24</v>
       </c>
       <c r="H29" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="I29" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="J29" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="K29" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L29" t="n">
         <v>1.26</v>
@@ -4336,13 +4336,13 @@
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P29" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q29" t="n">
         <v>1.53</v>
@@ -4351,10 +4351,10 @@
         <v>1.69</v>
       </c>
       <c r="S29" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T29" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U29" t="n">
         <v>1.81</v>
@@ -4363,13 +4363,13 @@
         <v>1.06</v>
       </c>
       <c r="W29" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="X29" t="n">
         <v>32</v>
       </c>
       <c r="Y29" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="Z29" t="n">
         <v>1000</v>
@@ -4378,19 +4378,19 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC29" t="n">
         <v>17.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="AE29" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AG29" t="n">
         <v>11</v>
@@ -4408,7 +4408,7 @@
         <v>14</v>
       </c>
       <c r="AL29" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="G30" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H30" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="I30" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="J30" t="n">
         <v>3.7</v>
       </c>
       <c r="K30" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L30" t="n">
         <v>1.36</v>
@@ -4471,37 +4471,37 @@
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P30" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q30" t="n">
         <v>1.81</v>
       </c>
       <c r="R30" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S30" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T30" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U30" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V30" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="W30" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="X30" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y30" t="n">
         <v>12</v>
@@ -4510,10 +4510,10 @@
         <v>15.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB30" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
         <v>8.199999999999999</v>
@@ -4522,37 +4522,37 @@
         <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG30" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK30" t="n">
         <v>36</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>34</v>
-      </c>
       <c r="AL30" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM30" t="n">
         <v>80</v>
       </c>
       <c r="AN30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -4582,49 +4582,49 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="H31" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="I31" t="n">
         <v>6</v>
       </c>
       <c r="J31" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K31" t="n">
         <v>4.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O31" t="n">
         <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R31" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S31" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U31" t="n">
         <v>2.02</v>
@@ -4633,10 +4633,10 @@
         <v>1.2</v>
       </c>
       <c r="W31" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="X31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y31" t="n">
         <v>20</v>
@@ -4648,16 +4648,16 @@
         <v>160</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD31" t="n">
         <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="n">
         <v>9.6</v>
@@ -4669,25 +4669,25 @@
         <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM31" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN31" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AO31" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="G32" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="H32" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I32" t="n">
         <v>4.9</v>
       </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
       <c r="J32" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K32" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.33</v>
@@ -4747,46 +4747,46 @@
         <v>1.24</v>
       </c>
       <c r="P32" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R32" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S32" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T32" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U32" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V32" t="n">
         <v>1.25</v>
       </c>
       <c r="W32" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="X32" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z32" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA32" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB32" t="n">
         <v>10.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD32" t="n">
         <v>19</v>
@@ -4801,28 +4801,28 @@
         <v>9.6</v>
       </c>
       <c r="AH32" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ32" t="n">
         <v>18.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL32" t="n">
         <v>28</v>
       </c>
       <c r="AM32" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AO32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="G33" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H33" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="I33" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="J33" t="n">
         <v>5.4</v>
       </c>
       <c r="K33" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L33" t="n">
         <v>1.31</v>
@@ -4885,10 +4885,10 @@
         <v>2.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R33" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S33" t="n">
         <v>2.66</v>
@@ -4897,13 +4897,13 @@
         <v>1.98</v>
       </c>
       <c r="U33" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V33" t="n">
         <v>1.11</v>
       </c>
       <c r="W33" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="X33" t="n">
         <v>21</v>
@@ -4915,10 +4915,10 @@
         <v>90</v>
       </c>
       <c r="AA33" t="n">
-        <v>410</v>
+        <v>330</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC33" t="n">
         <v>12</v>
@@ -4930,10 +4930,10 @@
         <v>150</v>
       </c>
       <c r="AF33" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG33" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH33" t="n">
         <v>26</v>
@@ -4951,13 +4951,13 @@
         <v>34</v>
       </c>
       <c r="AM33" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO33" t="n">
         <v>150</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>170</v>
       </c>
     </row>
     <row r="34">
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="G34" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="H34" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I34" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="J34" t="n">
         <v>4.3</v>
       </c>
       <c r="K34" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
         <v>1.38</v>
@@ -5020,7 +5020,7 @@
         <v>2.02</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="R34" t="n">
         <v>1.4</v>
@@ -5029,7 +5029,7 @@
         <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="U34" t="n">
         <v>1.83</v>
@@ -5041,28 +5041,28 @@
         <v>1.11</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z34" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA34" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AB34" t="n">
         <v>980</v>
       </c>
       <c r="AC34" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="AD34" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AE34" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AF34" t="n">
         <v>1000</v>
@@ -5074,7 +5074,7 @@
         <v>980</v>
       </c>
       <c r="AI34" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AJ34" t="n">
         <v>1000</v>
@@ -5083,16 +5083,16 @@
         <v>170</v>
       </c>
       <c r="AL34" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AM34" t="n">
-        <v>180</v>
+        <v>470</v>
       </c>
       <c r="AN34" t="n">
         <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G35" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H35" t="n">
         <v>4.6</v>
       </c>
       <c r="I35" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J35" t="n">
         <v>3.6</v>
@@ -5164,10 +5164,10 @@
         <v>3.6</v>
       </c>
       <c r="T35" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="V35" t="n">
         <v>1.26</v>
@@ -5176,31 +5176,31 @@
         <v>2.04</v>
       </c>
       <c r="X35" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Z35" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AA35" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD35" t="n">
         <v>22</v>
       </c>
       <c r="AE35" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="AF35" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG35" t="n">
         <v>11</v>
@@ -5209,25 +5209,25 @@
         <v>22</v>
       </c>
       <c r="AI35" t="n">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="AJ35" t="n">
         <v>23</v>
       </c>
       <c r="AK35" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL35" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM35" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO35" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36">
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="G36" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="H36" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I36" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J36" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K36" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="L36" t="n">
         <v>1.31</v>
@@ -5287,7 +5287,7 @@
         <v>1.21</v>
       </c>
       <c r="P36" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q36" t="n">
         <v>1.64</v>
@@ -5299,7 +5299,7 @@
         <v>2.6</v>
       </c>
       <c r="T36" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U36" t="n">
         <v>2.06</v>
@@ -5308,31 +5308,31 @@
         <v>1.14</v>
       </c>
       <c r="W36" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="X36" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y36" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z36" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA36" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AB36" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE36" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AF36" t="n">
         <v>10.5</v>
@@ -5341,25 +5341,25 @@
         <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AI36" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="AJ36" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK36" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL36" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AM36" t="n">
-        <v>130</v>
+        <v>430</v>
       </c>
       <c r="AN36" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AO36" t="n">
         <v>130</v>
@@ -5398,103 +5398,103 @@
         <v>1.5</v>
       </c>
       <c r="H37" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I37" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J37" t="n">
         <v>5</v>
       </c>
       <c r="K37" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L37" t="n">
         <v>1.3</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O37" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P37" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R37" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S37" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T37" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U37" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V37" t="n">
         <v>1.14</v>
       </c>
       <c r="W37" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="X37" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y37" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AA37" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB37" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC37" t="n">
         <v>12.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE37" t="n">
-        <v>120</v>
+        <v>510</v>
       </c>
       <c r="AF37" t="n">
         <v>10.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH37" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI37" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL37" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AM37" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5530,10 +5530,10 @@
         <v>4.1</v>
       </c>
       <c r="G38" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H38" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="I38" t="n">
         <v>2.02</v>
@@ -5569,7 +5569,7 @@
         <v>3.2</v>
       </c>
       <c r="T38" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U38" t="n">
         <v>2.04</v>
@@ -5584,10 +5584,10 @@
         <v>980</v>
       </c>
       <c r="Y38" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="Z38" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AA38" t="n">
         <v>980</v>
@@ -5596,10 +5596,10 @@
         <v>980</v>
       </c>
       <c r="AC38" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AD38" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AE38" t="n">
         <v>980</v>
@@ -5611,28 +5611,28 @@
         <v>980</v>
       </c>
       <c r="AH38" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI38" t="n">
         <v>980</v>
       </c>
       <c r="AJ38" t="n">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="AK38" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="AL38" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AM38" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN38" t="n">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="AO38" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
@@ -5677,7 +5677,7 @@
         <v>3.95</v>
       </c>
       <c r="K39" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L39" t="n">
         <v>1.38</v>
@@ -5686,7 +5686,7 @@
         <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O39" t="n">
         <v>1.29</v>
@@ -5698,16 +5698,16 @@
         <v>1.71</v>
       </c>
       <c r="R39" t="n">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>3.15</v>
+        <v>1.05</v>
       </c>
       <c r="T39" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U39" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
         <v>1.19</v>
@@ -5716,55 +5716,55 @@
         <v>2.4</v>
       </c>
       <c r="X39" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="Y39" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="Z39" t="n">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="AA39" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB39" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AD39" t="n">
         <v>980</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AF39" t="n">
-        <v>12.5</v>
+        <v>27</v>
       </c>
       <c r="AG39" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH39" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI39" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="AJ39" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AK39" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AL39" t="n">
         <v>980</v>
       </c>
       <c r="AM39" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5800,67 +5800,67 @@
         <v>1.62</v>
       </c>
       <c r="G40" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="H40" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I40" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J40" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K40" t="n">
         <v>4.4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O40" t="n">
         <v>1.33</v>
       </c>
       <c r="P40" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="R40" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S40" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T40" t="n">
         <v>1.93</v>
       </c>
       <c r="U40" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V40" t="n">
         <v>1.17</v>
       </c>
       <c r="W40" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="X40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z40" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA40" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AB40" t="n">
         <v>8.199999999999999</v>
@@ -5872,7 +5872,7 @@
         <v>25</v>
       </c>
       <c r="AE40" t="n">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="AF40" t="n">
         <v>10.5</v>
@@ -5884,25 +5884,25 @@
         <v>24</v>
       </c>
       <c r="AI40" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="AJ40" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK40" t="n">
         <v>19.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM40" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN40" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO40" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41">
@@ -5932,112 +5932,112 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="G41" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="H41" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="I41" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="J41" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K41" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L41" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M41" t="n">
         <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O41" t="n">
         <v>1.2</v>
       </c>
       <c r="P41" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R41" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S41" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T41" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U41" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="V41" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="W41" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X41" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA41" t="n">
         <v>25</v>
       </c>
-      <c r="Y41" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>36</v>
-      </c>
       <c r="AB41" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AC41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD41" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG41" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AJ41" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK41" t="n">
         <v>38</v>
       </c>
       <c r="AL41" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM41" t="n">
         <v>65</v>
       </c>
       <c r="AN41" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AO41" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="42">
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="G42" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="J42" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K42" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
         <v>1.34</v>
@@ -6097,70 +6097,70 @@
         <v>1.23</v>
       </c>
       <c r="P42" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R42" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S42" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T42" t="n">
         <v>1.64</v>
       </c>
       <c r="U42" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V42" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="W42" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="X42" t="n">
         <v>18.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="Z42" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="AA42" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AB42" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD42" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AE42" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AF42" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH42" t="n">
         <v>16.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ42" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK42" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL42" t="n">
         <v>32</v>
@@ -6169,10 +6169,10 @@
         <v>75</v>
       </c>
       <c r="AN42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO42" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
@@ -6205,28 +6205,28 @@
         <v>1.68</v>
       </c>
       <c r="G43" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H43" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="I43" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J43" t="n">
         <v>3.35</v>
       </c>
       <c r="K43" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="L43" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="M43" t="n">
         <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="O43" t="n">
         <v>1.45</v>
@@ -6235,7 +6235,7 @@
         <v>1.58</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="R43" t="n">
         <v>1.22</v>
@@ -6253,7 +6253,7 @@
         <v>1.16</v>
       </c>
       <c r="W43" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6268,10 +6268,10 @@
         <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD43" t="n">
         <v>1000</v>
@@ -6280,7 +6280,7 @@
         <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG43" t="n">
         <v>1000</v>
@@ -6304,7 +6304,7 @@
         <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6337,31 +6337,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="G44" t="n">
         <v>2.02</v>
       </c>
       <c r="H44" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I44" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J44" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K44" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L44" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M44" t="n">
         <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O44" t="n">
         <v>1.43</v>
@@ -6370,7 +6370,7 @@
         <v>1.72</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R44" t="n">
         <v>1.26</v>
@@ -6391,55 +6391,55 @@
         <v>1.98</v>
       </c>
       <c r="X44" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AA44" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="AB44" t="n">
         <v>8</v>
       </c>
       <c r="AC44" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD44" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE44" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF44" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG44" t="n">
         <v>11.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI44" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="AJ44" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AK44" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL44" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AM44" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN44" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6472,112 +6472,112 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="G45" t="n">
         <v>1.37</v>
       </c>
       <c r="H45" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I45" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J45" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="K45" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="L45" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="M45" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N45" t="n">
         <v>1.1</v>
       </c>
       <c r="O45" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V45" t="n">
         <v>1.11</v>
       </c>
-      <c r="P45" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U45" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.09</v>
-      </c>
       <c r="W45" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="X45" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="Y45" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="Z45" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AA45" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="AB45" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AC45" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AE45" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="AF45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH45" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI45" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ45" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK45" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AL45" t="n">
         <v>32</v>
       </c>
       <c r="AM45" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
@@ -6607,10 +6607,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G46" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="H46" t="n">
         <v>3.35</v>
@@ -6619,10 +6619,10 @@
         <v>3.5</v>
       </c>
       <c r="J46" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K46" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3.3</v>
       </c>
       <c r="L46" t="n">
         <v>1.6</v>
@@ -6631,10 +6631,10 @@
         <v>1.12</v>
       </c>
       <c r="N46" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="O46" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P46" t="n">
         <v>1.58</v>
@@ -6643,25 +6643,25 @@
         <v>2.58</v>
       </c>
       <c r="R46" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S46" t="n">
         <v>5.3</v>
       </c>
       <c r="T46" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U46" t="n">
         <v>1.82</v>
       </c>
       <c r="V46" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W46" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="X46" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Y46" t="n">
         <v>9.6</v>
@@ -6670,7 +6670,7 @@
         <v>24</v>
       </c>
       <c r="AA46" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AB46" t="n">
         <v>8</v>
@@ -6679,13 +6679,13 @@
         <v>7.4</v>
       </c>
       <c r="AD46" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF46" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>15</v>
       </c>
       <c r="AG46" t="n">
         <v>13</v>
@@ -6694,22 +6694,22 @@
         <v>24</v>
       </c>
       <c r="AI46" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AJ46" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AK46" t="n">
         <v>38</v>
       </c>
       <c r="AL46" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AM46" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6742,10 +6742,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G47" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H47" t="n">
         <v>1.69</v>
@@ -6757,13 +6757,13 @@
         <v>3.75</v>
       </c>
       <c r="K47" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L47" t="n">
         <v>1.5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N47" t="n">
         <v>2.88</v>
@@ -6772,16 +6772,16 @@
         <v>1.45</v>
       </c>
       <c r="P47" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="R47" t="n">
         <v>1.23</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="T47" t="n">
         <v>2.22</v>
@@ -6802,10 +6802,10 @@
         <v>7.8</v>
       </c>
       <c r="Z47" t="n">
-        <v>9.199999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>18.5</v>
+        <v>60</v>
       </c>
       <c r="AB47" t="n">
         <v>20</v>
@@ -6814,40 +6814,40 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD47" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AE47" t="n">
         <v>23</v>
       </c>
       <c r="AF47" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG47" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AH47" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AI47" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ47" t="n">
         <v>220</v>
       </c>
       <c r="AK47" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL47" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AM47" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="AN47" t="n">
         <v>220</v>
       </c>
       <c r="AO47" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H48" t="n">
         <v>8.199999999999999</v>
@@ -6889,25 +6889,25 @@
         <v>9.4</v>
       </c>
       <c r="J48" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K48" t="n">
         <v>4.9</v>
       </c>
       <c r="L48" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M48" t="n">
         <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O48" t="n">
         <v>1.32</v>
       </c>
       <c r="P48" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q48" t="n">
         <v>1.93</v>
@@ -6916,10 +6916,10 @@
         <v>1.37</v>
       </c>
       <c r="S48" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T48" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U48" t="n">
         <v>1.8</v>
@@ -6928,7 +6928,7 @@
         <v>1.12</v>
       </c>
       <c r="W48" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="X48" t="n">
         <v>15.5</v>
@@ -6937,13 +6937,13 @@
         <v>26</v>
       </c>
       <c r="Z48" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA48" t="n">
         <v>340</v>
       </c>
       <c r="AB48" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC48" t="n">
         <v>10.5</v>
@@ -6955,7 +6955,7 @@
         <v>160</v>
       </c>
       <c r="AF48" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG48" t="n">
         <v>10</v>
@@ -6967,19 +6967,19 @@
         <v>160</v>
       </c>
       <c r="AJ48" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK48" t="n">
         <v>16.5</v>
       </c>
       <c r="AL48" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM48" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AN48" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO48" t="n">
         <v>230</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="G49" t="n">
         <v>3.6</v>
@@ -7024,7 +7024,7 @@
         <v>2.76</v>
       </c>
       <c r="J49" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="K49" t="n">
         <v>3.4</v>
@@ -7036,7 +7036,7 @@
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="O49" t="n">
         <v>1.01</v>
@@ -7045,13 +7045,13 @@
         <v>1.46</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R49" t="n">
         <v>1.13</v>
       </c>
       <c r="S49" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T49" t="n">
         <v>1.03</v>
@@ -7060,16 +7060,16 @@
         <v>1.03</v>
       </c>
       <c r="V49" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W49" t="n">
         <v>1.38</v>
       </c>
       <c r="X49" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z49" t="n">
         <v>19</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>1.17</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>2.06</v>
+        <v>7.4</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.02</v>
       </c>
-      <c r="N2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W2" t="n">
-        <v>1.09</v>
+        <v>6.4</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,64 +802,64 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.4</v>
+        <v>3.55</v>
       </c>
       <c r="G3" t="n">
-        <v>44</v>
+        <v>4.3</v>
       </c>
       <c r="H3" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L3" t="n">
         <v>1.78</v>
       </c>
-      <c r="I3" t="n">
-        <v>44</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.01</v>
-      </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="N3" t="n">
-        <v>1.34</v>
+        <v>2.08</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="P3" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.07</v>
+        <v>3.5</v>
       </c>
       <c r="R3" t="n">
         <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>1.08</v>
+        <v>7.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.03</v>
+        <v>2.24</v>
       </c>
       <c r="U3" t="n">
-        <v>1.03</v>
+        <v>1.6</v>
       </c>
       <c r="V3" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W3" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G4" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I4" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
         <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
         <v>1.66</v>
@@ -988,7 +988,7 @@
         <v>1.76</v>
       </c>
       <c r="W4" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
         <v>17.5</v>
@@ -1003,7 +1003,7 @@
         <v>32</v>
       </c>
       <c r="AB4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>8.800000000000001</v>
@@ -1015,7 +1015,7 @@
         <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1039,7 +1039,7 @@
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>16.5</v>
@@ -1081,46 +1081,46 @@
         <v>6.8</v>
       </c>
       <c r="I5" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="R5" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="S5" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="T5" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W5" t="n">
         <v>2.84</v>
@@ -1135,13 +1135,13 @@
         <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AB5" t="n">
         <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1153,7 +1153,7 @@
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1162,19 +1162,19 @@
         <v>400</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK5" t="n">
         <v>70</v>
       </c>
       <c r="AL5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>470</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,61 +1210,61 @@
         <v>2.18</v>
       </c>
       <c r="G6" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="H6" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
         <v>3.95</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
         <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="X6" t="n">
         <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
         <v>980</v>
@@ -1285,10 +1285,10 @@
         <v>250</v>
       </c>
       <c r="AF6" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
         <v>65</v>
@@ -1345,13 +1345,13 @@
         <v>2.72</v>
       </c>
       <c r="G7" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
         <v>2.78</v>
       </c>
       <c r="I7" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
@@ -1360,7 +1360,7 @@
         <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1375,25 +1375,25 @@
         <v>1.98</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R7" t="n">
         <v>1.38</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U7" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V7" t="n">
         <v>1.54</v>
       </c>
       <c r="W7" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X7" t="n">
         <v>14</v>
@@ -1444,7 +1444,7 @@
         <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
         <v>25</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.68</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.7</v>
-      </c>
       <c r="H8" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I8" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J8" t="n">
         <v>4.5</v>
@@ -1495,43 +1495,43 @@
         <v>4.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R8" t="n">
         <v>1.63</v>
       </c>
       <c r="S8" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U8" t="n">
         <v>2.42</v>
       </c>
       <c r="V8" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W8" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y8" t="n">
         <v>27</v>
@@ -1555,19 +1555,19 @@
         <v>60</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI8" t="n">
         <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
@@ -1582,7 +1582,7 @@
         <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -1618,7 +1618,7 @@
         <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="I9" t="n">
         <v>1.76</v>
@@ -1636,13 +1636,13 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
         <v>1.91</v>
@@ -1654,13 +1654,13 @@
         <v>3.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U9" t="n">
         <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W9" t="n">
         <v>1.22</v>
@@ -1675,16 +1675,16 @@
         <v>10.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE9" t="n">
         <v>17.5</v>
@@ -1696,7 +1696,7 @@
         <v>20</v>
       </c>
       <c r="AH9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>34</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G10" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H10" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J10" t="n">
         <v>3.55</v>
@@ -1777,7 +1777,7 @@
         <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
         <v>1.98</v>
@@ -1786,7 +1786,7 @@
         <v>1.38</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T10" t="n">
         <v>1.75</v>
@@ -1795,10 +1795,10 @@
         <v>2.26</v>
       </c>
       <c r="V10" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W10" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X10" t="n">
         <v>14</v>
@@ -1807,7 +1807,7 @@
         <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA10" t="n">
         <v>42</v>
@@ -1834,7 +1834,7 @@
         <v>16.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="n">
         <v>44</v>
@@ -1888,10 +1888,10 @@
         <v>1.6</v>
       </c>
       <c r="H11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I11" t="n">
         <v>6.4</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.6</v>
       </c>
       <c r="J11" t="n">
         <v>4.6</v>
@@ -1900,34 +1900,34 @@
         <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="Q11" t="n">
         <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S11" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T11" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V11" t="n">
         <v>1.18</v>
@@ -1939,16 +1939,16 @@
         <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z11" t="n">
         <v>55</v>
       </c>
       <c r="AA11" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC11" t="n">
         <v>10.5</v>
@@ -1960,16 +1960,16 @@
         <v>80</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AG11" t="n">
         <v>9.4</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="n">
         <v>14.5</v>
@@ -1984,7 +1984,7 @@
         <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2020,7 +2020,7 @@
         <v>2.88</v>
       </c>
       <c r="G12" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H12" t="n">
         <v>2.66</v>
@@ -2035,7 +2035,7 @@
         <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2044,28 +2044,28 @@
         <v>3.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
         <v>1.33</v>
       </c>
       <c r="S12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T12" t="n">
         <v>1.84</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W12" t="n">
         <v>1.51</v>
@@ -2104,7 +2104,7 @@
         <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="n">
         <v>48</v>
@@ -2116,13 +2116,13 @@
         <v>48</v>
       </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
         <v>32</v>
       </c>
       <c r="AO12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G13" t="n">
         <v>2.16</v>
@@ -2161,13 +2161,13 @@
         <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.95</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -2176,52 +2176,52 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="T13" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="U13" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V13" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W13" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X13" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB13" t="n">
         <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>14.5</v>
@@ -2236,28 +2236,28 @@
         <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="n">
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="n">
         <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -2305,13 +2305,13 @@
         <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>1.23</v>
@@ -2320,25 +2320,25 @@
         <v>2.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="T14" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U14" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V14" t="n">
         <v>1.72</v>
       </c>
       <c r="W14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X14" t="n">
         <v>19</v>
@@ -2377,7 +2377,7 @@
         <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="n">
         <v>32</v>
@@ -2389,10 +2389,10 @@
         <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -2428,7 +2428,7 @@
         <v>5.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I15" t="n">
         <v>1.75</v>
@@ -2440,13 +2440,13 @@
         <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
@@ -2473,7 +2473,7 @@
         <v>2.32</v>
       </c>
       <c r="W15" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X15" t="n">
         <v>17.5</v>
@@ -2506,7 +2506,7 @@
         <v>19.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
         <v>32</v>
@@ -2524,10 +2524,10 @@
         <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="16">
@@ -2557,64 +2557,64 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="G16" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
         <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P16" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R16" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W16" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X16" t="n">
         <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
         <v>25</v>
@@ -2623,16 +2623,16 @@
         <v>160</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF16" t="n">
         <v>14</v>
@@ -2644,16 +2644,16 @@
         <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AJ16" t="n">
         <v>32</v>
       </c>
       <c r="AK16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM16" t="n">
         <v>120</v>
@@ -2662,7 +2662,7 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J17" t="n">
         <v>3.65</v>
@@ -2710,37 +2710,37 @@
         <v>3.75</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R17" t="n">
         <v>1.45</v>
       </c>
       <c r="S17" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="T17" t="n">
         <v>1.65</v>
       </c>
       <c r="U17" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V17" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W17" t="n">
         <v>1.65</v>
@@ -2755,13 +2755,13 @@
         <v>23</v>
       </c>
       <c r="AA17" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AB17" t="n">
         <v>13</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD17" t="n">
         <v>13</v>
@@ -2770,7 +2770,7 @@
         <v>32</v>
       </c>
       <c r="AF17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
         <v>11.5</v>
@@ -2794,10 +2794,10 @@
         <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>40</v>
+        <v>17.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -2830,7 +2830,7 @@
         <v>2.02</v>
       </c>
       <c r="G18" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H18" t="n">
         <v>4</v>
@@ -2845,55 +2845,55 @@
         <v>3.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q18" t="n">
         <v>2.06</v>
       </c>
       <c r="R18" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S18" t="n">
         <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V18" t="n">
         <v>1.3</v>
       </c>
       <c r="W18" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X18" t="n">
         <v>13.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="Z18" t="n">
         <v>30</v>
       </c>
       <c r="AA18" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="AC18" t="n">
         <v>8.199999999999999</v>
@@ -2911,28 +2911,28 @@
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
         <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
         <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -2962,52 +2962,52 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G19" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I19" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="R19" t="n">
         <v>1.39</v>
       </c>
       <c r="S19" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="T19" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="U19" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V19" t="n">
         <v>1.12</v>
@@ -3025,10 +3025,10 @@
         <v>80</v>
       </c>
       <c r="AA19" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC19" t="n">
         <v>12</v>
@@ -3037,19 +3037,19 @@
         <v>34</v>
       </c>
       <c r="AE19" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH19" t="n">
         <v>30</v>
       </c>
       <c r="AI19" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ19" t="n">
         <v>12</v>
@@ -3067,7 +3067,7 @@
         <v>7.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="G20" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="H20" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="I20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J20" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
         <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P20" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="S20" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="T20" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="U20" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W20" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="X20" t="n">
         <v>240</v>
       </c>
       <c r="Y20" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AC20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD20" t="n">
         <v>400</v>
       </c>
       <c r="AE20" t="n">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="AF20" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG20" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AI20" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="AJ20" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AK20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM20" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="AO20" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21">
@@ -3232,43 +3232,43 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="G21" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I21" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="J21" t="n">
         <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P21" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R21" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S21" t="n">
         <v>4</v>
@@ -3280,10 +3280,10 @@
         <v>1.86</v>
       </c>
       <c r="V21" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W21" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="X21" t="n">
         <v>27</v>
@@ -3292,13 +3292,13 @@
         <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
         <v>140</v>
       </c>
       <c r="AB21" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC21" t="n">
         <v>14</v>
@@ -3310,7 +3310,7 @@
         <v>420</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AG21" t="n">
         <v>10</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H22" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="I22" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
         <v>4</v>
@@ -3385,37 +3385,37 @@
         <v>4.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O22" t="n">
         <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R22" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="T22" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U22" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="V22" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>1.31</v>
@@ -3430,10 +3430,10 @@
         <v>13</v>
       </c>
       <c r="AA22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AB22" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC22" t="n">
         <v>8.800000000000001</v>
@@ -3472,7 +3472,7 @@
         <v>42</v>
       </c>
       <c r="AO22" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="G23" t="n">
         <v>1.22</v>
       </c>
       <c r="H23" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="I23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.25</v>
@@ -3535,19 +3535,19 @@
         <v>3.05</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="R23" t="n">
         <v>1.77</v>
       </c>
       <c r="S23" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="T23" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U23" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V23" t="n">
         <v>1.04</v>
@@ -3592,7 +3592,7 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AK23" t="n">
         <v>980</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3643,7 +3643,7 @@
         <v>1.18</v>
       </c>
       <c r="H24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I24" t="n">
         <v>30</v>
@@ -3655,7 +3655,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L24" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -3667,22 +3667,22 @@
         <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R24" t="n">
         <v>1.68</v>
       </c>
       <c r="S24" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="T24" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="U24" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="V24" t="n">
         <v>1.03</v>
@@ -3691,7 +3691,7 @@
         <v>6.4</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y24" t="n">
         <v>1000</v>
@@ -3703,7 +3703,7 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC24" t="n">
         <v>30</v>
@@ -3715,19 +3715,19 @@
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="AI24" t="n">
         <v>430</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK24" t="n">
         <v>14</v>
@@ -3772,31 +3772,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="G25" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="H25" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I25" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K25" t="n">
         <v>4.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O25" t="n">
         <v>1.23</v>
@@ -3805,55 +3805,55 @@
         <v>2.38</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R25" t="n">
         <v>1.55</v>
       </c>
       <c r="S25" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="T25" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U25" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V25" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W25" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="X25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH25" t="n">
         <v>17</v>
@@ -3871,13 +3871,13 @@
         <v>28</v>
       </c>
       <c r="AM25" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="G26" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H26" t="n">
         <v>4.8</v>
@@ -3919,28 +3919,28 @@
         <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R26" t="n">
         <v>1.45</v>
@@ -3949,7 +3949,7 @@
         <v>3.05</v>
       </c>
       <c r="T26" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U26" t="n">
         <v>2.18</v>
@@ -3958,7 +3958,7 @@
         <v>1.25</v>
       </c>
       <c r="W26" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X26" t="n">
         <v>17</v>
@@ -3967,7 +3967,7 @@
         <v>19</v>
       </c>
       <c r="Z26" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="n">
         <v>110</v>
@@ -3991,13 +3991,13 @@
         <v>9.6</v>
       </c>
       <c r="AH26" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI26" t="n">
         <v>60</v>
       </c>
       <c r="AJ26" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK26" t="n">
         <v>17.5</v>
@@ -4009,7 +4009,7 @@
         <v>90</v>
       </c>
       <c r="AN26" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO26" t="n">
         <v>65</v>
@@ -4042,37 +4042,37 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G27" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I27" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K27" t="n">
         <v>4.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O27" t="n">
         <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q27" t="n">
         <v>1.73</v>
@@ -4090,31 +4090,31 @@
         <v>2.26</v>
       </c>
       <c r="V27" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W27" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="X27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z27" t="n">
         <v>40</v>
       </c>
       <c r="AA27" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC27" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE27" t="n">
         <v>65</v>
@@ -4126,16 +4126,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AH27" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ27" t="n">
         <v>19</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL27" t="n">
         <v>28</v>
@@ -4147,7 +4147,7 @@
         <v>9.6</v>
       </c>
       <c r="AO27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
@@ -4183,7 +4183,7 @@
         <v>5.4</v>
       </c>
       <c r="H28" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="I28" t="n">
         <v>1.77</v>
@@ -4195,22 +4195,22 @@
         <v>4.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O28" t="n">
         <v>1.33</v>
       </c>
       <c r="P28" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
         <v>1.37</v>
@@ -4225,7 +4225,7 @@
         <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="W28" t="n">
         <v>1.22</v>
@@ -4246,7 +4246,7 @@
         <v>18</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
         <v>9.6</v>
@@ -4282,7 +4282,7 @@
         <v>90</v>
       </c>
       <c r="AO28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -4318,19 +4318,19 @@
         <v>1.24</v>
       </c>
       <c r="H29" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I29" t="n">
         <v>17</v>
       </c>
       <c r="J29" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="K29" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L29" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
@@ -4342,16 +4342,16 @@
         <v>1.17</v>
       </c>
       <c r="P29" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R29" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S29" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T29" t="n">
         <v>2.18</v>
@@ -4366,7 +4366,7 @@
         <v>5.1</v>
       </c>
       <c r="X29" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y29" t="n">
         <v>50</v>
@@ -4381,7 +4381,7 @@
         <v>10</v>
       </c>
       <c r="AC29" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD29" t="n">
         <v>200</v>
@@ -4402,7 +4402,7 @@
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AK29" t="n">
         <v>14</v>
@@ -4414,7 +4414,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G30" t="n">
         <v>3.35</v>
       </c>
-      <c r="G30" t="n">
-        <v>3.4</v>
-      </c>
       <c r="H30" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I30" t="n">
         <v>2.32</v>
@@ -4465,7 +4465,7 @@
         <v>3.75</v>
       </c>
       <c r="L30" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
@@ -4480,13 +4480,13 @@
         <v>2.14</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="R30" t="n">
         <v>1.45</v>
       </c>
       <c r="S30" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T30" t="n">
         <v>1.67</v>
@@ -4495,16 +4495,16 @@
         <v>2.38</v>
       </c>
       <c r="V30" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W30" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X30" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z30" t="n">
         <v>15.5</v>
@@ -4522,7 +4522,7 @@
         <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF30" t="n">
         <v>25</v>
@@ -4543,10 +4543,10 @@
         <v>36</v>
       </c>
       <c r="AL30" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM30" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN30" t="n">
         <v>30</v>
@@ -4582,13 +4582,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G31" t="n">
         <v>1.68</v>
       </c>
       <c r="H31" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I31" t="n">
         <v>6</v>
@@ -4600,7 +4600,7 @@
         <v>4.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
@@ -4609,10 +4609,10 @@
         <v>4.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P31" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q31" t="n">
         <v>1.9</v>
@@ -4624,10 +4624,10 @@
         <v>3.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U31" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>1.2</v>
@@ -4648,7 +4648,7 @@
         <v>160</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC31" t="n">
         <v>9.4</v>
@@ -4735,22 +4735,22 @@
         <v>4.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O32" t="n">
         <v>1.24</v>
       </c>
       <c r="P32" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R32" t="n">
         <v>1.52</v>
@@ -4762,7 +4762,7 @@
         <v>1.72</v>
       </c>
       <c r="U32" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V32" t="n">
         <v>1.25</v>
@@ -4789,7 +4789,7 @@
         <v>9.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE32" t="n">
         <v>60</v>
@@ -4810,7 +4810,7 @@
         <v>18.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL32" t="n">
         <v>28</v>
@@ -4819,7 +4819,7 @@
         <v>80</v>
       </c>
       <c r="AN32" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO32" t="n">
         <v>50</v>
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G33" t="n">
         <v>1.41</v>
       </c>
-      <c r="G33" t="n">
-        <v>1.42</v>
-      </c>
       <c r="H33" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="J33" t="n">
         <v>5.4</v>
@@ -4870,10 +4870,10 @@
         <v>5.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
         <v>5.3</v>
@@ -4882,7 +4882,7 @@
         <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q33" t="n">
         <v>1.66</v>
@@ -4891,22 +4891,22 @@
         <v>1.55</v>
       </c>
       <c r="S33" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="T33" t="n">
         <v>1.98</v>
       </c>
       <c r="U33" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V33" t="n">
         <v>1.11</v>
       </c>
       <c r="W33" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="X33" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="n">
         <v>34</v>
@@ -4918,13 +4918,13 @@
         <v>330</v>
       </c>
       <c r="AB33" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC33" t="n">
         <v>12</v>
       </c>
       <c r="AD33" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE33" t="n">
         <v>150</v>
@@ -4987,55 +4987,55 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="G34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>1.46</v>
       </c>
       <c r="I34" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="J34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N34" t="n">
         <v>4.3</v>
       </c>
-      <c r="K34" t="n">
-        <v>5</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3.95</v>
-      </c>
       <c r="O34" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P34" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="R34" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="U34" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="V34" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="W34" t="n">
         <v>1.11</v>
@@ -5044,10 +5044,10 @@
         <v>90</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.6</v>
+        <v>18</v>
       </c>
       <c r="Z34" t="n">
-        <v>9.199999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="AA34" t="n">
         <v>980</v>
@@ -5059,7 +5059,7 @@
         <v>42</v>
       </c>
       <c r="AD34" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AE34" t="n">
         <v>980</v>
@@ -5080,10 +5080,10 @@
         <v>1000</v>
       </c>
       <c r="AK34" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL34" t="n">
         <v>170</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>140</v>
       </c>
       <c r="AM34" t="n">
         <v>470</v>
@@ -5092,7 +5092,7 @@
         <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -5125,97 +5125,97 @@
         <v>1.9</v>
       </c>
       <c r="G35" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H35" t="n">
         <v>4.6</v>
       </c>
       <c r="I35" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="J35" t="n">
         <v>3.6</v>
       </c>
       <c r="K35" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O35" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P35" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R35" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S35" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="T35" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="U35" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V35" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W35" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X35" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AA35" t="n">
         <v>330</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="n">
         <v>210</v>
       </c>
       <c r="AF35" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG35" t="n">
         <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AI35" t="n">
         <v>230</v>
       </c>
       <c r="AJ35" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AK35" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AL35" t="n">
         <v>42</v>
@@ -5224,7 +5224,7 @@
         <v>580</v>
       </c>
       <c r="AN35" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO35" t="n">
         <v>270</v>
@@ -5257,85 +5257,85 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G36" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="H36" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J36" t="n">
         <v>4.5</v>
       </c>
       <c r="K36" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L36" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="P36" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="R36" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="S36" t="n">
-        <v>2.6</v>
+        <v>2.96</v>
       </c>
       <c r="T36" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="U36" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="V36" t="n">
         <v>1.14</v>
       </c>
       <c r="W36" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="X36" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y36" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z36" t="n">
-        <v>75</v>
+        <v>450</v>
       </c>
       <c r="AA36" t="n">
         <v>240</v>
       </c>
       <c r="AB36" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD36" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AE36" t="n">
-        <v>240</v>
+        <v>510</v>
       </c>
       <c r="AF36" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG36" t="n">
         <v>10.5</v>
@@ -5344,7 +5344,7 @@
         <v>22</v>
       </c>
       <c r="AI36" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="AJ36" t="n">
         <v>15</v>
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="AL36" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AM36" t="n">
         <v>430</v>
       </c>
       <c r="AN36" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AO36" t="n">
         <v>130</v>
@@ -5401,7 +5401,7 @@
         <v>7.4</v>
       </c>
       <c r="I37" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J37" t="n">
         <v>5</v>
@@ -5410,31 +5410,31 @@
         <v>5.3</v>
       </c>
       <c r="L37" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O37" t="n">
         <v>1.2</v>
       </c>
       <c r="P37" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q37" t="n">
         <v>1.63</v>
       </c>
       <c r="R37" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S37" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T37" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U37" t="n">
         <v>2.1</v>
@@ -5479,7 +5479,7 @@
         <v>24</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AJ37" t="n">
         <v>13.5</v>
@@ -5494,7 +5494,7 @@
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G38" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H38" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="I38" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="J38" t="n">
         <v>3.6</v>
@@ -5545,40 +5545,40 @@
         <v>3.85</v>
       </c>
       <c r="L38" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M38" t="n">
         <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="O38" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P38" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="R38" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S38" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T38" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U38" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V38" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W38" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X38" t="n">
         <v>980</v>
@@ -5605,7 +5605,7 @@
         <v>980</v>
       </c>
       <c r="AF38" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AG38" t="n">
         <v>980</v>
@@ -5662,58 +5662,58 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="G39" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="I39" t="n">
         <v>6.4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K39" t="n">
         <v>4.4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O39" t="n">
         <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
       <c r="R39" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="S39" t="n">
-        <v>1.05</v>
+        <v>3.3</v>
       </c>
       <c r="T39" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U39" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V39" t="n">
         <v>1.19</v>
       </c>
       <c r="W39" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X39" t="n">
         <v>980</v>
@@ -5728,7 +5728,7 @@
         <v>190</v>
       </c>
       <c r="AB39" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
         <v>14</v>
@@ -5740,7 +5740,7 @@
         <v>420</v>
       </c>
       <c r="AF39" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AG39" t="n">
         <v>10</v>
@@ -5797,91 +5797,91 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="G40" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="H40" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I40" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J40" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K40" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L40" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O40" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R40" t="n">
         <v>1.33</v>
       </c>
-      <c r="P40" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.32</v>
-      </c>
       <c r="S40" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="T40" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U40" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V40" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W40" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="X40" t="n">
         <v>15</v>
       </c>
       <c r="Y40" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="AA40" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB40" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC40" t="n">
         <v>9.4</v>
       </c>
       <c r="AD40" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE40" t="n">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="AF40" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG40" t="n">
         <v>10.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI40" t="n">
         <v>330</v>
@@ -5893,7 +5893,7 @@
         <v>19.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM40" t="n">
         <v>580</v>
@@ -5902,7 +5902,7 @@
         <v>12</v>
       </c>
       <c r="AO40" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41">
@@ -5935,22 +5935,22 @@
         <v>3.6</v>
       </c>
       <c r="G41" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H41" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I41" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K41" t="n">
         <v>4.1</v>
       </c>
       <c r="L41" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M41" t="n">
         <v>1.04</v>
@@ -5959,49 +5959,49 @@
         <v>5.3</v>
       </c>
       <c r="O41" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P41" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R41" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S41" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="T41" t="n">
         <v>1.58</v>
       </c>
       <c r="U41" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="V41" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W41" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X41" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y41" t="n">
         <v>13.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB41" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD41" t="n">
         <v>10.5</v>
@@ -6034,10 +6034,10 @@
         <v>65</v>
       </c>
       <c r="AN41" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO41" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -6067,112 +6067,112 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I42" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N42" t="n">
         <v>4.3</v>
       </c>
-      <c r="J42" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N42" t="n">
-        <v>4.6</v>
-      </c>
       <c r="O42" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="P42" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="Q42" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T42" t="n">
         <v>1.71</v>
       </c>
-      <c r="R42" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.64</v>
-      </c>
       <c r="U42" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="V42" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="W42" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="X42" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y42" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Z42" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="AA42" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AB42" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD42" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF42" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG42" t="n">
         <v>10.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI42" t="n">
         <v>48</v>
       </c>
       <c r="AJ42" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AK42" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL42" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM42" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AO42" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43">
@@ -6205,34 +6205,34 @@
         <v>1.68</v>
       </c>
       <c r="G43" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H43" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I43" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J43" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K43" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L43" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="M43" t="n">
         <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="O43" t="n">
         <v>1.45</v>
       </c>
       <c r="P43" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q43" t="n">
         <v>2.36</v>
@@ -6244,16 +6244,16 @@
         <v>4.1</v>
       </c>
       <c r="T43" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U43" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V43" t="n">
         <v>1.16</v>
       </c>
       <c r="W43" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6268,7 +6268,7 @@
         <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC43" t="n">
         <v>42</v>
@@ -6280,7 +6280,7 @@
         <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
         <v>1000</v>
@@ -6304,7 +6304,7 @@
         <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6337,109 +6337,109 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="G44" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H44" t="n">
         <v>4.4</v>
       </c>
       <c r="I44" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J44" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K44" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L44" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M44" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N44" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O44" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P44" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="R44" t="n">
         <v>1.26</v>
       </c>
       <c r="S44" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U44" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W44" t="n">
         <v>1.94</v>
       </c>
-      <c r="V44" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1.98</v>
-      </c>
       <c r="X44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y44" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AA44" t="n">
         <v>330</v>
       </c>
       <c r="AB44" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD44" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE44" t="n">
-        <v>85</v>
+        <v>480</v>
       </c>
       <c r="AF44" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG44" t="n">
         <v>11.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI44" t="n">
-        <v>210</v>
+        <v>380</v>
       </c>
       <c r="AJ44" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AK44" t="n">
         <v>25</v>
       </c>
       <c r="AL44" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="AM44" t="n">
         <v>580</v>
       </c>
       <c r="AN44" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6472,76 +6472,76 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="G45" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="H45" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="I45" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="K45" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L45" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="M45" t="n">
         <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>1.1</v>
+        <v>7.6</v>
       </c>
       <c r="O45" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P45" t="n">
         <v>3.55</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="R45" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="S45" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="T45" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="U45" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="V45" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W45" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="X45" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="Y45" t="n">
         <v>110</v>
       </c>
       <c r="Z45" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="AA45" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AB45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC45" t="n">
         <v>16</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>15.5</v>
       </c>
       <c r="AD45" t="n">
         <v>80</v>
@@ -6550,34 +6550,34 @@
         <v>260</v>
       </c>
       <c r="AF45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG45" t="n">
         <v>12</v>
       </c>
       <c r="AH45" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI45" t="n">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="AJ45" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AK45" t="n">
         <v>14</v>
       </c>
       <c r="AL45" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AM45" t="n">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="AN45" t="n">
         <v>4.1</v>
       </c>
       <c r="AO45" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G46" t="n">
         <v>2.58</v>
@@ -6625,34 +6625,34 @@
         <v>3.25</v>
       </c>
       <c r="L46" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="M46" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N46" t="n">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="P46" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.58</v>
+        <v>2.92</v>
       </c>
       <c r="R46" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S46" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="T46" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="U46" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="V46" t="n">
         <v>1.4</v>
@@ -6661,25 +6661,25 @@
         <v>1.63</v>
       </c>
       <c r="X46" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA46" t="n">
         <v>190</v>
       </c>
       <c r="AB46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC46" t="n">
         <v>7.4</v>
       </c>
       <c r="AD46" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE46" t="n">
         <v>130</v>
@@ -6688,19 +6688,19 @@
         <v>15.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI46" t="n">
         <v>200</v>
       </c>
       <c r="AJ46" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AL46" t="n">
         <v>160</v>
@@ -6709,7 +6709,7 @@
         <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6742,61 +6742,61 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G47" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H47" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="I47" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="J47" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K47" t="n">
         <v>4.1</v>
       </c>
       <c r="L47" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M47" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N47" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="O47" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P47" t="n">
         <v>1.64</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R47" t="n">
         <v>1.23</v>
       </c>
       <c r="S47" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T47" t="n">
         <v>2.22</v>
       </c>
       <c r="U47" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V47" t="n">
         <v>2.28</v>
       </c>
       <c r="W47" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X47" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y47" t="n">
         <v>7.8</v>
@@ -6811,40 +6811,40 @@
         <v>20</v>
       </c>
       <c r="AC47" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD47" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AE47" t="n">
         <v>23</v>
       </c>
       <c r="AF47" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG47" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AH47" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AI47" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ47" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AK47" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AL47" t="n">
         <v>170</v>
       </c>
       <c r="AM47" t="n">
-        <v>280</v>
+        <v>580</v>
       </c>
       <c r="AN47" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AO47" t="n">
         <v>24</v>
@@ -6877,91 +6877,91 @@
         </is>
       </c>
       <c r="F48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G48" t="n">
         <v>1.46</v>
       </c>
-      <c r="G48" t="n">
-        <v>1.49</v>
-      </c>
       <c r="H48" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="I48" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="J48" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K48" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L48" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M48" t="n">
         <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O48" t="n">
         <v>1.32</v>
       </c>
       <c r="P48" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R48" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S48" t="n">
         <v>3.35</v>
       </c>
       <c r="T48" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="U48" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V48" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W48" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="X48" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y48" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z48" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AA48" t="n">
-        <v>340</v>
+        <v>470</v>
       </c>
       <c r="AB48" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF48" t="n">
         <v>7.8</v>
       </c>
-      <c r="AC48" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>8</v>
-      </c>
       <c r="AG48" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH48" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI48" t="n">
         <v>160</v>
@@ -6970,19 +6970,19 @@
         <v>12.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL48" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM48" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AN48" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AO48" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49">
@@ -7012,25 +7012,25 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G49" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H49" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="I49" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J49" t="n">
         <v>2.76</v>
       </c>
-      <c r="J49" t="n">
-        <v>2.78</v>
-      </c>
       <c r="K49" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M49" t="n">
         <v>1.01</v>
@@ -7042,7 +7042,7 @@
         <v>1.01</v>
       </c>
       <c r="P49" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="Q49" t="n">
         <v>2.2</v>
@@ -7060,10 +7060,10 @@
         <v>1.03</v>
       </c>
       <c r="V49" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="W49" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X49" t="n">
         <v>11.5</v>
@@ -7078,7 +7078,7 @@
         <v>50</v>
       </c>
       <c r="AB49" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC49" t="n">
         <v>8.6</v>
@@ -7090,7 +7090,7 @@
         <v>42</v>
       </c>
       <c r="AF49" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG49" t="n">
         <v>18</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="G2" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="H2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="R2" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="U2" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="V2" t="n">
         <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -757,7 +757,7 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -802,61 +802,61 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="G3" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="J3" t="n">
-        <v>2.32</v>
+        <v>2.66</v>
       </c>
       <c r="K3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2.7</v>
       </c>
-      <c r="L3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="R3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.08</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.24</v>
-      </c>
       <c r="U3" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="W3" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
         <v>70</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -949,10 +949,10 @@
         <v>2.32</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.38</v>
@@ -961,49 +961,49 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V4" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>28</v>
       </c>
       <c r="Y4" t="n">
         <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA4" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC4" t="n">
         <v>8.800000000000001</v>
@@ -1015,7 +1015,7 @@
         <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1024,22 +1024,22 @@
         <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="AK4" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AL4" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO4" t="n">
         <v>16.5</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G5" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
         <v>5.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="R5" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S5" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="T5" t="n">
         <v>1.76</v>
       </c>
       <c r="U5" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="V5" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1162,7 +1162,7 @@
         <v>400</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
         <v>70</v>
@@ -1174,7 +1174,7 @@
         <v>470</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G6" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
         <v>1.47</v>
@@ -1231,10 +1231,10 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
         <v>1.79</v>
@@ -1246,19 +1246,19 @@
         <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="U6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="X6" t="n">
         <v>26</v>
@@ -1273,7 +1273,7 @@
         <v>530</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC6" t="n">
         <v>8</v>
@@ -1285,13 +1285,13 @@
         <v>250</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AG6" t="n">
         <v>40</v>
       </c>
       <c r="AH6" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
         <v>380</v>
@@ -1300,7 +1300,7 @@
         <v>160</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AL6" t="n">
         <v>980</v>
@@ -1309,10 +1309,10 @@
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO6" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G7" t="n">
         <v>2.8</v>
@@ -1351,7 +1351,7 @@
         <v>2.78</v>
       </c>
       <c r="I7" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
@@ -1366,19 +1366,19 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
         <v>1.97</v>
       </c>
       <c r="R7" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
         <v>3.5</v>
@@ -1387,10 +1387,10 @@
         <v>1.76</v>
       </c>
       <c r="U7" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W7" t="n">
         <v>1.55</v>
@@ -1405,7 +1405,7 @@
         <v>18.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB7" t="n">
         <v>11.5</v>
@@ -1414,7 +1414,7 @@
         <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE7" t="n">
         <v>30</v>
@@ -1426,7 +1426,7 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI7" t="n">
         <v>42</v>
@@ -1447,7 +1447,7 @@
         <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -1504,19 +1504,19 @@
         <v>5.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R8" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S8" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T8" t="n">
         <v>1.66</v>
@@ -1540,16 +1540,16 @@
         <v>46</v>
       </c>
       <c r="AA8" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
         <v>60</v>
@@ -1558,10 +1558,10 @@
         <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>55</v>
@@ -1573,16 +1573,16 @@
         <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM8" t="n">
         <v>75</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO8" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="G9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I9" t="n">
         <v>1.74</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.76</v>
       </c>
       <c r="J9" t="n">
         <v>4.1</v>
@@ -1630,7 +1630,7 @@
         <v>4.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
@@ -1645,7 +1645,7 @@
         <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
         <v>1.41</v>
@@ -1654,16 +1654,16 @@
         <v>3.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="W9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X9" t="n">
         <v>16.5</v>
@@ -1672,10 +1672,10 @@
         <v>8.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
         <v>19</v>
@@ -1690,10 +1690,10 @@
         <v>17.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
         <v>20</v>
@@ -1705,7 +1705,7 @@
         <v>140</v>
       </c>
       <c r="AK9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="n">
         <v>75</v>
@@ -1714,7 +1714,7 @@
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AO9" t="n">
         <v>10.5</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G10" t="n">
         <v>2.88</v>
@@ -1756,22 +1756,22 @@
         <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.55</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O10" t="n">
         <v>1.32</v>
@@ -1783,25 +1783,25 @@
         <v>1.98</v>
       </c>
       <c r="R10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T10" t="n">
         <v>1.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V10" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W10" t="n">
         <v>1.53</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
         <v>11.5</v>
@@ -1810,13 +1810,13 @@
         <v>17.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="n">
         <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
         <v>12</v>
@@ -1840,13 +1840,13 @@
         <v>44</v>
       </c>
       <c r="AK10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL10" t="n">
         <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
         <v>26</v>
@@ -1891,7 +1891,7 @@
         <v>6.2</v>
       </c>
       <c r="I11" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J11" t="n">
         <v>4.6</v>
@@ -1900,34 +1900,34 @@
         <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R11" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="S11" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="T11" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V11" t="n">
         <v>1.18</v>
@@ -1936,7 +1936,7 @@
         <v>2.66</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
         <v>25</v>
@@ -1948,7 +1948,7 @@
         <v>170</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC11" t="n">
         <v>10.5</v>
@@ -1966,28 +1966,28 @@
         <v>9.4</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="n">
         <v>14.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL11" t="n">
         <v>30</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H12" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.66</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.7</v>
       </c>
       <c r="J12" t="n">
         <v>3.5</v>
@@ -2047,10 +2047,10 @@
         <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
         <v>1.33</v>
@@ -2062,10 +2062,10 @@
         <v>1.84</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W12" t="n">
         <v>1.51</v>
@@ -2101,7 +2101,7 @@
         <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
         <v>44</v>
@@ -2116,13 +2116,13 @@
         <v>48</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
         <v>32</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>2.12</v>
       </c>
       <c r="G13" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
@@ -2167,16 +2167,16 @@
         <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
@@ -2197,25 +2197,25 @@
         <v>1.61</v>
       </c>
       <c r="U13" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V13" t="n">
         <v>1.37</v>
       </c>
       <c r="W13" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z13" t="n">
         <v>28</v>
       </c>
       <c r="AA13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB13" t="n">
         <v>13</v>
@@ -2239,10 +2239,10 @@
         <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
         <v>19</v>
@@ -2254,10 +2254,10 @@
         <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H14" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
@@ -2311,40 +2311,40 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S14" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T14" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U14" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="V14" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W14" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X14" t="n">
         <v>19</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
         <v>16.5</v>
@@ -2353,31 +2353,31 @@
         <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC14" t="n">
         <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
         <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI14" t="n">
         <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK14" t="n">
         <v>32</v>
@@ -2386,13 +2386,13 @@
         <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="G15" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="I15" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="J15" t="n">
         <v>4.2</v>
@@ -2443,52 +2443,52 @@
         <v>1.37</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R15" t="n">
         <v>1.47</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="V15" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="W15" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="X15" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z15" t="n">
         <v>10.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC15" t="n">
         <v>9.4</v>
@@ -2497,13 +2497,13 @@
         <v>9.6</v>
       </c>
       <c r="AE15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH15" t="n">
         <v>19</v>
@@ -2512,22 +2512,22 @@
         <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM15" t="n">
         <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="H16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.75</v>
       </c>
       <c r="J16" t="n">
         <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L16" t="n">
         <v>1.47</v>
@@ -2587,7 +2587,7 @@
         <v>1.39</v>
       </c>
       <c r="P16" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q16" t="n">
         <v>2.18</v>
@@ -2596,31 +2596,31 @@
         <v>1.3</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U16" t="n">
         <v>2.02</v>
       </c>
       <c r="V16" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="X16" t="n">
         <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z16" t="n">
         <v>25</v>
       </c>
       <c r="AA16" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="n">
         <v>9</v>
@@ -2635,7 +2635,7 @@
         <v>48</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
         <v>11.5</v>
@@ -2650,10 +2650,10 @@
         <v>32</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM16" t="n">
         <v>120</v>
@@ -2662,7 +2662,7 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="G17" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
         <v>3.75</v>
@@ -2719,16 +2719,16 @@
         <v>4.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R17" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S17" t="n">
         <v>3.05</v>
@@ -2737,16 +2737,16 @@
         <v>1.65</v>
       </c>
       <c r="U17" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V17" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="W17" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="X17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y17" t="n">
         <v>14.5</v>
@@ -2755,19 +2755,19 @@
         <v>23</v>
       </c>
       <c r="AA17" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
         <v>8.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AF17" t="n">
         <v>17</v>
@@ -2782,22 +2782,22 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AK17" t="n">
         <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
         <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AO17" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -2827,109 +2827,109 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G18" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
         <v>3.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O18" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q18" t="n">
         <v>2.06</v>
       </c>
       <c r="R18" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S18" t="n">
         <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W18" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="X18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Z18" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="AA18" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="AB18" t="n">
-        <v>16.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC18" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="n">
         <v>55</v>
       </c>
       <c r="AF18" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
         <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AM18" t="n">
         <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
         <v>60</v>
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="G19" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="H19" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="I19" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K19" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P19" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R19" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="S19" t="n">
         <v>3.35</v>
       </c>
       <c r="T19" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="U19" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="V19" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W19" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD19" t="n">
         <v>29</v>
       </c>
-      <c r="Z19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>430</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>34</v>
-      </c>
       <c r="AE19" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AF19" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AG19" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH19" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL19" t="n">
         <v>42</v>
       </c>
       <c r="AM19" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AO19" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="G20" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="H20" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="I20" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="K20" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
         <v>1.22</v>
@@ -3121,79 +3121,79 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.12</v>
       </c>
       <c r="P20" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.96</v>
       </c>
-      <c r="S20" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>1.92</v>
       </c>
-      <c r="U20" t="n">
-        <v>1.88</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X20" t="n">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="Y20" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Z20" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AD20" t="n">
         <v>400</v>
       </c>
       <c r="AE20" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="AI20" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK20" t="n">
         <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="n">
         <v>170</v>
@@ -3202,7 +3202,7 @@
         <v>3.2</v>
       </c>
       <c r="AO20" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G21" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H21" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L21" t="n">
         <v>1.48</v>
@@ -3262,82 +3262,82 @@
         <v>1.37</v>
       </c>
       <c r="P21" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q21" t="n">
         <v>2.12</v>
       </c>
       <c r="R21" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="U21" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="V21" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X21" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB21" t="n">
-        <v>16.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG21" t="n">
         <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="AO21" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -3367,34 +3367,34 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.95</v>
-      </c>
-      <c r="G22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.1</v>
       </c>
       <c r="L22" t="n">
         <v>1.35</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P22" t="n">
         <v>2.22</v>
@@ -3403,7 +3403,7 @@
         <v>1.77</v>
       </c>
       <c r="R22" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S22" t="n">
         <v>2.94</v>
@@ -3412,28 +3412,28 @@
         <v>1.69</v>
       </c>
       <c r="U22" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="W22" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AB22" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC22" t="n">
         <v>8.800000000000001</v>
@@ -3442,37 +3442,37 @@
         <v>10.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AF22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AH22" t="n">
         <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ22" t="n">
         <v>200</v>
       </c>
       <c r="AK22" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM22" t="n">
         <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AO22" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="23">
@@ -3502,109 +3502,109 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G23" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="H23" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="I23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>8</v>
+      </c>
+      <c r="K23" t="n">
+        <v>9</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W23" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
         <v>25</v>
       </c>
-      <c r="J23" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N23" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X23" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>270</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>980</v>
-      </c>
       <c r="AC23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AG23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>27</v>
+        <v>8.6</v>
       </c>
       <c r="AK23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3643,16 +3643,16 @@
         <v>1.18</v>
       </c>
       <c r="H24" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I24" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J24" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L24" t="n">
         <v>1.27</v>
@@ -3661,28 +3661,28 @@
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="Q24" t="n">
         <v>1.56</v>
       </c>
       <c r="R24" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="S24" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T24" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="U24" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V24" t="n">
         <v>1.03</v>
@@ -3691,7 +3691,7 @@
         <v>6.4</v>
       </c>
       <c r="X24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y24" t="n">
         <v>1000</v>
@@ -3703,10 +3703,10 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3721,25 +3721,25 @@
         <v>14</v>
       </c>
       <c r="AH24" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AK24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,49 +3772,49 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="G25" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="H25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I25" t="n">
         <v>4.9</v>
       </c>
-      <c r="I25" t="n">
-        <v>5</v>
-      </c>
       <c r="J25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O25" t="n">
         <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T25" t="n">
         <v>1.69</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.7</v>
       </c>
       <c r="U25" t="n">
         <v>2.34</v>
@@ -3823,13 +3823,13 @@
         <v>1.25</v>
       </c>
       <c r="W25" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X25" t="n">
         <v>22</v>
       </c>
       <c r="Y25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z25" t="n">
         <v>40</v>
@@ -3847,13 +3847,13 @@
         <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF25" t="n">
         <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH25" t="n">
         <v>17</v>
@@ -3874,7 +3874,7 @@
         <v>75</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO25" t="n">
         <v>46</v>
@@ -3907,37 +3907,37 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="G26" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="H26" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J26" t="n">
         <v>4.1</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O26" t="n">
         <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q26" t="n">
         <v>1.81</v>
@@ -3949,55 +3949,55 @@
         <v>3.05</v>
       </c>
       <c r="T26" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U26" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V26" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W26" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="X26" t="n">
         <v>17</v>
       </c>
       <c r="Y26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD26" t="n">
         <v>19</v>
       </c>
-      <c r="Z26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>18</v>
-      </c>
       <c r="AE26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
         <v>9.6</v>
       </c>
       <c r="AH26" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK26" t="n">
         <v>17.5</v>
@@ -4006,13 +4006,13 @@
         <v>32</v>
       </c>
       <c r="AM26" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO26" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -4042,88 +4042,88 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="G27" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="H27" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.7</v>
       </c>
-      <c r="I27" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L27" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="R27" t="n">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="S27" t="n">
-        <v>2.92</v>
+        <v>2.62</v>
       </c>
       <c r="T27" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="U27" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="V27" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W27" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="X27" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z27" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA27" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB27" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD27" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF27" t="n">
         <v>12</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AH27" t="n">
         <v>18</v>
@@ -4132,19 +4132,19 @@
         <v>55</v>
       </c>
       <c r="AJ27" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM27" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="n">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="AO27" t="n">
         <v>50</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="G28" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="H28" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="I28" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L28" t="n">
         <v>1.43</v>
@@ -4204,10 +4204,10 @@
         <v>3.85</v>
       </c>
       <c r="O28" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P28" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q28" t="n">
         <v>2</v>
@@ -4219,46 +4219,46 @@
         <v>3.55</v>
       </c>
       <c r="T28" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V28" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="W28" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X28" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z28" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD28" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>9.6</v>
       </c>
       <c r="AE28" t="n">
         <v>18</v>
       </c>
       <c r="AF28" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AG28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH28" t="n">
         <v>22</v>
@@ -4267,22 +4267,22 @@
         <v>36</v>
       </c>
       <c r="AJ28" t="n">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="AK28" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AL28" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM28" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN28" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AO28" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="29">
@@ -4312,25 +4312,25 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G29" t="n">
         <v>1.23</v>
       </c>
-      <c r="G29" t="n">
-        <v>1.24</v>
-      </c>
       <c r="H29" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="I29" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J29" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="K29" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="L29" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
@@ -4342,34 +4342,34 @@
         <v>1.17</v>
       </c>
       <c r="P29" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q29" t="n">
         <v>1.54</v>
       </c>
       <c r="R29" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S29" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="T29" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="U29" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="V29" t="n">
         <v>1.06</v>
       </c>
       <c r="W29" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="X29" t="n">
         <v>34</v>
       </c>
       <c r="Y29" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z29" t="n">
         <v>1000</v>
@@ -4381,13 +4381,13 @@
         <v>10</v>
       </c>
       <c r="AC29" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AF29" t="n">
         <v>8</v>
@@ -4408,16 +4408,16 @@
         <v>14</v>
       </c>
       <c r="AL29" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30">
@@ -4447,76 +4447,76 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G30" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H30" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I30" t="n">
         <v>2.32</v>
       </c>
       <c r="J30" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K30" t="n">
         <v>3.7</v>
       </c>
-      <c r="K30" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L30" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P30" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="R30" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S30" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T30" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="U30" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="V30" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="W30" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X30" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA30" t="n">
         <v>30</v>
       </c>
       <c r="AB30" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="n">
         <v>11</v>
@@ -4531,7 +4531,7 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI30" t="n">
         <v>34</v>
@@ -4540,19 +4540,19 @@
         <v>60</v>
       </c>
       <c r="AK30" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM30" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO30" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="31">
@@ -4588,10 +4588,10 @@
         <v>1.68</v>
       </c>
       <c r="H31" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J31" t="n">
         <v>4.2</v>
@@ -4600,7 +4600,7 @@
         <v>4.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
@@ -4609,16 +4609,16 @@
         <v>4.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q31" t="n">
         <v>1.9</v>
       </c>
       <c r="R31" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S31" t="n">
         <v>3.3</v>
@@ -4636,7 +4636,7 @@
         <v>2.46</v>
       </c>
       <c r="X31" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y31" t="n">
         <v>20</v>
@@ -4648,19 +4648,19 @@
         <v>160</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC31" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF31" t="n">
         <v>9.4</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>9.6</v>
       </c>
       <c r="AG31" t="n">
         <v>9.800000000000001</v>
@@ -4678,16 +4678,16 @@
         <v>17</v>
       </c>
       <c r="AL31" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM31" t="n">
         <v>120</v>
       </c>
       <c r="AN31" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO31" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G32" t="n">
         <v>1.77</v>
       </c>
-      <c r="G32" t="n">
-        <v>1.78</v>
-      </c>
       <c r="H32" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I32" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
         <v>4.3</v>
@@ -4741,7 +4741,7 @@
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O32" t="n">
         <v>1.24</v>
@@ -4750,16 +4750,16 @@
         <v>2.34</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R32" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S32" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T32" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U32" t="n">
         <v>2.3</v>
@@ -4771,7 +4771,7 @@
         <v>2.28</v>
       </c>
       <c r="X32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y32" t="n">
         <v>21</v>
@@ -4783,7 +4783,7 @@
         <v>110</v>
       </c>
       <c r="AB32" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC32" t="n">
         <v>9.6</v>
@@ -4792,10 +4792,10 @@
         <v>18.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF32" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG32" t="n">
         <v>9.6</v>
@@ -4807,7 +4807,7 @@
         <v>55</v>
       </c>
       <c r="AJ32" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK32" t="n">
         <v>16.5</v>
@@ -4819,7 +4819,7 @@
         <v>80</v>
       </c>
       <c r="AN32" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO32" t="n">
         <v>50</v>
@@ -4852,61 +4852,61 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="G33" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="H33" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I33" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J33" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K33" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O33" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P33" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="R33" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S33" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="T33" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="U33" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="V33" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W33" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="X33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y33" t="n">
         <v>34</v>
@@ -4915,31 +4915,31 @@
         <v>90</v>
       </c>
       <c r="AA33" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC33" t="n">
         <v>12</v>
       </c>
       <c r="AD33" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE33" t="n">
         <v>150</v>
       </c>
       <c r="AF33" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG33" t="n">
         <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI33" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ33" t="n">
         <v>11.5</v>
@@ -4951,13 +4951,13 @@
         <v>34</v>
       </c>
       <c r="AM33" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN33" t="n">
         <v>5.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34">
@@ -4987,112 +4987,112 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H34" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="I34" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="J34" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="K34" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="P34" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="R34" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="S34" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="T34" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U34" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V34" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="X34" t="n">
-        <v>90</v>
+        <v>17.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>18</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z34" t="n">
-        <v>19.5</v>
+        <v>7.8</v>
       </c>
       <c r="AA34" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="AD34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AG34" t="n">
         <v>980</v>
       </c>
       <c r="AH34" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI34" t="n">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="AJ34" t="n">
         <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AL34" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AM34" t="n">
-        <v>470</v>
+        <v>190</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AO34" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -5122,109 +5122,109 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="G35" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="H35" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="I35" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K35" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L35" t="n">
         <v>1.44</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
         <v>3.6</v>
       </c>
       <c r="O35" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P35" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R35" t="n">
         <v>1.33</v>
       </c>
       <c r="S35" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="T35" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U35" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="V35" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W35" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="X35" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="Z35" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AA35" t="n">
         <v>330</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC35" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE35" t="n">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="AF35" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH35" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="AI35" t="n">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="AJ35" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AK35" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="AL35" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AM35" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN35" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AO35" t="n">
         <v>270</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G36" t="n">
         <v>1.52</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.53</v>
       </c>
       <c r="H36" t="n">
         <v>7.6</v>
@@ -5269,100 +5269,100 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K36" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P36" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="R36" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="S36" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="T36" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U36" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V36" t="n">
         <v>1.14</v>
       </c>
       <c r="W36" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X36" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Y36" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="Z36" t="n">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="AA36" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC36" t="n">
         <v>11</v>
       </c>
       <c r="AD36" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="AE36" t="n">
-        <v>510</v>
+        <v>110</v>
       </c>
       <c r="AF36" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG36" t="n">
         <v>10</v>
       </c>
-      <c r="AG36" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH36" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI36" t="n">
-        <v>400</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM36" t="n">
-        <v>430</v>
+        <v>120</v>
       </c>
       <c r="AN36" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO36" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H37" t="n">
         <v>7.4</v>
@@ -5404,82 +5404,82 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J37" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K37" t="n">
         <v>5</v>
-      </c>
-      <c r="K37" t="n">
-        <v>5.3</v>
       </c>
       <c r="L37" t="n">
         <v>1.31</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P37" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="R37" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="S37" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="T37" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U37" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V37" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W37" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X37" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y37" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="Z37" t="n">
         <v>450</v>
       </c>
       <c r="AA37" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AB37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC37" t="n">
         <v>11</v>
       </c>
-      <c r="AC37" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AD37" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AE37" t="n">
         <v>510</v>
       </c>
       <c r="AF37" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG37" t="n">
         <v>9.6</v>
       </c>
       <c r="AH37" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI37" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="AJ37" t="n">
         <v>13.5</v>
@@ -5488,16 +5488,16 @@
         <v>15</v>
       </c>
       <c r="AL37" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G38" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H38" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="I38" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="J38" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K38" t="n">
         <v>3.85</v>
@@ -5551,40 +5551,40 @@
         <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O38" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P38" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="Q38" t="n">
         <v>1.93</v>
       </c>
       <c r="R38" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S38" t="n">
         <v>3.35</v>
       </c>
       <c r="T38" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U38" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V38" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W38" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X38" t="n">
         <v>980</v>
       </c>
       <c r="Y38" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Z38" t="n">
         <v>980</v>
@@ -5596,22 +5596,22 @@
         <v>980</v>
       </c>
       <c r="AC38" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AE38" t="n">
         <v>980</v>
       </c>
       <c r="AF38" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AG38" t="n">
         <v>980</v>
       </c>
       <c r="AH38" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AI38" t="n">
         <v>980</v>
@@ -5620,7 +5620,7 @@
         <v>310</v>
       </c>
       <c r="AK38" t="n">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="AL38" t="n">
         <v>330</v>
@@ -5629,7 +5629,7 @@
         <v>580</v>
       </c>
       <c r="AN38" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="AO38" t="n">
         <v>55</v>
@@ -5662,112 +5662,112 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="H39" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="J39" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="K39" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L39" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="O39" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P39" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R39" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S39" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T39" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="U39" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="V39" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="W39" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="X39" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="Z39" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="AA39" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="AB39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH39" t="n">
         <v>21</v>
       </c>
-      <c r="AC39" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>420</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>980</v>
-      </c>
       <c r="AI39" t="n">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="AJ39" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AK39" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AL39" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM39" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN39" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G40" t="n">
         <v>1.73</v>
@@ -5806,82 +5806,82 @@
         <v>5.8</v>
       </c>
       <c r="I40" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J40" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K40" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L40" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="O40" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P40" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R40" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S40" t="n">
         <v>3.75</v>
       </c>
       <c r="T40" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="U40" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V40" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W40" t="n">
         <v>2.36</v>
       </c>
       <c r="X40" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z40" t="n">
-        <v>350</v>
+        <v>55</v>
       </c>
       <c r="AA40" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB40" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE40" t="n">
         <v>420</v>
       </c>
       <c r="AF40" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG40" t="n">
         <v>10.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AI40" t="n">
         <v>330</v>
@@ -5890,19 +5890,19 @@
         <v>18</v>
       </c>
       <c r="AK40" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL40" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM40" t="n">
         <v>580</v>
       </c>
       <c r="AN40" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G41" t="n">
         <v>3.8</v>
@@ -5944,73 +5944,73 @@
         <v>2.1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K41" t="n">
         <v>4.1</v>
       </c>
       <c r="L41" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M41" t="n">
         <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P41" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R41" t="n">
         <v>1.6</v>
       </c>
       <c r="S41" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="T41" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="U41" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="V41" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W41" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X41" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y41" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z41" t="n">
         <v>15.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB41" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC41" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD41" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE41" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF41" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG41" t="n">
         <v>15.5</v>
@@ -6019,13 +6019,13 @@
         <v>15.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ41" t="n">
         <v>70</v>
       </c>
       <c r="AK41" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL41" t="n">
         <v>40</v>
@@ -6034,10 +6034,10 @@
         <v>65</v>
       </c>
       <c r="AN41" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO41" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="42">
@@ -6073,10 +6073,10 @@
         <v>2.16</v>
       </c>
       <c r="H42" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I42" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J42" t="n">
         <v>3.75</v>
@@ -6085,94 +6085,94 @@
         <v>3.85</v>
       </c>
       <c r="L42" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M42" t="n">
         <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="O42" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P42" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R42" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S42" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="T42" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="U42" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="V42" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W42" t="n">
         <v>1.86</v>
       </c>
       <c r="X42" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y42" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA42" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AB42" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD42" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE42" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF42" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG42" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH42" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI42" t="n">
         <v>48</v>
       </c>
       <c r="AJ42" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AK42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL42" t="n">
         <v>34</v>
       </c>
       <c r="AM42" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AN42" t="n">
         <v>14</v>
       </c>
       <c r="AO42" t="n">
-        <v>36</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43">
@@ -6208,10 +6208,10 @@
         <v>1.82</v>
       </c>
       <c r="H43" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I43" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="J43" t="n">
         <v>3.4</v>
@@ -6226,10 +6226,10 @@
         <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="O43" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P43" t="n">
         <v>1.6</v>
@@ -6241,10 +6241,10 @@
         <v>1.22</v>
       </c>
       <c r="S43" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T43" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U43" t="n">
         <v>1.68</v>
@@ -6268,7 +6268,7 @@
         <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC43" t="n">
         <v>42</v>
@@ -6337,112 +6337,112 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G44" t="n">
         <v>2.02</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2.06</v>
       </c>
       <c r="H44" t="n">
         <v>4.4</v>
       </c>
       <c r="I44" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K44" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L44" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="M44" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O44" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="P44" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="R44" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S44" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="T44" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U44" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V44" t="n">
         <v>1.27</v>
       </c>
       <c r="W44" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X44" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="AA44" t="n">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="AB44" t="n">
         <v>7.8</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD44" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>480</v>
+        <v>70</v>
       </c>
       <c r="AF44" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG44" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH44" t="n">
         <v>22</v>
       </c>
       <c r="AI44" t="n">
-        <v>380</v>
+        <v>85</v>
       </c>
       <c r="AJ44" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AK44" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL44" t="n">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AM44" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN44" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
@@ -6472,25 +6472,25 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="G45" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="H45" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="I45" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="J45" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="K45" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L45" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M45" t="n">
         <v>1.02</v>
@@ -6505,31 +6505,31 @@
         <v>3.55</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="R45" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="S45" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="T45" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="U45" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V45" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="W45" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
       </c>
       <c r="Y45" t="n">
-        <v>110</v>
+        <v>470</v>
       </c>
       <c r="Z45" t="n">
         <v>190</v>
@@ -6541,7 +6541,7 @@
         <v>17</v>
       </c>
       <c r="AC45" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD45" t="n">
         <v>80</v>
@@ -6553,31 +6553,31 @@
         <v>14</v>
       </c>
       <c r="AG45" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH45" t="n">
         <v>20</v>
       </c>
       <c r="AI45" t="n">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="AJ45" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK45" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL45" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AM45" t="n">
         <v>65</v>
       </c>
       <c r="AN45" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
@@ -6607,64 +6607,64 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="G46" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H46" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I46" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J46" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K46" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L46" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="M46" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N46" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="O46" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P46" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="R46" t="n">
         <v>1.18</v>
       </c>
       <c r="S46" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="T46" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="U46" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="V46" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W46" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X46" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z46" t="n">
         <v>23</v>
@@ -6673,31 +6673,31 @@
         <v>190</v>
       </c>
       <c r="AB46" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD46" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AF46" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG46" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH46" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI46" t="n">
         <v>200</v>
       </c>
       <c r="AJ46" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK46" t="n">
         <v>95</v>
@@ -6709,10 +6709,10 @@
         <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
@@ -6742,58 +6742,58 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="G47" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="H47" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="I47" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="J47" t="n">
         <v>3.65</v>
       </c>
       <c r="K47" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M47" t="n">
         <v>1.1</v>
       </c>
       <c r="N47" t="n">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="O47" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P47" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R47" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S47" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="T47" t="n">
         <v>2.22</v>
       </c>
       <c r="U47" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V47" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="W47" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="X47" t="n">
         <v>11</v>
@@ -6802,52 +6802,52 @@
         <v>7.8</v>
       </c>
       <c r="Z47" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA47" t="n">
         <v>19.5</v>
       </c>
-      <c r="AA47" t="n">
-        <v>60</v>
-      </c>
       <c r="AB47" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD47" t="n">
         <v>11</v>
       </c>
       <c r="AE47" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF47" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AG47" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AH47" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI47" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ47" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AK47" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="AL47" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AM47" t="n">
         <v>580</v>
       </c>
       <c r="AN47" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="48">
@@ -6877,79 +6877,79 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="G48" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H48" t="n">
+        <v>9</v>
+      </c>
+      <c r="I48" t="n">
         <v>9.6</v>
       </c>
-      <c r="I48" t="n">
-        <v>10.5</v>
-      </c>
       <c r="J48" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K48" t="n">
         <v>4.8</v>
       </c>
-      <c r="K48" t="n">
-        <v>5</v>
-      </c>
       <c r="L48" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M48" t="n">
         <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="O48" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P48" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="R48" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="S48" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T48" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U48" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V48" t="n">
         <v>1.11</v>
       </c>
       <c r="W48" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="X48" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z48" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="n">
         <v>470</v>
       </c>
       <c r="AB48" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC48" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE48" t="n">
         <v>170</v>
@@ -6964,22 +6964,22 @@
         <v>30</v>
       </c>
       <c r="AI48" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ48" t="n">
         <v>12.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL48" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM48" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN48" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AO48" t="n">
         <v>250</v>
@@ -7012,52 +7012,52 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G49" t="n">
         <v>3.55</v>
       </c>
       <c r="H49" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="I49" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J49" t="n">
-        <v>2.76</v>
+        <v>2.92</v>
       </c>
       <c r="K49" t="n">
         <v>3.35</v>
       </c>
       <c r="L49" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M49" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O49" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="P49" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="R49" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="S49" t="n">
-        <v>2.2</v>
+        <v>3.45</v>
       </c>
       <c r="T49" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="U49" t="n">
-        <v>1.03</v>
+        <v>1.84</v>
       </c>
       <c r="V49" t="n">
         <v>1.55</v>
@@ -7066,13 +7066,13 @@
         <v>1.39</v>
       </c>
       <c r="X49" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y49" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z49" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AA49" t="n">
         <v>50</v>
@@ -7081,10 +7081,10 @@
         <v>12</v>
       </c>
       <c r="AC49" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE49" t="n">
         <v>42</v>
@@ -7093,10 +7093,10 @@
         <v>26</v>
       </c>
       <c r="AG49" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI49" t="n">
         <v>70</v>
@@ -7108,13 +7108,13 @@
         <v>60</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM49" t="n">
         <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
         <v>44</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO49"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,10 +670,10 @@
         <v>1.16</v>
       </c>
       <c r="G2" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I2" t="n">
         <v>40</v>
@@ -682,46 +682,46 @@
         <v>8.199999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="V2" t="n">
         <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -757,10 +757,10 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>4.9</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,88 +802,88 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.62</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.96</v>
       </c>
-      <c r="J3" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.8</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="N3" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="P3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="R3" t="n">
         <v>1.17</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="T3" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V3" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>7.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -937,118 +937,118 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="G4" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="H4" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
         <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="W4" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="X4" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC4" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ4" t="n">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="AK4" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AL4" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AO4" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Flora Tallinn II</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Nomme Utd</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.49</v>
+        <v>6.2</v>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>8.4</v>
       </c>
       <c r="H5" t="n">
-        <v>6.6</v>
+        <v>1.36</v>
       </c>
       <c r="I5" t="n">
-        <v>7.8</v>
+        <v>1.48</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>7.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>3.95</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.63</v>
+        <v>1.23</v>
       </c>
       <c r="R5" t="n">
-        <v>1.55</v>
+        <v>2.24</v>
       </c>
       <c r="S5" t="n">
-        <v>2.62</v>
+        <v>1.58</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="U5" t="n">
-        <v>2.12</v>
+        <v>2.66</v>
       </c>
       <c r="V5" t="n">
-        <v>1.15</v>
+        <v>3.1</v>
       </c>
       <c r="W5" t="n">
-        <v>2.88</v>
+        <v>1.13</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA5" t="n">
-        <v>250</v>
+        <v>18.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>170</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>510</v>
+        <v>15.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>400</v>
+        <v>24</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>470</v>
+        <v>65</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.6</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="6">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.16</v>
+        <v>1.58</v>
       </c>
       <c r="G6" t="n">
-        <v>2.24</v>
+        <v>1.61</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>6.4</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="L6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.47</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.29</v>
-      </c>
       <c r="S6" t="n">
-        <v>3.95</v>
+        <v>2.94</v>
       </c>
       <c r="T6" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>1.81</v>
+        <v>2.6</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>450</v>
       </c>
       <c r="AA6" t="n">
-        <v>530</v>
+        <v>240</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>250</v>
+        <v>510</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="AJ6" t="n">
-        <v>160</v>
+        <v>15.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.74</v>
+        <v>2.3</v>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
       <c r="H7" t="n">
-        <v>2.78</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.88</v>
+        <v>3.65</v>
       </c>
       <c r="J7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
         <v>3.5</v>
       </c>
-      <c r="K7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S7" t="n">
         <v>3.9</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.37</v>
       </c>
-      <c r="S7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AA7" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC7" t="n">
         <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AF7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.67</v>
+        <v>2.74</v>
       </c>
       <c r="G8" t="n">
-        <v>1.68</v>
+        <v>2.78</v>
       </c>
       <c r="H8" t="n">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="I8" t="n">
-        <v>5.6</v>
+        <v>2.84</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>5.7</v>
+        <v>3.95</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.59</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.64</v>
+        <v>1.38</v>
       </c>
       <c r="S8" t="n">
-        <v>2.5</v>
+        <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="V8" t="n">
-        <v>1.21</v>
+        <v>1.54</v>
       </c>
       <c r="W8" t="n">
-        <v>2.46</v>
+        <v>1.56</v>
       </c>
       <c r="X8" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="AB8" t="n">
         <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG8" t="n">
         <v>12</v>
       </c>
-      <c r="AG8" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN8" t="n">
         <v>25</v>
       </c>
-      <c r="AM8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AO8" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.5</v>
+        <v>1.67</v>
       </c>
       <c r="G9" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I9" t="n">
         <v>5.6</v>
       </c>
-      <c r="H9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.74</v>
-      </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>2.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="S9" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.89</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>2.44</v>
       </c>
       <c r="V9" t="n">
-        <v>2.34</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>1.21</v>
+        <v>2.46</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.6</v>
+        <v>27</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.800000000000001</v>
+        <v>46</v>
       </c>
       <c r="AA9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH9" t="n">
         <v>17</v>
       </c>
-      <c r="AB9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>20</v>
-      </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM9" t="n">
         <v>75</v>
       </c>
-      <c r="AL9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>110</v>
-      </c>
       <c r="AN9" t="n">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>10.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.84</v>
+        <v>5.8</v>
       </c>
       <c r="G10" t="n">
-        <v>2.88</v>
+        <v>5.9</v>
       </c>
       <c r="H10" t="n">
-        <v>2.7</v>
+        <v>1.68</v>
       </c>
       <c r="I10" t="n">
-        <v>2.76</v>
+        <v>1.69</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="R10" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S10" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="U10" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.57</v>
+        <v>2.46</v>
       </c>
       <c r="W10" t="n">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.5</v>
+        <v>9.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE10" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>18.5</v>
+        <v>44</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AK10" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.59</v>
+        <v>2.78</v>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>2.82</v>
       </c>
       <c r="H11" t="n">
-        <v>6.2</v>
+        <v>2.76</v>
       </c>
       <c r="I11" t="n">
-        <v>6.6</v>
+        <v>2.78</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="P11" t="n">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.56</v>
       </c>
-      <c r="S11" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.18</v>
-      </c>
       <c r="W11" t="n">
-        <v>2.66</v>
+        <v>1.54</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AF11" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14.5</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.92</v>
+        <v>1.58</v>
       </c>
       <c r="G12" t="n">
-        <v>2.96</v>
+        <v>1.59</v>
       </c>
       <c r="H12" t="n">
-        <v>2.64</v>
+        <v>6.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.66</v>
+        <v>6.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>1.87</v>
+        <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>1.68</v>
       </c>
       <c r="R12" t="n">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="S12" t="n">
-        <v>3.8</v>
+        <v>2.72</v>
       </c>
       <c r="T12" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
-        <v>1.6</v>
+        <v>1.17</v>
       </c>
       <c r="W12" t="n">
-        <v>1.51</v>
+        <v>2.68</v>
       </c>
       <c r="X12" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB12" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AE12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL12" t="n">
         <v>30</v>
       </c>
-      <c r="AF12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>48</v>
-      </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="n">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.12</v>
+        <v>2.96</v>
       </c>
       <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.14</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.58</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.37</v>
+        <v>1.59</v>
       </c>
       <c r="W13" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH13" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>15</v>
-      </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
-        <v>11.5</v>
+        <v>34</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>2.06</v>
       </c>
       <c r="G14" t="n">
-        <v>3.15</v>
+        <v>2.08</v>
       </c>
       <c r="H14" t="n">
-        <v>2.4</v>
+        <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>2.42</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="T14" t="n">
         <v>1.63</v>
       </c>
       <c r="U14" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="V14" t="n">
-        <v>1.7</v>
+        <v>1.34</v>
       </c>
       <c r="W14" t="n">
-        <v>1.47</v>
+        <v>1.92</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
         <v>14.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AM14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.5</v>
+        <v>3.15</v>
       </c>
       <c r="G15" t="n">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.71</v>
       </c>
-      <c r="I15" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.38</v>
-      </c>
       <c r="W15" t="n">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
       <c r="X15" t="n">
         <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="AB15" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AF15" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AI15" t="n">
         <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="AK15" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AN15" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.800000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>5.6</v>
       </c>
       <c r="G16" t="n">
-        <v>2.34</v>
+        <v>5.7</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>1.69</v>
       </c>
       <c r="I16" t="n">
-        <v>3.65</v>
+        <v>1.71</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.47</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.3</v>
-      </c>
       <c r="S16" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>2.44</v>
       </c>
       <c r="W16" t="n">
-        <v>1.74</v>
+        <v>1.2</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="AB16" t="n">
-        <v>9</v>
+        <v>19.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE16" t="n">
         <v>16</v>
       </c>
-      <c r="AE16" t="n">
-        <v>48</v>
-      </c>
       <c r="AF16" t="n">
-        <v>13.5</v>
+        <v>44</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
         <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AJ16" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="AK16" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AL16" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G17" t="n">
         <v>2.36</v>
       </c>
-      <c r="G17" t="n">
-        <v>2.4</v>
-      </c>
       <c r="H17" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="P17" t="n">
-        <v>2.16</v>
+        <v>1.81</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>2.18</v>
       </c>
       <c r="R17" t="n">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="S17" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="U17" t="n">
-        <v>2.42</v>
+        <v>2.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="W17" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X17" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF17" t="n">
         <v>14.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>17</v>
       </c>
       <c r="AG17" t="n">
         <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ17" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.04</v>
+        <v>2.4</v>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="I18" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K18" t="n">
         <v>3.75</v>
       </c>
       <c r="L18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.46</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.33</v>
-      </c>
       <c r="S18" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="U18" t="n">
-        <v>2.02</v>
+        <v>2.36</v>
       </c>
       <c r="V18" t="n">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="W18" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="X18" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
         <v>15</v>
       </c>
       <c r="Z18" t="n">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>38</v>
+        <v>13.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AJ18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.53</v>
+        <v>2.04</v>
       </c>
       <c r="G19" t="n">
-        <v>1.55</v>
+        <v>2.06</v>
       </c>
       <c r="H19" t="n">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>7.8</v>
+        <v>4.3</v>
       </c>
       <c r="J19" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>4.7</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S19" t="n">
         <v>3.85</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="T19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.94</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.8</v>
-      </c>
       <c r="X19" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>24</v>
       </c>
-      <c r="Z19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>260</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>14</v>
-      </c>
       <c r="AK19" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
         <v>42</v>
       </c>
       <c r="AM19" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AO19" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.21</v>
+        <v>1.69</v>
       </c>
       <c r="G20" t="n">
-        <v>1.22</v>
+        <v>1.71</v>
       </c>
       <c r="H20" t="n">
-        <v>16.5</v>
+        <v>6.2</v>
       </c>
       <c r="I20" t="n">
-        <v>18</v>
+        <v>6.4</v>
       </c>
       <c r="J20" t="n">
-        <v>8.6</v>
+        <v>3.9</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>7.8</v>
+        <v>3.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.39</v>
+        <v>2.06</v>
       </c>
       <c r="R20" t="n">
-        <v>1.93</v>
+        <v>1.33</v>
       </c>
       <c r="S20" t="n">
-        <v>1.98</v>
+        <v>3.75</v>
       </c>
       <c r="T20" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V20" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="W20" t="n">
-        <v>5.6</v>
+        <v>2.4</v>
       </c>
       <c r="X20" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>70</v>
+        <v>18.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB20" t="n">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD20" t="n">
         <v>24</v>
       </c>
-      <c r="AD20" t="n">
-        <v>400</v>
-      </c>
       <c r="AE20" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH20" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9.6</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AM20" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.2</v>
+        <v>11.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.85</v>
+        <v>1.19</v>
       </c>
       <c r="G21" t="n">
-        <v>1.88</v>
+        <v>1.21</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I21" t="n">
-        <v>5.3</v>
+        <v>18.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>9</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L21" t="n">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>3.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O21" t="n">
-        <v>1.37</v>
+        <v>1.13</v>
       </c>
       <c r="P21" t="n">
-        <v>1.81</v>
+        <v>3.35</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.12</v>
+        <v>1.39</v>
       </c>
       <c r="R21" t="n">
-        <v>1.3</v>
+        <v>1.93</v>
       </c>
       <c r="S21" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="U21" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V21" t="n">
-        <v>1.23</v>
+        <v>1.05</v>
       </c>
       <c r="W21" t="n">
-        <v>2.12</v>
+        <v>5.7</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="Y21" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="Z21" t="n">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="AA21" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.199999999999999</v>
+        <v>22</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>400</v>
       </c>
       <c r="AE21" t="n">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AF21" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>9.6</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AM21" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="AO21" t="n">
-        <v>100</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N22" t="n">
         <v>3.55</v>
       </c>
-      <c r="G22" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.5</v>
-      </c>
       <c r="O22" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="P22" t="n">
-        <v>2.22</v>
+        <v>1.86</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.77</v>
+        <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="S22" t="n">
-        <v>2.94</v>
+        <v>3.9</v>
       </c>
       <c r="T22" t="n">
-        <v>1.69</v>
+        <v>1.96</v>
       </c>
       <c r="U22" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="V22" t="n">
-        <v>1.84</v>
+        <v>1.23</v>
       </c>
       <c r="W22" t="n">
-        <v>1.38</v>
+        <v>2.14</v>
       </c>
       <c r="X22" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>140</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH22" t="n">
         <v>22</v>
       </c>
-      <c r="Y22" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE22" t="n">
+      <c r="AI22" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK22" t="n">
         <v>22</v>
       </c>
-      <c r="AF22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>38</v>
-      </c>
       <c r="AL22" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM22" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AO22" t="n">
-        <v>13.5</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.21</v>
+        <v>3.35</v>
       </c>
       <c r="G23" t="n">
-        <v>1.23</v>
+        <v>3.45</v>
       </c>
       <c r="H23" t="n">
-        <v>17.5</v>
+        <v>2.24</v>
       </c>
       <c r="I23" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X23" t="n">
         <v>18.5</v>
       </c>
-      <c r="J23" t="n">
-        <v>8</v>
-      </c>
-      <c r="K23" t="n">
-        <v>9</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N23" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W23" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>190</v>
+        <v>16.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB23" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF23" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8.6</v>
+        <v>65</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.2</v>
+        <v>28</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -3628,118 +3628,118 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="G24" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="H24" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="I24" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J24" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="K24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O24" t="n">
         <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="R24" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S24" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T24" t="n">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="U24" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="V24" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="W24" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="X24" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="Z24" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AF24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AK24" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,126 +3758,126 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.76</v>
+        <v>1.14</v>
       </c>
       <c r="G25" t="n">
-        <v>1.77</v>
+        <v>1.16</v>
       </c>
       <c r="H25" t="n">
-        <v>4.8</v>
+        <v>27</v>
       </c>
       <c r="I25" t="n">
-        <v>4.9</v>
+        <v>30</v>
       </c>
       <c r="J25" t="n">
-        <v>4.3</v>
+        <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>4.4</v>
+        <v>11</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>2.42</v>
+        <v>2.82</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="R25" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="S25" t="n">
-        <v>2.7</v>
+        <v>2.32</v>
       </c>
       <c r="T25" t="n">
-        <v>1.69</v>
+        <v>2.68</v>
       </c>
       <c r="U25" t="n">
-        <v>2.34</v>
+        <v>1.54</v>
       </c>
       <c r="V25" t="n">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="W25" t="n">
-        <v>2.28</v>
+        <v>7.2</v>
       </c>
       <c r="X25" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="Y25" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="AA25" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.6</v>
+        <v>28</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>55</v>
+        <v>450</v>
       </c>
       <c r="AJ25" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AK25" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL25" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>75</v>
+        <v>430</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO25" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G26" t="n">
         <v>1.78</v>
       </c>
       <c r="H26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I26" t="n">
         <v>5</v>
       </c>
-      <c r="I26" t="n">
-        <v>5.2</v>
-      </c>
       <c r="J26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K26" t="n">
         <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="R26" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="S26" t="n">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="T26" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="U26" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="V26" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W26" t="n">
         <v>2.28</v>
       </c>
       <c r="X26" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Z26" t="n">
         <v>40</v>
       </c>
       <c r="AA26" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AD26" t="n">
         <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH26" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ26" t="n">
         <v>18.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AM26" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AN26" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AO26" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
@@ -4033,19 +4033,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="G27" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="H27" t="n">
         <v>5.2</v>
@@ -4054,100 +4054,100 @@
         <v>5.4</v>
       </c>
       <c r="J27" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="K27" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="P27" t="n">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="R27" t="n">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="S27" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="T27" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="U27" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="V27" t="n">
         <v>1.22</v>
       </c>
       <c r="W27" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="X27" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AA27" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB27" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
         <v>19.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ27" t="n">
         <v>17.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL27" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AM27" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AN27" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO27" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H28" t="n">
         <v>5.9</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>6</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J28" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T28" t="n">
         <v>1.7</v>
       </c>
-      <c r="I28" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.98</v>
-      </c>
       <c r="U28" t="n">
-        <v>1.98</v>
+        <v>2.36</v>
       </c>
       <c r="V28" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="W28" t="n">
-        <v>1.2</v>
+        <v>2.64</v>
       </c>
       <c r="X28" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="Y28" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Z28" t="n">
-        <v>9.4</v>
+        <v>55</v>
       </c>
       <c r="AA28" t="n">
-        <v>16.5</v>
+        <v>140</v>
       </c>
       <c r="AB28" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>9.800000000000001</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH28" t="n">
         <v>18</v>
       </c>
-      <c r="AF28" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>22</v>
-      </c>
       <c r="AI28" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AJ28" t="n">
-        <v>270</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="AL28" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="AM28" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AN28" t="n">
-        <v>100</v>
+        <v>5.7</v>
       </c>
       <c r="AO28" t="n">
-        <v>10.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.22</v>
+        <v>5.8</v>
       </c>
       <c r="G29" t="n">
-        <v>1.23</v>
+        <v>5.9</v>
       </c>
       <c r="H29" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA29" t="n">
         <v>16.5</v>
       </c>
-      <c r="I29" t="n">
+      <c r="AB29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE29" t="n">
         <v>17.5</v>
       </c>
-      <c r="J29" t="n">
-        <v>8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N29" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W29" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X29" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>340</v>
-      </c>
       <c r="AF29" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="AK29" t="n">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="AL29" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.7</v>
+        <v>95</v>
       </c>
       <c r="AO29" t="n">
-        <v>470</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.4</v>
+        <v>1.23</v>
       </c>
       <c r="G30" t="n">
-        <v>3.45</v>
+        <v>1.24</v>
       </c>
       <c r="H30" t="n">
-        <v>2.28</v>
+        <v>16</v>
       </c>
       <c r="I30" t="n">
-        <v>2.32</v>
+        <v>17</v>
       </c>
       <c r="J30" t="n">
-        <v>3.65</v>
+        <v>7.8</v>
       </c>
       <c r="K30" t="n">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="L30" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="M30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V30" t="n">
         <v>1.06</v>
       </c>
-      <c r="N30" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.76</v>
-      </c>
       <c r="W30" t="n">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="X30" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="Y30" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>300</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG30" t="n">
         <v>11</v>
       </c>
-      <c r="Z30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG30" t="n">
+      <c r="AH30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK30" t="n">
         <v>14</v>
       </c>
-      <c r="AH30" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>38</v>
-      </c>
       <c r="AL30" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM30" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AN30" t="n">
-        <v>32</v>
+        <v>3.75</v>
       </c>
       <c r="AO30" t="n">
-        <v>16.5</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.67</v>
+        <v>3.45</v>
       </c>
       <c r="G31" t="n">
-        <v>1.68</v>
+        <v>3.5</v>
       </c>
       <c r="H31" t="n">
-        <v>5.9</v>
+        <v>2.26</v>
       </c>
       <c r="I31" t="n">
-        <v>6.2</v>
+        <v>2.3</v>
       </c>
       <c r="J31" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="K31" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P31" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R31" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W31" t="n">
         <v>1.4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W31" t="n">
-        <v>2.46</v>
       </c>
       <c r="X31" t="n">
         <v>16.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL31" t="n">
         <v>46</v>
       </c>
-      <c r="AA31" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI31" t="n">
+      <c r="AM31" t="n">
         <v>80</v>
       </c>
-      <c r="AJ31" t="n">
+      <c r="AN31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO31" t="n">
         <v>16</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>95</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="G32" t="n">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="H32" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="J32" t="n">
         <v>4.3</v>
       </c>
       <c r="K32" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
-        <v>2.34</v>
+        <v>2.06</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
       <c r="R32" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="S32" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="T32" t="n">
-        <v>1.71</v>
+        <v>1.96</v>
       </c>
       <c r="U32" t="n">
-        <v>2.3</v>
+        <v>1.99</v>
       </c>
       <c r="V32" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="W32" t="n">
-        <v>2.28</v>
+        <v>2.58</v>
       </c>
       <c r="X32" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="Y32" t="n">
         <v>21</v>
       </c>
       <c r="Z32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AA32" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="AB32" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AE32" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AF32" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG32" t="n">
         <v>9.6</v>
       </c>
       <c r="AH32" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AJ32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AK32" t="n">
         <v>16.5</v>
       </c>
       <c r="AL32" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AM32" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AN32" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO32" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.38</v>
+        <v>1.74</v>
       </c>
       <c r="G33" t="n">
-        <v>1.39</v>
+        <v>1.75</v>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>5.2</v>
       </c>
       <c r="I33" t="n">
-        <v>10.5</v>
+        <v>5.4</v>
       </c>
       <c r="J33" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="K33" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="O33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V33" t="n">
         <v>1.23</v>
       </c>
-      <c r="P33" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.1</v>
-      </c>
       <c r="W33" t="n">
-        <v>3.55</v>
+        <v>2.34</v>
       </c>
       <c r="X33" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y33" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AA33" t="n">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC33" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>36</v>
+        <v>19.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AF33" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="AG33" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH33" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AI33" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AJ33" t="n">
-        <v>11.5</v>
+        <v>18</v>
       </c>
       <c r="AK33" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AL33" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AM33" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AN33" t="n">
-        <v>5.5</v>
+        <v>9.4</v>
       </c>
       <c r="AO33" t="n">
-        <v>180</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F34" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H34" t="n">
         <v>10</v>
       </c>
-      <c r="G34" t="n">
-        <v>12</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1.38</v>
-      </c>
       <c r="I34" t="n">
-        <v>1.4</v>
+        <v>10.5</v>
       </c>
       <c r="J34" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="K34" t="n">
         <v>5.7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="O34" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="R34" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="S34" t="n">
-        <v>2.96</v>
+        <v>2.74</v>
       </c>
       <c r="T34" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="U34" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="V34" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="W34" t="n">
-        <v>1.09</v>
+        <v>3.55</v>
       </c>
       <c r="X34" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.800000000000001</v>
+        <v>34</v>
       </c>
       <c r="Z34" t="n">
-        <v>7.8</v>
+        <v>95</v>
       </c>
       <c r="AA34" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>11.5</v>
       </c>
-      <c r="AB34" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK34" t="n">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="AL34" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="AM34" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AN34" t="n">
-        <v>250</v>
+        <v>5.4</v>
       </c>
       <c r="AO34" t="n">
-        <v>6</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.81</v>
+        <v>11</v>
       </c>
       <c r="G35" t="n">
+        <v>12</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q35" t="n">
         <v>1.83</v>
       </c>
-      <c r="H35" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.08</v>
-      </c>
       <c r="R35" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="S35" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V35" t="n">
         <v>3.55</v>
       </c>
-      <c r="T35" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.23</v>
-      </c>
       <c r="W35" t="n">
-        <v>2.2</v>
+        <v>1.09</v>
       </c>
       <c r="X35" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>32</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z35" t="n">
-        <v>130</v>
+        <v>7.8</v>
       </c>
       <c r="AA35" t="n">
-        <v>330</v>
+        <v>11</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>330</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
-        <v>10.5</v>
+        <v>110</v>
       </c>
       <c r="AG35" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AJ35" t="n">
-        <v>20</v>
+        <v>470</v>
       </c>
       <c r="AK35" t="n">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="AL35" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AM35" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AN35" t="n">
-        <v>13</v>
+        <v>310</v>
       </c>
       <c r="AO35" t="n">
-        <v>270</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.49</v>
+        <v>1.87</v>
       </c>
       <c r="G36" t="n">
-        <v>1.52</v>
+        <v>1.9</v>
       </c>
       <c r="H36" t="n">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="I36" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC36" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="J36" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K36" t="n">
-        <v>5</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N36" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U36" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W36" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="X36" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>11</v>
-      </c>
       <c r="AD36" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AF36" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AG36" t="n">
         <v>10</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AK36" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AL36" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AM36" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN36" t="n">
-        <v>6.8</v>
+        <v>14</v>
       </c>
       <c r="AO36" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="G37" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="H37" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="I37" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="J37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K37" t="n">
         <v>4.8</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N37" t="n">
         <v>5</v>
       </c>
-      <c r="L37" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N37" t="n">
-        <v>5.2</v>
-      </c>
       <c r="O37" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P37" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R37" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S37" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="T37" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U37" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V37" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W37" t="n">
-        <v>2.96</v>
+        <v>2.66</v>
       </c>
       <c r="X37" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD37" t="n">
         <v>24</v>
       </c>
-      <c r="Y37" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>450</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB37" t="n">
+      <c r="AE37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG37" t="n">
         <v>10</v>
       </c>
-      <c r="AC37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>510</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AH37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AK37" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL37" t="n">
         <v>30</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN37" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO37" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.3</v>
+        <v>1.49</v>
       </c>
       <c r="G38" t="n">
-        <v>4.7</v>
+        <v>1.51</v>
       </c>
       <c r="H38" t="n">
-        <v>1.92</v>
+        <v>7.2</v>
       </c>
       <c r="I38" t="n">
-        <v>1.97</v>
+        <v>8</v>
       </c>
       <c r="J38" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="K38" t="n">
-        <v>3.85</v>
+        <v>5.1</v>
       </c>
       <c r="L38" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>3.85</v>
+        <v>5.2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="R38" t="n">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="S38" t="n">
-        <v>3.35</v>
+        <v>2.7</v>
       </c>
       <c r="T38" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U38" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="V38" t="n">
-        <v>2.02</v>
+        <v>1.14</v>
       </c>
       <c r="W38" t="n">
-        <v>1.27</v>
+        <v>2.96</v>
       </c>
       <c r="X38" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Y38" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Z38" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AA38" t="n">
-        <v>980</v>
+        <v>230</v>
       </c>
       <c r="AB38" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AC38" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD38" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AE38" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AF38" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG38" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AH38" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AI38" t="n">
-        <v>980</v>
+        <v>400</v>
       </c>
       <c r="AJ38" t="n">
-        <v>310</v>
+        <v>13.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="AL38" t="n">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="AM38" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>600</v>
+        <v>6.4</v>
       </c>
       <c r="AO38" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -5653,31 +5653,31 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.79</v>
+        <v>4.3</v>
       </c>
       <c r="G39" t="n">
-        <v>1.83</v>
+        <v>4.5</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="I39" t="n">
-        <v>5.3</v>
+        <v>1.96</v>
       </c>
       <c r="J39" t="n">
         <v>3.8</v>
       </c>
       <c r="K39" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L39" t="n">
         <v>1.41</v>
@@ -5686,88 +5686,88 @@
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O39" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R39" t="n">
         <v>1.38</v>
       </c>
       <c r="S39" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T39" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U39" t="n">
         <v>2.08</v>
       </c>
       <c r="V39" t="n">
-        <v>1.23</v>
+        <v>2.04</v>
       </c>
       <c r="W39" t="n">
-        <v>2.2</v>
+        <v>1.28</v>
       </c>
       <c r="X39" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y39" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH39" t="n">
         <v>19</v>
       </c>
-      <c r="Z39" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>21</v>
-      </c>
       <c r="AI39" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AJ39" t="n">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="AK39" t="n">
-        <v>18.5</v>
+        <v>150</v>
       </c>
       <c r="AL39" t="n">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="AM39" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AN39" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="AO39" t="n">
-        <v>75</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="40">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="G40" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="H40" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="I40" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="J40" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K40" t="n">
         <v>3.95</v>
       </c>
-      <c r="K40" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L40" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="O40" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="P40" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q40" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U40" t="n">
         <v>2.1</v>
       </c>
-      <c r="R40" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.88</v>
-      </c>
       <c r="V40" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="W40" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="X40" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y40" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD40" t="n">
         <v>19</v>
       </c>
-      <c r="Z40" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>25</v>
-      </c>
       <c r="AE40" t="n">
-        <v>420</v>
+        <v>65</v>
       </c>
       <c r="AF40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG40" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AG40" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH40" t="n">
-        <v>55</v>
+        <v>19.5</v>
       </c>
       <c r="AI40" t="n">
         <v>330</v>
       </c>
       <c r="AJ40" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL40" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AM40" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN40" t="n">
         <v>12.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41">
@@ -5923,121 +5923,121 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.7</v>
+        <v>1.68</v>
       </c>
       <c r="G41" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S41" t="n">
         <v>3.8</v>
       </c>
-      <c r="H41" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N41" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2.6</v>
-      </c>
       <c r="T41" t="n">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
-        <v>2.6</v>
+        <v>1.88</v>
       </c>
       <c r="V41" t="n">
-        <v>1.91</v>
+        <v>1.19</v>
       </c>
       <c r="W41" t="n">
-        <v>1.35</v>
+        <v>2.38</v>
       </c>
       <c r="X41" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Y41" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>15.5</v>
+        <v>48</v>
       </c>
       <c r="AA41" t="n">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="AB41" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AC41" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF41" t="n">
         <v>9.6</v>
       </c>
-      <c r="AD41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>32</v>
-      </c>
       <c r="AG41" t="n">
-        <v>15.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH41" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="AI41" t="n">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="n">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="AK41" t="n">
-        <v>36</v>
+        <v>19.5</v>
       </c>
       <c r="AL41" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM41" t="n">
-        <v>65</v>
+        <v>580</v>
       </c>
       <c r="AN41" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="AO41" t="n">
-        <v>10.5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42">
@@ -6058,127 +6058,127 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.14</v>
+        <v>3.75</v>
       </c>
       <c r="G42" t="n">
-        <v>2.16</v>
+        <v>3.9</v>
       </c>
       <c r="H42" t="n">
-        <v>3.65</v>
+        <v>2.04</v>
       </c>
       <c r="I42" t="n">
-        <v>3.7</v>
+        <v>2.06</v>
       </c>
       <c r="J42" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K42" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="L42" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="M42" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="O42" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="P42" t="n">
-        <v>2.2</v>
+        <v>2.54</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.79</v>
+        <v>1.61</v>
       </c>
       <c r="R42" t="n">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="S42" t="n">
-        <v>2.96</v>
+        <v>2.54</v>
       </c>
       <c r="T42" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="U42" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="V42" t="n">
-        <v>1.37</v>
+        <v>1.94</v>
       </c>
       <c r="W42" t="n">
-        <v>1.86</v>
+        <v>1.35</v>
       </c>
       <c r="X42" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE42" t="n">
         <v>18</v>
       </c>
-      <c r="Y42" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z42" t="n">
+      <c r="AF42" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI42" t="n">
         <v>27</v>
       </c>
-      <c r="AA42" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE42" t="n">
+      <c r="AJ42" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL42" t="n">
         <v>40</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>34</v>
       </c>
       <c r="AM42" t="n">
         <v>200</v>
       </c>
       <c r="AN42" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AO42" t="n">
-        <v>600</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.68</v>
+        <v>2.02</v>
       </c>
       <c r="G43" t="n">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="H43" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="I43" t="n">
-        <v>7.2</v>
+        <v>3.95</v>
       </c>
       <c r="J43" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="K43" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L43" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="M43" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>2.74</v>
+        <v>4.8</v>
       </c>
       <c r="O43" t="n">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="P43" t="n">
-        <v>1.6</v>
+        <v>2.32</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.36</v>
+        <v>1.7</v>
       </c>
       <c r="R43" t="n">
-        <v>1.22</v>
+        <v>1.52</v>
       </c>
       <c r="S43" t="n">
-        <v>4.2</v>
+        <v>2.78</v>
       </c>
       <c r="T43" t="n">
-        <v>2.18</v>
+        <v>1.63</v>
       </c>
       <c r="U43" t="n">
-        <v>1.68</v>
+        <v>2.44</v>
       </c>
       <c r="V43" t="n">
-        <v>1.16</v>
+        <v>1.34</v>
       </c>
       <c r="W43" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA43" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB43" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>42</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK43" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN43" t="n">
-        <v>55</v>
+        <v>11.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,132 +6323,132 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.98</v>
+        <v>1.68</v>
       </c>
       <c r="G44" t="n">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="H44" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="I44" t="n">
-        <v>4.7</v>
+        <v>7.2</v>
       </c>
       <c r="J44" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K44" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L44" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="M44" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N44" t="n">
-        <v>3.3</v>
+        <v>2.86</v>
       </c>
       <c r="O44" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="P44" t="n">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="R44" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="S44" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T44" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="U44" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="V44" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="W44" t="n">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="X44" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="Y44" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z44" t="n">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="AA44" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>7.8</v>
+        <v>29</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="AD44" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE44" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG44" t="n">
-        <v>10.5</v>
+        <v>40</v>
       </c>
       <c r="AH44" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI44" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK44" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL44" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM44" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AO44" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,132 +6458,132 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.45</v>
+        <v>1.97</v>
       </c>
       <c r="G45" t="n">
-        <v>1.51</v>
+        <v>1.98</v>
       </c>
       <c r="H45" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="I45" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W45" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB45" t="n">
         <v>7.8</v>
       </c>
-      <c r="J45" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K45" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N45" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="U45" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W45" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="X45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>470</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>17</v>
-      </c>
       <c r="AC45" t="n">
-        <v>15.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD45" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI45" t="n">
         <v>80</v>
       </c>
-      <c r="AE45" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>210</v>
-      </c>
       <c r="AJ45" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AK45" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AL45" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM45" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="AN45" t="n">
-        <v>4.3</v>
+        <v>18</v>
       </c>
       <c r="AO45" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,127 +6598,127 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.48</v>
+        <v>1.36</v>
       </c>
       <c r="G46" t="n">
-        <v>2.54</v>
+        <v>1.4</v>
       </c>
       <c r="H46" t="n">
-        <v>3.45</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I46" t="n">
-        <v>3.55</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J46" t="n">
-        <v>3.1</v>
+        <v>5.8</v>
       </c>
       <c r="K46" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N46" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P46" t="n">
         <v>3.2</v>
       </c>
-      <c r="L46" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.54</v>
-      </c>
       <c r="Q46" t="n">
-        <v>2.8</v>
+        <v>1.39</v>
       </c>
       <c r="R46" t="n">
-        <v>1.18</v>
+        <v>1.9</v>
       </c>
       <c r="S46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T46" t="n">
-        <v>2.24</v>
+        <v>1.69</v>
       </c>
       <c r="U46" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="V46" t="n">
-        <v>1.39</v>
+        <v>1.12</v>
       </c>
       <c r="W46" t="n">
-        <v>1.64</v>
+        <v>3.5</v>
       </c>
       <c r="X46" t="n">
-        <v>8.4</v>
+        <v>38</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.4</v>
+        <v>55</v>
       </c>
       <c r="Z46" t="n">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="AA46" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="AB46" t="n">
-        <v>7.4</v>
+        <v>14.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="AD46" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AE46" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="AF46" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG46" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI46" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AJ46" t="n">
-        <v>110</v>
+        <v>14.5</v>
       </c>
       <c r="AK46" t="n">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="AL46" t="n">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="AM46" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="AO46" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,132 +6728,132 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Boyaca Chico</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5.1</v>
+        <v>2.48</v>
       </c>
       <c r="G47" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S47" t="n">
         <v>5.9</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K47" t="n">
-        <v>4</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4.9</v>
       </c>
       <c r="T47" t="n">
         <v>2.22</v>
       </c>
       <c r="U47" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="V47" t="n">
-        <v>2.2</v>
+        <v>1.39</v>
       </c>
       <c r="W47" t="n">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="X47" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y47" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="Z47" t="n">
-        <v>9.4</v>
+        <v>21</v>
       </c>
       <c r="AA47" t="n">
-        <v>19.5</v>
+        <v>75</v>
       </c>
       <c r="AB47" t="n">
-        <v>17.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AD47" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE47" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AF47" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN47" t="n">
         <v>42</v>
       </c>
-      <c r="AG47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO47" t="n">
-        <v>18.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,260 +6863,395 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Boyaca Chico</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.46</v>
+        <v>5.6</v>
       </c>
       <c r="G48" t="n">
-        <v>1.47</v>
+        <v>5.9</v>
       </c>
       <c r="H48" t="n">
-        <v>9</v>
+        <v>1.77</v>
       </c>
       <c r="I48" t="n">
-        <v>9.6</v>
+        <v>1.81</v>
       </c>
       <c r="J48" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="K48" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="L48" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="M48" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N48" t="n">
-        <v>3.75</v>
+        <v>2.84</v>
       </c>
       <c r="O48" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="P48" t="n">
-        <v>1.93</v>
+        <v>1.63</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.04</v>
+        <v>2.44</v>
       </c>
       <c r="R48" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="S48" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="T48" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="U48" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="V48" t="n">
-        <v>1.11</v>
+        <v>2.22</v>
       </c>
       <c r="W48" t="n">
-        <v>3.1</v>
+        <v>1.21</v>
       </c>
       <c r="X48" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>26</v>
+        <v>6.6</v>
       </c>
       <c r="Z48" t="n">
-        <v>80</v>
+        <v>9.4</v>
       </c>
       <c r="AA48" t="n">
-        <v>470</v>
+        <v>20</v>
       </c>
       <c r="AB48" t="n">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="AC48" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD48" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD48" t="n">
-        <v>36</v>
-      </c>
       <c r="AE48" t="n">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="AF48" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AG48" t="n">
-        <v>9.800000000000001</v>
+        <v>24</v>
       </c>
       <c r="AH48" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI48" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AJ48" t="n">
-        <v>12.5</v>
+        <v>180</v>
       </c>
       <c r="AK48" t="n">
-        <v>16.5</v>
+        <v>110</v>
       </c>
       <c r="AL48" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AM48" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="AN48" t="n">
-        <v>8.6</v>
+        <v>190</v>
       </c>
       <c r="AO48" t="n">
-        <v>250</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>SE Palmeiras</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H49" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I49" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K49" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W49" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="X49" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>470</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>Colombian Primera B</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>2025-11-06</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>22:20:00</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Boca Juniors de Cali</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G49" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L49" t="n">
+      <c r="F50" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P50" t="n">
         <v>1.54</v>
       </c>
-      <c r="M49" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N49" t="n">
+      <c r="Q50" t="n">
         <v>2.5</v>
       </c>
-      <c r="O49" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S49" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="X49" t="n">
+      <c r="R50" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X50" t="n">
         <v>11</v>
       </c>
-      <c r="Y49" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE49" t="n">
+      <c r="Y50" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA50" t="n">
         <v>42</v>
       </c>
-      <c r="AF49" t="n">
+      <c r="AB50" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF50" t="n">
         <v>26</v>
       </c>
-      <c r="AG49" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH49" t="n">
+      <c r="AG50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH50" t="n">
         <v>22</v>
       </c>
-      <c r="AI49" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ49" t="n">
+      <c r="AI50" t="n">
         <v>1000</v>
       </c>
-      <c r="AK49" t="n">
+      <c r="AJ50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK50" t="n">
         <v>60</v>
       </c>
-      <c r="AL49" t="n">
+      <c r="AL50" t="n">
         <v>85</v>
       </c>
-      <c r="AM49" t="n">
+      <c r="AM50" t="n">
         <v>1000</v>
       </c>
-      <c r="AN49" t="n">
+      <c r="AN50" t="n">
         <v>1000</v>
       </c>
-      <c r="AO49" t="n">
+      <c r="AO50" t="n">
         <v>44</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO50"/>
+  <dimension ref="A1:AO48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,75 +653,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>11:55:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sportive De Tunis</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>JS Omrane</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.16</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>1.19</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
-        <v>29</v>
+        <v>1.11</v>
       </c>
       <c r="I2" t="n">
-        <v>40</v>
+        <v>1.13</v>
       </c>
       <c r="J2" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="K2" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.02</v>
+        <v>10</v>
       </c>
       <c r="W2" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -742,7 +742,7 @@
         <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>2.54</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -754,31 +754,31 @@
         <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.9</v>
+        <v>70</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,102 +788,102 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Stade Tunisien</t>
+          <t>Flora Tallinn II</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Club Africain</t>
+          <t>Nomme Utd</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.7</v>
+        <v>32</v>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>770</v>
       </c>
       <c r="H3" t="n">
-        <v>2.46</v>
+        <v>1.07</v>
       </c>
       <c r="I3" t="n">
-        <v>2.62</v>
+        <v>1.09</v>
       </c>
       <c r="J3" t="n">
-        <v>2.74</v>
+        <v>16</v>
       </c>
       <c r="K3" t="n">
-        <v>2.96</v>
+        <v>25</v>
       </c>
       <c r="L3" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.17</v>
+        <v>34</v>
       </c>
       <c r="S3" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:55:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.8</v>
+        <v>1.53</v>
       </c>
       <c r="G4" t="n">
-        <v>3.95</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>2.06</v>
+        <v>6.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.12</v>
+        <v>6.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2.72</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="R4" t="n">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>2.32</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>2.22</v>
+        <v>1.03</v>
       </c>
       <c r="V4" t="n">
-        <v>1.89</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>1.34</v>
+        <v>2.74</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.5</v>
+        <v>170</v>
       </c>
       <c r="AA4" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL4" t="n">
         <v>26</v>
       </c>
-      <c r="AB4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>230</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>80</v>
       </c>
-      <c r="AM4" t="n">
-        <v>200</v>
-      </c>
       <c r="AN4" t="n">
-        <v>48</v>
+        <v>5.9</v>
       </c>
       <c r="AO4" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Estonian Esiliiga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Flora Tallinn II</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nomme Utd</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.2</v>
+        <v>2.14</v>
       </c>
       <c r="G5" t="n">
-        <v>8.4</v>
+        <v>2.22</v>
       </c>
       <c r="H5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.36</v>
       </c>
-      <c r="I5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.07</v>
-      </c>
       <c r="P5" t="n">
-        <v>3.95</v>
+        <v>1.89</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.23</v>
+        <v>2.06</v>
       </c>
       <c r="R5" t="n">
-        <v>2.24</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>1.58</v>
+        <v>3.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.44</v>
+        <v>1.82</v>
       </c>
       <c r="U5" t="n">
-        <v>2.66</v>
+        <v>2.06</v>
       </c>
       <c r="V5" t="n">
-        <v>3.1</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.13</v>
+        <v>1.81</v>
       </c>
       <c r="X5" t="n">
-        <v>960</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH5" t="n">
         <v>18.5</v>
       </c>
-      <c r="AB5" t="n">
-        <v>170</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AI5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM5" t="n">
         <v>110</v>
       </c>
-      <c r="AG5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>210</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>65</v>
-      </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>3.45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.58</v>
+        <v>2.9</v>
       </c>
       <c r="G6" t="n">
-        <v>1.61</v>
+        <v>2.96</v>
       </c>
       <c r="H6" t="n">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>2.76</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.18</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>2.6</v>
+        <v>1.51</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>450</v>
+        <v>16.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15.5</v>
+        <v>46</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>95</v>
       </c>
       <c r="AN6" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.3</v>
+        <v>1.66</v>
       </c>
       <c r="G7" t="n">
-        <v>2.38</v>
+        <v>1.67</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.65</v>
+        <v>5.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>1.83</v>
+        <v>2.76</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>1.55</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>3.9</v>
+        <v>2.34</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="U7" t="n">
-        <v>2.08</v>
+        <v>2.52</v>
       </c>
       <c r="V7" t="n">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="W7" t="n">
-        <v>1.72</v>
+        <v>2.46</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="Z7" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="AA7" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AB7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG7" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AC7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>14.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="AM7" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>6.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -1468,49 +1468,49 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.74</v>
+        <v>6.2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.78</v>
+        <v>6.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>1.66</v>
       </c>
       <c r="I8" t="n">
-        <v>2.84</v>
+        <v>1.68</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R8" t="n">
         <v>1.38</v>
@@ -1519,70 +1519,70 @@
         <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>1.98</v>
       </c>
       <c r="U8" t="n">
-        <v>2.24</v>
+        <v>1.97</v>
       </c>
       <c r="V8" t="n">
-        <v>1.54</v>
+        <v>2.46</v>
       </c>
       <c r="W8" t="n">
-        <v>1.56</v>
+        <v>1.18</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z8" t="n">
-        <v>18</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA8" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="n">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.67</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1.68</v>
+        <v>2.72</v>
       </c>
       <c r="H9" t="n">
-        <v>5.4</v>
+        <v>2.82</v>
       </c>
       <c r="I9" t="n">
-        <v>5.6</v>
+        <v>2.88</v>
       </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.97</v>
       </c>
       <c r="R9" t="n">
-        <v>1.64</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>2.5</v>
+        <v>3.45</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="W9" t="n">
-        <v>2.46</v>
+        <v>1.58</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO9" t="n">
         <v>27</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.8</v>
+        <v>1.55</v>
       </c>
       <c r="G10" t="n">
-        <v>5.9</v>
+        <v>1.56</v>
       </c>
       <c r="H10" t="n">
-        <v>1.68</v>
+        <v>6.8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.69</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.08</v>
+        <v>2.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.89</v>
+        <v>1.66</v>
       </c>
       <c r="R10" t="n">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>2.64</v>
       </c>
       <c r="T10" t="n">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.46</v>
+        <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>1.2</v>
+        <v>2.76</v>
       </c>
       <c r="X10" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.6</v>
+        <v>29</v>
       </c>
       <c r="Z10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG10" t="n">
         <v>9.6</v>
       </c>
-      <c r="AA10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>22</v>
-      </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>150</v>
+        <v>14.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>75</v>
+        <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN10" t="n">
-        <v>85</v>
+        <v>6.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="G11" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="H11" t="n">
-        <v>2.76</v>
+        <v>2.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="W11" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD11" t="n">
         <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH11" t="n">
         <v>18.5</v>
       </c>
-      <c r="AG11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ11" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
         <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.58</v>
+        <v>5.7</v>
       </c>
       <c r="G12" t="n">
-        <v>1.59</v>
+        <v>5.8</v>
       </c>
       <c r="H12" t="n">
-        <v>6.4</v>
+        <v>1.72</v>
       </c>
       <c r="I12" t="n">
-        <v>6.6</v>
+        <v>1.73</v>
       </c>
       <c r="J12" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="R12" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="S12" t="n">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>1.17</v>
+        <v>2.38</v>
       </c>
       <c r="W12" t="n">
-        <v>2.68</v>
+        <v>1.2</v>
       </c>
       <c r="X12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG12" t="n">
         <v>22</v>
       </c>
-      <c r="Y12" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK12" t="n">
         <v>80</v>
       </c>
-      <c r="AF12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AL12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO12" t="n">
         <v>9.4</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
       <c r="I13" t="n">
-        <v>2.68</v>
+        <v>2.46</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>1.9</v>
+        <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.08</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="S13" t="n">
-        <v>3.8</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="U13" t="n">
-        <v>2.14</v>
+        <v>2.58</v>
       </c>
       <c r="V13" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="W13" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AA13" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AB13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>12</v>
-      </c>
       <c r="AE13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI13" t="n">
         <v>30</v>
       </c>
-      <c r="AF13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>44</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL13" t="n">
         <v>34</v>
       </c>
-      <c r="AL13" t="n">
-        <v>48</v>
-      </c>
       <c r="AM13" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AN13" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -2287,100 +2287,100 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="G14" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="H14" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
         <v>1.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S14" t="n">
         <v>2.68</v>
       </c>
       <c r="T14" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U14" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V14" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="W14" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="X14" t="n">
         <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA14" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="n">
         <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF14" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG14" t="n">
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
         <v>40</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL14" t="n">
         <v>27</v>
@@ -2389,16 +2389,16 @@
         <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.15</v>
+        <v>2.34</v>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>2.38</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>2.4</v>
+        <v>3.55</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>4.9</v>
+        <v>3.35</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="P15" t="n">
-        <v>2.28</v>
+        <v>1.79</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.76</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.52</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
-        <v>2.84</v>
+        <v>4.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="U15" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="V15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.71</v>
       </c>
-      <c r="W15" t="n">
-        <v>1.45</v>
-      </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AA15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>32</v>
       </c>
-      <c r="AB15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>50</v>
-      </c>
       <c r="AK15" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL15" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
         <v>24</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,37 +2548,37 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5.6</v>
+        <v>2.32</v>
       </c>
       <c r="G16" t="n">
-        <v>5.7</v>
+        <v>2.34</v>
       </c>
       <c r="H16" t="n">
-        <v>1.69</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>1.71</v>
+        <v>3.35</v>
       </c>
       <c r="J16" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
         <v>4.5</v>
@@ -2593,76 +2593,76 @@
         <v>1.81</v>
       </c>
       <c r="R16" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.84</v>
+        <v>1.67</v>
       </c>
       <c r="U16" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="V16" t="n">
-        <v>2.44</v>
+        <v>1.42</v>
       </c>
       <c r="W16" t="n">
-        <v>1.2</v>
+        <v>1.74</v>
       </c>
       <c r="X16" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.199999999999999</v>
+        <v>15.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF16" t="n">
         <v>16</v>
       </c>
-      <c r="AB16" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AG16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH16" t="n">
         <v>16</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AI16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>44</v>
       </c>
-      <c r="AG16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>140</v>
-      </c>
       <c r="AK16" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="n">
-        <v>80</v>
+        <v>15.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>8.6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="G17" t="n">
-        <v>2.36</v>
+        <v>2.04</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
         <v>1.47</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P17" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="R17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.3</v>
       </c>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.38</v>
-      </c>
       <c r="W17" t="n">
-        <v>1.73</v>
+        <v>1.96</v>
       </c>
       <c r="X17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF17" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ17" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AL17" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM17" t="n">
         <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.4</v>
+        <v>1.64</v>
       </c>
       <c r="G18" t="n">
-        <v>2.42</v>
+        <v>1.66</v>
       </c>
       <c r="H18" t="n">
-        <v>3.15</v>
+        <v>6.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>6.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="S18" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="U18" t="n">
-        <v>2.36</v>
+        <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD18" t="n">
         <v>55</v>
       </c>
-      <c r="AB18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AE18" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AF18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>16</v>
       </c>
-      <c r="AG18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>60</v>
-      </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AM18" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="AN18" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="AO18" t="n">
-        <v>28</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.04</v>
+        <v>1.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.06</v>
+        <v>1.22</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>14</v>
       </c>
       <c r="I19" t="n">
-        <v>4.3</v>
+        <v>16.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>9</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L19" t="n">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>3.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="P19" t="n">
-        <v>1.89</v>
+        <v>3.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.08</v>
+        <v>1.38</v>
       </c>
       <c r="R19" t="n">
-        <v>1.33</v>
+        <v>1.98</v>
       </c>
       <c r="S19" t="n">
-        <v>3.85</v>
+        <v>1.99</v>
       </c>
       <c r="T19" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.3</v>
+        <v>1.06</v>
       </c>
       <c r="W19" t="n">
-        <v>1.94</v>
+        <v>5.7</v>
       </c>
       <c r="X19" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
         <v>13</v>
       </c>
-      <c r="Y19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB19" t="n">
+      <c r="AC19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF19" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>12</v>
-      </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>19.5</v>
+        <v>38</v>
       </c>
       <c r="AI19" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AJ19" t="n">
-        <v>24</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="AN19" t="n">
-        <v>16</v>
+        <v>3.3</v>
       </c>
       <c r="AO19" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="G20" t="n">
-        <v>1.71</v>
+        <v>2.06</v>
       </c>
       <c r="H20" t="n">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="I20" t="n">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="J20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S20" t="n">
         <v>3.9</v>
       </c>
-      <c r="K20" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.75</v>
-      </c>
       <c r="T20" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="U20" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="V20" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="W20" t="n">
-        <v>2.4</v>
+        <v>1.94</v>
       </c>
       <c r="X20" t="n">
         <v>13</v>
       </c>
       <c r="Y20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD20" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z20" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>24</v>
-      </c>
       <c r="AE20" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM20" t="n">
         <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>130</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.19</v>
+        <v>3.45</v>
       </c>
       <c r="G21" t="n">
-        <v>1.21</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH21" t="n">
         <v>16</v>
       </c>
-      <c r="I21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>9</v>
-      </c>
-      <c r="K21" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N21" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W21" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X21" t="n">
+      <c r="AI21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL21" t="n">
         <v>46</v>
       </c>
-      <c r="Y21" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>210</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>290</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>150</v>
-      </c>
       <c r="AM21" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.2</v>
+        <v>36</v>
       </c>
       <c r="AO21" t="n">
-        <v>310</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.83</v>
+        <v>1.19</v>
       </c>
       <c r="G22" t="n">
-        <v>1.87</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>19.5</v>
       </c>
       <c r="I22" t="n">
-        <v>5.3</v>
+        <v>23</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>8.4</v>
       </c>
       <c r="K22" t="n">
-        <v>3.9</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>3.55</v>
+        <v>6.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.37</v>
+        <v>1.16</v>
       </c>
       <c r="P22" t="n">
-        <v>1.86</v>
+        <v>2.82</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>1.52</v>
       </c>
       <c r="R22" t="n">
-        <v>1.32</v>
+        <v>1.74</v>
       </c>
       <c r="S22" t="n">
-        <v>3.9</v>
+        <v>2.32</v>
       </c>
       <c r="T22" t="n">
-        <v>1.96</v>
+        <v>2.42</v>
       </c>
       <c r="U22" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="V22" t="n">
-        <v>1.23</v>
+        <v>1.04</v>
       </c>
       <c r="W22" t="n">
-        <v>2.14</v>
+        <v>6</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="Y22" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="AA22" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>390</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>8.6</v>
       </c>
-      <c r="AD22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>20</v>
-      </c>
       <c r="AK22" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AL22" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM22" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="AN22" t="n">
-        <v>42</v>
+        <v>3.65</v>
       </c>
       <c r="AO22" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.35</v>
+        <v>1.13</v>
       </c>
       <c r="G23" t="n">
-        <v>3.45</v>
+        <v>1.14</v>
       </c>
       <c r="H23" t="n">
-        <v>2.24</v>
+        <v>34</v>
       </c>
       <c r="I23" t="n">
-        <v>2.28</v>
+        <v>38</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>11.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="P23" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S23" t="n">
         <v>2.22</v>
       </c>
-      <c r="Q23" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W23" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="X23" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>460</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
         <v>2.94</v>
       </c>
-      <c r="T23" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>28</v>
-      </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.2</v>
+        <v>1.74</v>
       </c>
       <c r="G24" t="n">
-        <v>1.22</v>
+        <v>1.75</v>
       </c>
       <c r="H24" t="n">
-        <v>14.5</v>
+        <v>4.9</v>
       </c>
       <c r="I24" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>9</v>
+        <v>4.3</v>
       </c>
       <c r="K24" t="n">
-        <v>9.6</v>
+        <v>4.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.84</v>
+        <v>2.46</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="R24" t="n">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="S24" t="n">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="T24" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W24" t="n">
         <v>2.32</v>
       </c>
-      <c r="U24" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W24" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X24" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="Y24" t="n">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB24" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>65</v>
+        <v>19.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>370</v>
+        <v>55</v>
       </c>
       <c r="AF24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN24" t="n">
         <v>8</v>
       </c>
-      <c r="AG24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>250</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.8</v>
-      </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,126 +3758,126 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="G25" t="n">
-        <v>1.16</v>
+        <v>1.73</v>
       </c>
       <c r="H25" t="n">
-        <v>27</v>
+        <v>5.4</v>
       </c>
       <c r="I25" t="n">
-        <v>30</v>
+        <v>5.6</v>
       </c>
       <c r="J25" t="n">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="K25" t="n">
-        <v>11</v>
+        <v>4.3</v>
       </c>
       <c r="L25" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O25" t="n">
         <v>1.27</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N25" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.17</v>
-      </c>
       <c r="P25" t="n">
-        <v>2.82</v>
+        <v>2.18</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="S25" t="n">
-        <v>2.32</v>
+        <v>3.05</v>
       </c>
       <c r="T25" t="n">
-        <v>2.68</v>
+        <v>1.82</v>
       </c>
       <c r="U25" t="n">
-        <v>1.54</v>
+        <v>2.16</v>
       </c>
       <c r="V25" t="n">
-        <v>1.03</v>
+        <v>1.21</v>
       </c>
       <c r="W25" t="n">
-        <v>7.2</v>
+        <v>2.36</v>
       </c>
       <c r="X25" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z25" t="n">
-        <v>350</v>
+        <v>42</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB25" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>28</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF25" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>15.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>450</v>
+        <v>65</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8</v>
+        <v>17.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM25" t="n">
-        <v>430</v>
+        <v>95</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.35</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.77</v>
+        <v>1.52</v>
       </c>
       <c r="G26" t="n">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
       <c r="H26" t="n">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="J26" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="P26" t="n">
-        <v>2.42</v>
+        <v>2.92</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
       <c r="S26" t="n">
-        <v>2.7</v>
+        <v>2.22</v>
       </c>
       <c r="T26" t="n">
         <v>1.69</v>
       </c>
       <c r="U26" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="V26" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="W26" t="n">
-        <v>2.28</v>
+        <v>2.86</v>
       </c>
       <c r="X26" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="Y26" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Z26" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AA26" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AB26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE26" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AF26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM26" t="n">
         <v>75</v>
       </c>
       <c r="AN26" t="n">
-        <v>8.4</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.74</v>
+        <v>6.2</v>
       </c>
       <c r="G27" t="n">
-        <v>1.75</v>
+        <v>6.4</v>
       </c>
       <c r="H27" t="n">
-        <v>5.2</v>
+        <v>1.65</v>
       </c>
       <c r="I27" t="n">
-        <v>5.4</v>
+        <v>1.66</v>
       </c>
       <c r="J27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K27" t="n">
         <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="O27" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="P27" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="R27" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="S27" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="T27" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="V27" t="n">
-        <v>1.22</v>
+        <v>2.52</v>
       </c>
       <c r="W27" t="n">
-        <v>2.3</v>
+        <v>1.18</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y27" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB27" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>9.6</v>
       </c>
       <c r="AC27" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>19.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>65</v>
+        <v>16.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.6</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="n">
-        <v>17.5</v>
+        <v>150</v>
       </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="AL27" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AN27" t="n">
-        <v>9.4</v>
+        <v>110</v>
       </c>
       <c r="AO27" t="n">
-        <v>70</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.59</v>
+        <v>1.21</v>
       </c>
       <c r="G28" t="n">
-        <v>1.61</v>
+        <v>1.22</v>
       </c>
       <c r="H28" t="n">
-        <v>5.9</v>
+        <v>16.5</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>17.5</v>
       </c>
       <c r="J28" t="n">
-        <v>4.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>4.9</v>
+        <v>8.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O28" t="n">
         <v>1.18</v>
       </c>
       <c r="P28" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R28" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="S28" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T28" t="n">
-        <v>1.7</v>
+        <v>2.28</v>
       </c>
       <c r="U28" t="n">
-        <v>2.36</v>
+        <v>1.76</v>
       </c>
       <c r="V28" t="n">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="W28" t="n">
-        <v>2.64</v>
+        <v>5.5</v>
       </c>
       <c r="X28" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Y28" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="Z28" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AA28" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AC28" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AE28" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="AF28" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="AG28" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="AI28" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>8.6</v>
       </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AM28" t="n">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="AO28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5.8</v>
+        <v>3.5</v>
       </c>
       <c r="G29" t="n">
-        <v>5.9</v>
+        <v>3.55</v>
       </c>
       <c r="H29" t="n">
-        <v>1.69</v>
+        <v>2.26</v>
       </c>
       <c r="I29" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T29" t="n">
         <v>1.7</v>
       </c>
-      <c r="J29" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R29" t="n">
+      <c r="U29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.39</v>
       </c>
-      <c r="S29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.2</v>
-      </c>
       <c r="X29" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z29" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="AA29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC29" t="n">
         <v>7.8</v>
       </c>
-      <c r="Z29" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>9</v>
-      </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AF29" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AI29" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ29" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AL29" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM29" t="n">
         <v>80</v>
       </c>
-      <c r="AM29" t="n">
-        <v>130</v>
-      </c>
       <c r="AN29" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AO29" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.23</v>
+        <v>1.61</v>
       </c>
       <c r="G30" t="n">
-        <v>1.24</v>
+        <v>1.62</v>
       </c>
       <c r="H30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK30" t="n">
         <v>16</v>
       </c>
-      <c r="I30" t="n">
-        <v>17</v>
-      </c>
-      <c r="J30" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K30" t="n">
-        <v>8</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W30" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="X30" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>14</v>
-      </c>
       <c r="AL30" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM30" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.75</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO30" t="n">
-        <v>470</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.45</v>
+        <v>1.73</v>
       </c>
       <c r="G31" t="n">
-        <v>3.5</v>
+        <v>1.74</v>
       </c>
       <c r="H31" t="n">
-        <v>2.26</v>
+        <v>5.3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="K31" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="L31" t="n">
         <v>1.39</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O31" t="n">
         <v>1.28</v>
       </c>
       <c r="P31" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R31" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="S31" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="U31" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.77</v>
+        <v>1.22</v>
       </c>
       <c r="W31" t="n">
-        <v>1.4</v>
+        <v>2.34</v>
       </c>
       <c r="X31" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK31" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y31" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>38</v>
-      </c>
       <c r="AL31" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AM31" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN31" t="n">
-        <v>34</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO31" t="n">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="G32" t="n">
-        <v>1.63</v>
+        <v>1.39</v>
       </c>
       <c r="H32" t="n">
-        <v>6.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="J32" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="K32" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="L32" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T32" t="n">
         <v>2.06</v>
       </c>
-      <c r="Q32" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.96</v>
-      </c>
       <c r="U32" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="V32" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="W32" t="n">
-        <v>2.58</v>
+        <v>3.6</v>
       </c>
       <c r="X32" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="Y32" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Z32" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AA32" t="n">
-        <v>180</v>
+        <v>390</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AE32" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AF32" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG32" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AI32" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AJ32" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AK32" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AL32" t="n">
         <v>36</v>
       </c>
       <c r="AM32" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN32" t="n">
-        <v>9</v>
+        <v>5.3</v>
       </c>
       <c r="AO32" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.74</v>
+        <v>3.95</v>
       </c>
       <c r="G33" t="n">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="H33" t="n">
-        <v>5.2</v>
+        <v>1.93</v>
       </c>
       <c r="I33" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N33" t="n">
         <v>5.4</v>
       </c>
-      <c r="J33" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N33" t="n">
-        <v>4.5</v>
-      </c>
       <c r="O33" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="R33" t="n">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="S33" t="n">
-        <v>3.05</v>
+        <v>2.58</v>
       </c>
       <c r="T33" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="U33" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="V33" t="n">
-        <v>1.23</v>
+        <v>2.04</v>
       </c>
       <c r="W33" t="n">
-        <v>2.34</v>
+        <v>1.32</v>
       </c>
       <c r="X33" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE33" t="n">
         <v>18</v>
       </c>
-      <c r="Y33" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB33" t="n">
+      <c r="AF33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO33" t="n">
         <v>9.4</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="G34" t="n">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
-        <v>10</v>
+        <v>5.8</v>
       </c>
       <c r="I34" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="K34" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="L34" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O34" t="n">
         <v>1.33</v>
       </c>
-      <c r="M34" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N34" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.23</v>
-      </c>
       <c r="P34" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.69</v>
+        <v>1.98</v>
       </c>
       <c r="R34" t="n">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="S34" t="n">
-        <v>2.74</v>
+        <v>3.55</v>
       </c>
       <c r="T34" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="U34" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="V34" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="W34" t="n">
-        <v>3.55</v>
+        <v>2.42</v>
       </c>
       <c r="X34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH34" t="n">
         <v>22</v>
       </c>
-      <c r="Y34" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>370</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>27</v>
-      </c>
       <c r="AI34" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AJ34" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AK34" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AM34" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.4</v>
+        <v>11</v>
       </c>
       <c r="AO34" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>11</v>
+        <v>1.58</v>
       </c>
       <c r="G35" t="n">
-        <v>12</v>
+        <v>1.61</v>
       </c>
       <c r="H35" t="n">
-        <v>1.37</v>
+        <v>6.4</v>
       </c>
       <c r="I35" t="n">
-        <v>1.39</v>
+        <v>7.2</v>
       </c>
       <c r="J35" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="K35" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P35" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R35" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="S35" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="T35" t="n">
-        <v>2.24</v>
+        <v>1.87</v>
       </c>
       <c r="U35" t="n">
-        <v>1.73</v>
+        <v>2.06</v>
       </c>
       <c r="V35" t="n">
-        <v>3.55</v>
+        <v>1.16</v>
       </c>
       <c r="W35" t="n">
-        <v>1.09</v>
+        <v>2.62</v>
       </c>
       <c r="X35" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.199999999999999</v>
+        <v>25</v>
       </c>
       <c r="Z35" t="n">
-        <v>7.8</v>
+        <v>60</v>
       </c>
       <c r="AA35" t="n">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC35" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AD35" t="n">
-        <v>10.5</v>
+        <v>26</v>
       </c>
       <c r="AE35" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>15</v>
       </c>
-      <c r="AF35" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>42</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>470</v>
-      </c>
       <c r="AK35" t="n">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="AL35" t="n">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="AM35" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN35" t="n">
-        <v>310</v>
+        <v>8</v>
       </c>
       <c r="AO35" t="n">
-        <v>6.2</v>
+        <v>980</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.87</v>
+        <v>1.48</v>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>1.49</v>
       </c>
       <c r="H36" t="n">
-        <v>4.8</v>
+        <v>7.4</v>
       </c>
       <c r="I36" t="n">
+        <v>8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5</v>
+      </c>
+      <c r="K36" t="n">
         <v>5.1</v>
       </c>
-      <c r="J36" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L36" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="M36" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="P36" t="n">
-        <v>1.9</v>
+        <v>2.42</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.08</v>
+        <v>1.68</v>
       </c>
       <c r="R36" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="S36" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="T36" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="U36" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="V36" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="W36" t="n">
-        <v>2.12</v>
+        <v>3</v>
       </c>
       <c r="X36" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="Y36" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="Z36" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AA36" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="AB36" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD36" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AE36" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AF36" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AG36" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AH36" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI36" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="AJ36" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AL36" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM36" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>14</v>
+        <v>6.2</v>
       </c>
       <c r="AO36" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.58</v>
+        <v>4.7</v>
       </c>
       <c r="G37" t="n">
-        <v>1.6</v>
+        <v>4.9</v>
       </c>
       <c r="H37" t="n">
-        <v>6.2</v>
+        <v>1.87</v>
       </c>
       <c r="I37" t="n">
-        <v>6.8</v>
+        <v>1.9</v>
       </c>
       <c r="J37" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="K37" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="L37" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="O37" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="P37" t="n">
-        <v>2.36</v>
+        <v>1.98</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="R37" t="n">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="S37" t="n">
-        <v>2.76</v>
+        <v>3.5</v>
       </c>
       <c r="T37" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="U37" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="V37" t="n">
-        <v>1.17</v>
+        <v>2.1</v>
       </c>
       <c r="W37" t="n">
-        <v>2.66</v>
+        <v>1.26</v>
       </c>
       <c r="X37" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="Y37" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Z37" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="AA37" t="n">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="AC37" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AE37" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="AF37" t="n">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="AG37" t="n">
-        <v>10</v>
+        <v>18.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AJ37" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="AK37" t="n">
-        <v>15.5</v>
+        <v>95</v>
       </c>
       <c r="AL37" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AM37" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>7.2</v>
+        <v>70</v>
       </c>
       <c r="AO37" t="n">
-        <v>85</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.49</v>
+        <v>1.94</v>
       </c>
       <c r="G38" t="n">
-        <v>1.51</v>
+        <v>1.99</v>
       </c>
       <c r="H38" t="n">
-        <v>7.2</v>
+        <v>4.3</v>
       </c>
       <c r="I38" t="n">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="J38" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="K38" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="L38" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O38" t="n">
         <v>1.32</v>
       </c>
-      <c r="M38" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N38" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.22</v>
-      </c>
       <c r="P38" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="R38" t="n">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="S38" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="T38" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U38" t="n">
         <v>2.14</v>
       </c>
       <c r="V38" t="n">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="W38" t="n">
-        <v>2.96</v>
+        <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AA38" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="AB38" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC38" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AD38" t="n">
-        <v>28</v>
+        <v>17.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AF38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG38" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AG38" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AH38" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="AJ38" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AK38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN38" t="n">
         <v>14</v>
       </c>
-      <c r="AL38" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AO38" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F39" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K39" t="n">
         <v>4.3</v>
       </c>
-      <c r="G39" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L39" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="M39" t="n">
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="P39" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="R39" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="S39" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="T39" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="U39" t="n">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="V39" t="n">
-        <v>2.04</v>
+        <v>1.2</v>
       </c>
       <c r="W39" t="n">
-        <v>1.28</v>
+        <v>2.4</v>
       </c>
       <c r="X39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y39" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z39" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN39" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA39" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>330</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>60</v>
-      </c>
       <c r="AO39" t="n">
-        <v>13.5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.84</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>1.89</v>
+        <v>11.5</v>
       </c>
       <c r="H40" t="n">
-        <v>4.7</v>
+        <v>1.39</v>
       </c>
       <c r="I40" t="n">
-        <v>5.1</v>
+        <v>1.41</v>
       </c>
       <c r="J40" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>3.95</v>
+        <v>5.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="O40" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P40" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="R40" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="S40" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T40" t="n">
-        <v>1.82</v>
+        <v>2.22</v>
       </c>
       <c r="U40" t="n">
-        <v>2.1</v>
+        <v>1.74</v>
       </c>
       <c r="V40" t="n">
-        <v>1.24</v>
+        <v>3.4</v>
       </c>
       <c r="W40" t="n">
-        <v>2.12</v>
+        <v>1.09</v>
       </c>
       <c r="X40" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.5</v>
+        <v>7.8</v>
       </c>
       <c r="Z40" t="n">
-        <v>120</v>
+        <v>7.6</v>
       </c>
       <c r="AA40" t="n">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="AB40" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="AF40" t="n">
-        <v>11.5</v>
+        <v>95</v>
       </c>
       <c r="AG40" t="n">
-        <v>9.800000000000001</v>
+        <v>40</v>
       </c>
       <c r="AH40" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AI40" t="n">
-        <v>330</v>
+        <v>44</v>
       </c>
       <c r="AJ40" t="n">
-        <v>20</v>
+        <v>460</v>
       </c>
       <c r="AK40" t="n">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="AL40" t="n">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="AM40" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AN40" t="n">
-        <v>12.5</v>
+        <v>390</v>
       </c>
       <c r="AO40" t="n">
-        <v>300</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="41">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>1.72</v>
+        <v>2.04</v>
       </c>
       <c r="H41" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="I41" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K41" t="n">
         <v>4.2</v>
       </c>
       <c r="L41" t="n">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="O41" t="n">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
       <c r="P41" t="n">
-        <v>1.88</v>
+        <v>2.7</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.06</v>
+        <v>1.55</v>
       </c>
       <c r="R41" t="n">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
       <c r="S41" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="U41" t="n">
-        <v>1.88</v>
+        <v>2.62</v>
       </c>
       <c r="V41" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="W41" t="n">
-        <v>2.38</v>
+        <v>1.96</v>
       </c>
       <c r="X41" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Y41" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK41" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z41" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD41" t="n">
+      <c r="AL41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO41" t="n">
         <v>24</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>130</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.75</v>
+        <v>1.67</v>
       </c>
       <c r="G42" t="n">
-        <v>3.9</v>
+        <v>1.77</v>
       </c>
       <c r="H42" t="n">
-        <v>2.04</v>
+        <v>6.2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.06</v>
+        <v>7.6</v>
       </c>
       <c r="J42" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="K42" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O42" t="n">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="P42" t="n">
-        <v>2.54</v>
+        <v>1.67</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.61</v>
+        <v>2.28</v>
       </c>
       <c r="R42" t="n">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="S42" t="n">
-        <v>2.54</v>
+        <v>4.3</v>
       </c>
       <c r="T42" t="n">
-        <v>1.57</v>
+        <v>2.08</v>
       </c>
       <c r="U42" t="n">
-        <v>2.58</v>
+        <v>1.74</v>
       </c>
       <c r="V42" t="n">
-        <v>1.94</v>
+        <v>1.17</v>
       </c>
       <c r="W42" t="n">
-        <v>1.35</v>
+        <v>2.28</v>
       </c>
       <c r="X42" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y42" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.800000000000001</v>
+        <v>42</v>
       </c>
       <c r="AD42" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>15.5</v>
+        <v>40</v>
       </c>
       <c r="AH42" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AO42" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F43" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W43" t="n">
         <v>2.02</v>
       </c>
-      <c r="G43" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K43" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N43" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.94</v>
-      </c>
       <c r="X43" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="Y43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD43" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z43" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>16</v>
-      </c>
       <c r="AE43" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AF43" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AG43" t="n">
         <v>10.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AI43" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AJ43" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK43" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL43" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AM43" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN43" t="n">
-        <v>11.5</v>
+        <v>18</v>
       </c>
       <c r="AO43" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,126 +6323,126 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.68</v>
+        <v>1.35</v>
       </c>
       <c r="G44" t="n">
-        <v>1.81</v>
+        <v>1.39</v>
       </c>
       <c r="H44" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J44" t="n">
         <v>5.9</v>
       </c>
-      <c r="I44" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K44" t="n">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="L44" t="n">
-        <v>1.52</v>
+        <v>1.23</v>
       </c>
       <c r="M44" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N44" t="n">
-        <v>2.86</v>
+        <v>7.8</v>
       </c>
       <c r="O44" t="n">
-        <v>1.45</v>
+        <v>1.13</v>
       </c>
       <c r="P44" t="n">
-        <v>1.63</v>
+        <v>3.3</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.36</v>
+        <v>1.41</v>
       </c>
       <c r="R44" t="n">
-        <v>1.23</v>
+        <v>1.71</v>
       </c>
       <c r="S44" t="n">
-        <v>4.5</v>
+        <v>2.22</v>
       </c>
       <c r="T44" t="n">
-        <v>2.16</v>
+        <v>1.75</v>
       </c>
       <c r="U44" t="n">
-        <v>1.7</v>
+        <v>2.06</v>
       </c>
       <c r="V44" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="W44" t="n">
-        <v>2.24</v>
+        <v>3.3</v>
       </c>
       <c r="X44" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="Y44" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z44" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AB44" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="AD44" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF44" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI44" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AK44" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM44" t="n">
         <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
@@ -6458,132 +6458,132 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.97</v>
+        <v>2.42</v>
       </c>
       <c r="G45" t="n">
-        <v>1.98</v>
+        <v>2.44</v>
       </c>
       <c r="H45" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="I45" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="J45" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="K45" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="L45" t="n">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="M45" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="N45" t="n">
-        <v>3.4</v>
+        <v>2.48</v>
       </c>
       <c r="O45" t="n">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="P45" t="n">
-        <v>1.79</v>
+        <v>1.48</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="S45" t="n">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="T45" t="n">
-        <v>1.98</v>
+        <v>2.34</v>
       </c>
       <c r="U45" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="V45" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="W45" t="n">
-        <v>2.02</v>
+        <v>1.68</v>
       </c>
       <c r="X45" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y45" t="n">
-        <v>15</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z45" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AA45" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AB45" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AC45" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD45" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AE45" t="n">
         <v>70</v>
       </c>
       <c r="AF45" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG45" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH45" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AI45" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AJ45" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AK45" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AL45" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AM45" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="AN45" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="AO45" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,126 +6593,126 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Boyaca Chico</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.36</v>
+        <v>5.4</v>
       </c>
       <c r="G46" t="n">
-        <v>1.4</v>
+        <v>5.8</v>
       </c>
       <c r="H46" t="n">
-        <v>8.199999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="I46" t="n">
-        <v>9.800000000000001</v>
+        <v>1.83</v>
       </c>
       <c r="J46" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="K46" t="n">
-        <v>6.4</v>
+        <v>3.85</v>
       </c>
       <c r="L46" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R46" t="n">
         <v>1.22</v>
       </c>
-      <c r="M46" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N46" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P46" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.9</v>
-      </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T46" t="n">
-        <v>1.69</v>
+        <v>2.22</v>
       </c>
       <c r="U46" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V46" t="n">
         <v>2.2</v>
       </c>
-      <c r="V46" t="n">
-        <v>1.12</v>
-      </c>
       <c r="W46" t="n">
-        <v>3.5</v>
+        <v>1.21</v>
       </c>
       <c r="X46" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="Y46" t="n">
-        <v>55</v>
+        <v>6.6</v>
       </c>
       <c r="Z46" t="n">
-        <v>95</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA46" t="n">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="AB46" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC46" t="n">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="AD46" t="n">
-        <v>34</v>
+        <v>10.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="AF46" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AG46" t="n">
-        <v>11.5</v>
+        <v>28</v>
       </c>
       <c r="AH46" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AI46" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="AJ46" t="n">
-        <v>14.5</v>
+        <v>180</v>
       </c>
       <c r="AK46" t="n">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="AL46" t="n">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>4.1</v>
+        <v>600</v>
       </c>
       <c r="AO46" t="n">
-        <v>80</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="47">
@@ -6728,132 +6728,132 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.48</v>
+        <v>1.47</v>
       </c>
       <c r="G47" t="n">
-        <v>2.52</v>
+        <v>1.48</v>
       </c>
       <c r="H47" t="n">
-        <v>3.45</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I47" t="n">
-        <v>3.55</v>
+        <v>9</v>
       </c>
       <c r="J47" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="K47" t="n">
-        <v>3.15</v>
+        <v>4.8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="M47" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="N47" t="n">
-        <v>2.66</v>
+        <v>3.9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.59</v>
+        <v>1.33</v>
       </c>
       <c r="P47" t="n">
-        <v>1.54</v>
+        <v>1.97</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.76</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="S47" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="T47" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U47" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="V47" t="n">
-        <v>1.39</v>
+        <v>1.12</v>
       </c>
       <c r="W47" t="n">
-        <v>1.65</v>
+        <v>3.05</v>
       </c>
       <c r="X47" t="n">
-        <v>8.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="Y47" t="n">
-        <v>9.4</v>
+        <v>25</v>
       </c>
       <c r="Z47" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="n">
-        <v>75</v>
+        <v>470</v>
       </c>
       <c r="AB47" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AC47" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD47" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AE47" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AF47" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AG47" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH47" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI47" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="AJ47" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="AK47" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="AL47" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AM47" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN47" t="n">
-        <v>42</v>
+        <v>8.4</v>
       </c>
       <c r="AO47" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,396 +6863,126 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>22:20:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Boyaca Chico</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="G48" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="H48" t="n">
-        <v>1.77</v>
+        <v>2.52</v>
       </c>
       <c r="I48" t="n">
-        <v>1.81</v>
+        <v>2.8</v>
       </c>
       <c r="J48" t="n">
-        <v>3.7</v>
+        <v>2.92</v>
       </c>
       <c r="K48" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="L48" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="M48" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N48" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="O48" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="P48" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="R48" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="T48" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="U48" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="V48" t="n">
-        <v>2.22</v>
+        <v>1.56</v>
       </c>
       <c r="W48" t="n">
-        <v>1.21</v>
+        <v>1.39</v>
       </c>
       <c r="X48" t="n">
         <v>10.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="Z48" t="n">
-        <v>9.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AB48" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="AC48" t="n">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="AD48" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AF48" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AG48" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI48" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL48" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2025-11-06</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>SE Palmeiras</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Santos</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="H49" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="I49" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="J49" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K49" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N49" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S49" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T49" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W49" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="X49" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>470</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2025-11-06</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>22:20:00</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Boca Juniors de Cali</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Real Soacha Cundinamarca FC</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="G50" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N50" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S50" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T50" t="n">
-        <v>2</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X50" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI50" t="n">
         <v>1000</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
